--- a/.coder_resources/Pandaria.xlsx
+++ b/.coder_resources/Pandaria.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="2037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="2038">
   <si>
     <t>4_6</t>
   </si>
@@ -3483,9 +3483,6 @@
     <t>Kojo</t>
   </si>
   <si>
-    <t>Tasters' Arena(B)</t>
-  </si>
-  <si>
     <t>Urobi(B)</t>
   </si>
   <si>
@@ -6108,9 +6105,6 @@
     <t>Yu'lon(B)</t>
   </si>
   <si>
-    <t>Serpent</t>
-  </si>
-  <si>
     <t>Shang(T)</t>
   </si>
   <si>
@@ -6130,6 +6124,15 @@
   </si>
   <si>
     <t>Mei Li-Sa</t>
+  </si>
+  <si>
+    <t>Serpent's Hearth</t>
+  </si>
+  <si>
+    <t>Shang's Valley</t>
+  </si>
+  <si>
+    <t>Shang's Valley(B)</t>
   </si>
 </sst>
 </file>
@@ -6963,10 +6966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AL255"/>
+  <dimension ref="B1:AL281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6998,7 +7001,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>16</v>
@@ -7075,7 +7078,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>16</v>
@@ -7152,7 +7155,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>16</v>
@@ -7229,7 +7232,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>44</v>
@@ -7296,7 +7299,7 @@
         <v>75</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5" t="s">
@@ -7306,7 +7309,7 @@
         <v>15</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>16</v>
@@ -7373,7 +7376,7 @@
         <v>75</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="5" t="s">
@@ -7383,7 +7386,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>16</v>
@@ -7399,7 +7402,7 @@
         <v>61</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>62</v>
@@ -7989,7 +7992,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="5" t="s">
@@ -8451,7 +8454,7 @@
         <v>159</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="5" t="s">
@@ -8477,7 +8480,7 @@
         <v>6</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>183</v>
@@ -8528,7 +8531,7 @@
         <v>90</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="5" t="s">
@@ -8836,7 +8839,7 @@
         <v>176</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="5" t="s">
@@ -8862,7 +8865,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>221</v>
@@ -9452,7 +9455,7 @@
         <v>170</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
@@ -9606,7 +9609,7 @@
         <v>131</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5" t="s">
@@ -9632,10 +9635,10 @@
         <v>80</v>
       </c>
       <c r="P35" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="Q35" s="5" t="s">
         <v>1975</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>1976</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>301</v>
@@ -10001,7 +10004,7 @@
         <v>14</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K40" s="26" t="s">
         <v>338</v>
@@ -10068,7 +10071,7 @@
         <v>131</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5" t="s">
@@ -10078,7 +10081,7 @@
         <v>14</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K41" s="26" t="s">
         <v>338</v>
@@ -10155,7 +10158,7 @@
         <v>14</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K42" s="26" t="s">
         <v>338</v>
@@ -10222,7 +10225,7 @@
         <v>131</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="5" t="s">
@@ -10232,7 +10235,7 @@
         <v>14</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K43" s="28" t="s">
         <v>362</v>
@@ -10248,7 +10251,7 @@
         <v>2</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="Q43" s="5" t="s">
         <v>363</v>
@@ -10309,7 +10312,7 @@
         <v>14</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K44" s="28" t="s">
         <v>362</v>
@@ -10386,7 +10389,7 @@
         <v>14</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K45" s="28" t="s">
         <v>362</v>
@@ -10463,7 +10466,7 @@
         <v>14</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K46" s="28" t="s">
         <v>362</v>
@@ -10540,7 +10543,7 @@
         <v>14</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K47" s="28" t="s">
         <v>362</v>
@@ -10617,7 +10620,7 @@
         <v>14</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K48" s="28" t="s">
         <v>362</v>
@@ -10684,7 +10687,7 @@
         <v>210</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="5" t="s">
@@ -10694,7 +10697,7 @@
         <v>14</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K49" s="26" t="s">
         <v>338</v>
@@ -10710,7 +10713,7 @@
         <v>9</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="Q49" s="5" t="s">
         <v>408</v>
@@ -11146,7 +11149,7 @@
         <v>163</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="5" t="s">
@@ -11223,7 +11226,7 @@
         <v>210</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="5" t="s">
@@ -11685,7 +11688,7 @@
         <v>81</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5" t="s">
@@ -11711,7 +11714,7 @@
         <v>6</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="Q62" s="5" t="s">
         <v>509</v>
@@ -11839,7 +11842,7 @@
         <v>84</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5" t="s">
@@ -11849,7 +11852,7 @@
         <v>522</v>
       </c>
       <c r="J64" s="33" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="K64" s="14" t="s">
         <v>70</v>
@@ -11926,7 +11929,7 @@
         <v>522</v>
       </c>
       <c r="J65" s="33" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="K65" s="14" t="s">
         <v>70</v>
@@ -11993,7 +11996,7 @@
         <v>84</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="5" t="s">
@@ -12003,7 +12006,7 @@
         <v>522</v>
       </c>
       <c r="J66" s="33" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="K66" s="14" t="s">
         <v>70</v>
@@ -12019,7 +12022,7 @@
         <v>213</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="Q66" s="5" t="s">
         <v>538</v>
@@ -12080,7 +12083,7 @@
         <v>522</v>
       </c>
       <c r="J67" s="33" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="K67" s="14" t="s">
         <v>70</v>
@@ -12157,7 +12160,7 @@
         <v>522</v>
       </c>
       <c r="J68" s="33" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="K68" s="14" t="s">
         <v>70</v>
@@ -12234,7 +12237,7 @@
         <v>522</v>
       </c>
       <c r="J69" s="33" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="K69" s="14" t="s">
         <v>70</v>
@@ -12455,7 +12458,7 @@
         <v>11</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5" t="s">
@@ -12532,7 +12535,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="5" t="s">
@@ -12763,7 +12766,7 @@
         <v>135</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
@@ -12773,7 +12776,7 @@
         <v>522</v>
       </c>
       <c r="J76" s="35" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>16</v>
@@ -12850,7 +12853,7 @@
         <v>522</v>
       </c>
       <c r="J77" s="35" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>16</v>
@@ -13148,7 +13151,7 @@
         <v>39</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5" t="s">
@@ -13225,7 +13228,7 @@
         <v>39</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5" t="s">
@@ -13379,7 +13382,7 @@
         <v>66</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="37" t="s">
@@ -14072,7 +14075,7 @@
         <v>114</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="37" t="s">
@@ -14098,7 +14101,7 @@
         <v>9</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="Q93" s="5" t="s">
         <v>748</v>
@@ -14149,7 +14152,7 @@
         <v>56</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="37" t="s">
@@ -14175,7 +14178,7 @@
         <v>3</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="Q94" s="5" t="s">
         <v>753</v>
@@ -14457,7 +14460,7 @@
         <v>33</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="37" t="s">
@@ -14483,7 +14486,7 @@
         <v>785</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="Q98" s="5" t="s">
         <v>786</v>
@@ -14534,7 +14537,7 @@
         <v>33</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="37" t="s">
@@ -14560,7 +14563,7 @@
         <v>792</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="Q99" s="5" t="s">
         <v>793</v>
@@ -14842,7 +14845,7 @@
         <v>174</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="37" t="s">
@@ -14868,7 +14871,7 @@
         <v>213</v>
       </c>
       <c r="P103" s="5" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="Q103" s="5" t="s">
         <v>821</v>
@@ -15073,7 +15076,7 @@
         <v>124</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="37" t="s">
@@ -15083,7 +15086,7 @@
         <v>668</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="K106" s="14" t="s">
         <v>70</v>
@@ -15160,7 +15163,7 @@
         <v>668</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="K107" s="14" t="s">
         <v>70</v>
@@ -15227,7 +15230,7 @@
         <v>41</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="37" t="s">
@@ -15237,7 +15240,7 @@
         <v>668</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="K108" s="14" t="s">
         <v>70</v>
@@ -15304,7 +15307,7 @@
         <v>124</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="37" t="s">
@@ -15314,7 +15317,7 @@
         <v>668</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="K109" s="14" t="s">
         <v>70</v>
@@ -15330,7 +15333,7 @@
         <v>9</v>
       </c>
       <c r="P109" s="5" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="Q109" s="5" t="s">
         <v>863</v>
@@ -15381,7 +15384,7 @@
         <v>124</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="37" t="s">
@@ -15391,7 +15394,7 @@
         <v>668</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="K110" s="14" t="s">
         <v>70</v>
@@ -15407,10 +15410,10 @@
         <v>6</v>
       </c>
       <c r="P110" s="5" t="s">
+        <v>2005</v>
+      </c>
+      <c r="Q110" s="5" t="s">
         <v>2006</v>
-      </c>
-      <c r="Q110" s="5" t="s">
-        <v>2007</v>
       </c>
       <c r="R110" s="5" t="s">
         <v>869</v>
@@ -15468,7 +15471,7 @@
         <v>668</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="K111" s="39" t="s">
         <v>670</v>
@@ -15545,7 +15548,7 @@
         <v>668</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="K112" s="39" t="s">
         <v>670</v>
@@ -15612,7 +15615,7 @@
         <v>105</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="37" t="s">
@@ -15622,7 +15625,7 @@
         <v>668</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="K113" s="39" t="s">
         <v>670</v>
@@ -16921,7 +16924,7 @@
         <v>39</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="37" t="s">
@@ -17075,7 +17078,7 @@
         <v>122</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="37" t="s">
@@ -17101,7 +17104,7 @@
         <v>13</v>
       </c>
       <c r="P132" s="5" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="Q132" s="5" t="s">
         <v>1035</v>
@@ -17152,7 +17155,7 @@
         <v>77</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="37" t="s">
@@ -17162,7 +17165,7 @@
         <v>1041</v>
       </c>
       <c r="J133" s="51" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="K133" s="5" t="s">
         <v>16</v>
@@ -17178,7 +17181,7 @@
         <v>139</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="Q133" s="5" t="s">
         <v>1042</v>
@@ -17229,7 +17232,7 @@
         <v>77</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="37" t="s">
@@ -17239,7 +17242,7 @@
         <v>1041</v>
       </c>
       <c r="J134" s="51" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="K134" s="5" t="s">
         <v>16</v>
@@ -17306,7 +17309,7 @@
         <v>77</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="37" t="s">
@@ -17316,7 +17319,7 @@
         <v>1041</v>
       </c>
       <c r="J135" s="51" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="K135" s="5" t="s">
         <v>16</v>
@@ -17332,7 +17335,7 @@
         <v>213</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="Q135" s="5" t="s">
         <v>1055</v>
@@ -17383,7 +17386,7 @@
         <v>109</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="37" t="s">
@@ -17393,7 +17396,7 @@
         <v>1041</v>
       </c>
       <c r="J136" s="51" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>16</v>
@@ -17409,7 +17412,7 @@
         <v>61</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="Q136" s="5" t="s">
         <v>1060</v>
@@ -17614,7 +17617,7 @@
         <v>180</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="37" t="s">
@@ -17640,7 +17643,7 @@
         <v>229</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="Q139" s="5" t="s">
         <v>1082</v>
@@ -17691,7 +17694,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="37" t="s">
@@ -17768,7 +17771,7 @@
         <v>103</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="37" t="s">
@@ -17922,7 +17925,7 @@
         <v>180</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="37" t="s">
@@ -17999,7 +18002,7 @@
         <v>39</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="52" t="s">
@@ -18009,7 +18012,7 @@
         <v>1118</v>
       </c>
       <c r="J144" s="54" t="s">
-        <v>2029</v>
+        <v>2035</v>
       </c>
       <c r="K144" s="14" t="s">
         <v>70</v>
@@ -18025,7 +18028,7 @@
         <v>139</v>
       </c>
       <c r="P144" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="Q144" s="5" t="s">
         <v>1119</v>
@@ -18076,7 +18079,7 @@
         <v>109</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>2029</v>
+        <v>2035</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="52" t="s">
@@ -18086,7 +18089,7 @@
         <v>1118</v>
       </c>
       <c r="J145" s="54" t="s">
-        <v>2029</v>
+        <v>2035</v>
       </c>
       <c r="K145" s="14" t="s">
         <v>70</v>
@@ -18163,7 +18166,7 @@
         <v>1118</v>
       </c>
       <c r="J146" s="54" t="s">
-        <v>2029</v>
+        <v>2035</v>
       </c>
       <c r="K146" s="14" t="s">
         <v>70</v>
@@ -18240,7 +18243,7 @@
         <v>1118</v>
       </c>
       <c r="J147" s="54" t="s">
-        <v>2029</v>
+        <v>2035</v>
       </c>
       <c r="K147" s="14" t="s">
         <v>70</v>
@@ -18317,7 +18320,7 @@
         <v>1118</v>
       </c>
       <c r="J148" s="54" t="s">
-        <v>2029</v>
+        <v>2035</v>
       </c>
       <c r="K148" s="14" t="s">
         <v>70</v>
@@ -18384,7 +18387,7 @@
         <v>90</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>1695</v>
+        <v>2036</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="52" t="s">
@@ -18394,7 +18397,7 @@
         <v>1118</v>
       </c>
       <c r="J149" s="54" t="s">
-        <v>2029</v>
+        <v>2035</v>
       </c>
       <c r="K149" s="14" t="s">
         <v>70</v>
@@ -18410,25 +18413,25 @@
         <v>61</v>
       </c>
       <c r="P149" s="5" t="s">
+        <v>2037</v>
+      </c>
+      <c r="Q149" s="5" t="s">
+        <v>2028</v>
+      </c>
+      <c r="R149" s="5" t="s">
         <v>1154</v>
       </c>
-      <c r="Q149" s="5" t="s">
-        <v>2030</v>
-      </c>
-      <c r="R149" s="5" t="s">
+      <c r="S149" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="S149" s="5" t="s">
+      <c r="T149" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="T149" s="5" t="s">
+      <c r="U149" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="U149" s="5" t="s">
+      <c r="V149" s="5" t="s">
         <v>1158</v>
-      </c>
-      <c r="V149" s="5" t="s">
-        <v>1159</v>
       </c>
       <c r="W149" s="9"/>
       <c r="X149" s="2"/>
@@ -18461,7 +18464,7 @@
         <v>54</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="52" t="s">
@@ -18471,7 +18474,7 @@
         <v>1118</v>
       </c>
       <c r="J150" s="13" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K150" s="14" t="s">
         <v>70</v>
@@ -18487,25 +18490,25 @@
         <v>19</v>
       </c>
       <c r="P150" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="Q150" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="Q150" s="5" t="s">
+      <c r="R150" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="R150" s="5" t="s">
+      <c r="S150" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="S150" s="5" t="s">
+      <c r="T150" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="T150" s="5" t="s">
+      <c r="U150" s="5" t="s">
         <v>1165</v>
       </c>
-      <c r="U150" s="5" t="s">
+      <c r="V150" s="5" t="s">
         <v>1166</v>
-      </c>
-      <c r="V150" s="5" t="s">
-        <v>1167</v>
       </c>
       <c r="W150" s="9"/>
       <c r="X150" s="2"/>
@@ -18538,7 +18541,7 @@
         <v>56</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="52" t="s">
@@ -18548,7 +18551,7 @@
         <v>1118</v>
       </c>
       <c r="J151" s="13" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K151" s="14" t="s">
         <v>70</v>
@@ -18564,25 +18567,25 @@
         <v>213</v>
       </c>
       <c r="P151" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="Q151" s="5" t="s">
         <v>1169</v>
       </c>
-      <c r="Q151" s="5" t="s">
+      <c r="R151" s="5" t="s">
         <v>1170</v>
       </c>
-      <c r="R151" s="5" t="s">
+      <c r="S151" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="S151" s="5" t="s">
+      <c r="T151" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="T151" s="5" t="s">
+      <c r="U151" s="5" t="s">
         <v>1173</v>
       </c>
-      <c r="U151" s="5" t="s">
+      <c r="V151" s="5" t="s">
         <v>1174</v>
-      </c>
-      <c r="V151" s="5" t="s">
-        <v>1175</v>
       </c>
       <c r="W151" s="9"/>
       <c r="X151" s="2"/>
@@ -18615,7 +18618,7 @@
         <v>99</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="52" t="s">
@@ -18625,7 +18628,7 @@
         <v>1118</v>
       </c>
       <c r="J152" s="13" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K152" s="14" t="s">
         <v>70</v>
@@ -18641,25 +18644,25 @@
         <v>9</v>
       </c>
       <c r="P152" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q152" s="5" t="s">
         <v>1177</v>
       </c>
-      <c r="Q152" s="5" t="s">
+      <c r="R152" s="5" t="s">
         <v>1178</v>
-      </c>
-      <c r="R152" s="5" t="s">
-        <v>1179</v>
       </c>
       <c r="S152" s="5" t="s">
         <v>480</v>
       </c>
       <c r="T152" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="U152" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="U152" s="5" t="s">
+      <c r="V152" s="5" t="s">
         <v>1181</v>
-      </c>
-      <c r="V152" s="5" t="s">
-        <v>1182</v>
       </c>
       <c r="W152" s="9"/>
       <c r="X152" s="2"/>
@@ -18692,7 +18695,7 @@
         <v>99</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="52" t="s">
@@ -18702,7 +18705,7 @@
         <v>1118</v>
       </c>
       <c r="J153" s="13" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K153" s="14" t="s">
         <v>70</v>
@@ -18718,25 +18721,25 @@
         <v>148</v>
       </c>
       <c r="P153" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="Q153" s="5" t="s">
         <v>1184</v>
       </c>
-      <c r="Q153" s="5" t="s">
+      <c r="R153" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="R153" s="5" t="s">
+      <c r="S153" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="S153" s="5" t="s">
+      <c r="T153" s="5" t="s">
         <v>1187</v>
       </c>
-      <c r="T153" s="5" t="s">
+      <c r="U153" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="U153" s="5" t="s">
+      <c r="V153" s="5" t="s">
         <v>1189</v>
-      </c>
-      <c r="V153" s="5" t="s">
-        <v>1190</v>
       </c>
       <c r="W153" s="9"/>
       <c r="X153" s="2"/>
@@ -18769,7 +18772,7 @@
         <v>54</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="52" t="s">
@@ -18779,7 +18782,7 @@
         <v>1118</v>
       </c>
       <c r="J154" s="55" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K154" s="14" t="s">
         <v>70</v>
@@ -18795,25 +18798,25 @@
         <v>97</v>
       </c>
       <c r="P154" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Q154" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="Q154" s="5" t="s">
+      <c r="R154" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="R154" s="5" t="s">
+      <c r="S154" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="S154" s="5" t="s">
+      <c r="T154" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="T154" s="5" t="s">
+      <c r="U154" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="U154" s="5" t="s">
+      <c r="V154" s="5" t="s">
         <v>1197</v>
-      </c>
-      <c r="V154" s="5" t="s">
-        <v>1198</v>
       </c>
       <c r="W154" s="9"/>
       <c r="X154" s="2"/>
@@ -18846,7 +18849,7 @@
         <v>92</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="52" t="s">
@@ -18856,7 +18859,7 @@
         <v>1118</v>
       </c>
       <c r="J155" s="55" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K155" s="14" t="s">
         <v>70</v>
@@ -18872,25 +18875,25 @@
         <v>6</v>
       </c>
       <c r="P155" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Q155" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="R155" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="S155" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="S155" s="5" t="s">
+      <c r="T155" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="T155" s="5" t="s">
+      <c r="U155" s="5" t="s">
         <v>1201</v>
       </c>
-      <c r="U155" s="5" t="s">
+      <c r="V155" s="5" t="s">
         <v>1202</v>
-      </c>
-      <c r="V155" s="5" t="s">
-        <v>1203</v>
       </c>
       <c r="W155" s="9"/>
       <c r="X155" s="2"/>
@@ -18923,7 +18926,7 @@
         <v>54</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="52" t="s">
@@ -18933,7 +18936,7 @@
         <v>1118</v>
       </c>
       <c r="J156" s="55" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K156" s="14" t="s">
         <v>70</v>
@@ -18949,25 +18952,25 @@
         <v>213</v>
       </c>
       <c r="P156" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q156" s="5" t="s">
         <v>1204</v>
       </c>
-      <c r="Q156" s="5" t="s">
+      <c r="R156" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="R156" s="5" t="s">
+      <c r="S156" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="S156" s="5" t="s">
+      <c r="T156" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="T156" s="5" t="s">
+      <c r="U156" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="U156" s="5" t="s">
+      <c r="V156" s="5" t="s">
         <v>1209</v>
-      </c>
-      <c r="V156" s="5" t="s">
-        <v>1210</v>
       </c>
       <c r="W156" s="9"/>
       <c r="X156" s="2"/>
@@ -19000,7 +19003,7 @@
         <v>92</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="52" t="s">
@@ -19010,7 +19013,7 @@
         <v>1118</v>
       </c>
       <c r="J157" s="55" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K157" s="14" t="s">
         <v>70</v>
@@ -19026,25 +19029,25 @@
         <v>106</v>
       </c>
       <c r="P157" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="Q157" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="Q157" s="5" t="s">
+      <c r="R157" s="5" t="s">
         <v>1213</v>
       </c>
-      <c r="R157" s="5" t="s">
+      <c r="S157" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="S157" s="5" t="s">
+      <c r="T157" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="T157" s="5" t="s">
+      <c r="U157" s="5" t="s">
         <v>1216</v>
       </c>
-      <c r="U157" s="5" t="s">
+      <c r="V157" s="5" t="s">
         <v>1217</v>
-      </c>
-      <c r="V157" s="5" t="s">
-        <v>1218</v>
       </c>
       <c r="W157" s="9"/>
     </row>
@@ -19062,7 +19065,7 @@
         <v>92</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="52" t="s">
@@ -19072,7 +19075,7 @@
         <v>1118</v>
       </c>
       <c r="J158" s="55" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K158" s="14" t="s">
         <v>70</v>
@@ -19088,25 +19091,25 @@
         <v>61</v>
       </c>
       <c r="P158" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Q158" s="5" t="s">
         <v>1220</v>
       </c>
-      <c r="Q158" s="5" t="s">
+      <c r="R158" s="5" t="s">
         <v>1221</v>
       </c>
-      <c r="R158" s="5" t="s">
+      <c r="S158" s="5" t="s">
         <v>1222</v>
       </c>
-      <c r="S158" s="5" t="s">
+      <c r="T158" s="5" t="s">
         <v>1223</v>
       </c>
-      <c r="T158" s="5" t="s">
+      <c r="U158" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="U158" s="5" t="s">
+      <c r="V158" s="5" t="s">
         <v>1225</v>
-      </c>
-      <c r="V158" s="5" t="s">
-        <v>1226</v>
       </c>
       <c r="W158" s="9"/>
     </row>
@@ -19124,7 +19127,7 @@
         <v>109</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="52" t="s">
@@ -19134,7 +19137,7 @@
         <v>1118</v>
       </c>
       <c r="J159" s="56" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K159" s="17" t="s">
         <v>157</v>
@@ -19147,28 +19150,28 @@
       </c>
       <c r="N159" s="5"/>
       <c r="O159" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="P159" s="5" t="s">
         <v>1229</v>
       </c>
-      <c r="P159" s="5" t="s">
+      <c r="Q159" s="5" t="s">
         <v>1230</v>
       </c>
-      <c r="Q159" s="5" t="s">
+      <c r="R159" s="5" t="s">
         <v>1231</v>
       </c>
-      <c r="R159" s="5" t="s">
+      <c r="S159" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="S159" s="5" t="s">
+      <c r="T159" s="5" t="s">
         <v>1233</v>
       </c>
-      <c r="T159" s="5" t="s">
+      <c r="U159" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="U159" s="5" t="s">
+      <c r="V159" s="5" t="s">
         <v>1235</v>
-      </c>
-      <c r="V159" s="5" t="s">
-        <v>1236</v>
       </c>
       <c r="W159" s="9"/>
     </row>
@@ -19186,7 +19189,7 @@
         <v>54</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="52" t="s">
@@ -19196,7 +19199,7 @@
         <v>1118</v>
       </c>
       <c r="J160" s="56" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K160" s="17" t="s">
         <v>157</v>
@@ -19212,25 +19215,25 @@
         <v>213</v>
       </c>
       <c r="P160" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Q160" s="5" t="s">
         <v>1237</v>
       </c>
-      <c r="Q160" s="5" t="s">
+      <c r="R160" s="5" t="s">
         <v>1238</v>
       </c>
-      <c r="R160" s="5" t="s">
+      <c r="S160" s="5" t="s">
         <v>1239</v>
       </c>
-      <c r="S160" s="5" t="s">
+      <c r="T160" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="T160" s="5" t="s">
+      <c r="U160" s="5" t="s">
         <v>1241</v>
       </c>
-      <c r="U160" s="5" t="s">
+      <c r="V160" s="5" t="s">
         <v>1242</v>
-      </c>
-      <c r="V160" s="5" t="s">
-        <v>1243</v>
       </c>
       <c r="W160" s="9"/>
     </row>
@@ -19248,7 +19251,7 @@
         <v>54</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="52" t="s">
@@ -19258,7 +19261,7 @@
         <v>1118</v>
       </c>
       <c r="J161" s="56" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K161" s="17" t="s">
         <v>157</v>
@@ -19274,25 +19277,25 @@
         <v>148</v>
       </c>
       <c r="P161" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q161" s="5" t="s">
         <v>1245</v>
       </c>
-      <c r="Q161" s="5" t="s">
+      <c r="R161" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="R161" s="5" t="s">
+      <c r="S161" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="S161" s="5" t="s">
+      <c r="T161" s="5" t="s">
         <v>1248</v>
       </c>
-      <c r="T161" s="5" t="s">
+      <c r="U161" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="U161" s="5" t="s">
+      <c r="V161" s="5" t="s">
         <v>1250</v>
-      </c>
-      <c r="V161" s="5" t="s">
-        <v>1251</v>
       </c>
       <c r="W161" s="9"/>
     </row>
@@ -19310,7 +19313,7 @@
         <v>109</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="52" t="s">
@@ -19320,7 +19323,7 @@
         <v>1118</v>
       </c>
       <c r="J162" s="56" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K162" s="10" t="s">
         <v>44</v>
@@ -19336,25 +19339,25 @@
         <v>53</v>
       </c>
       <c r="P162" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="Q162" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="Q162" s="5" t="s">
+      <c r="R162" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="R162" s="5" t="s">
+      <c r="S162" s="5" t="s">
         <v>1255</v>
       </c>
-      <c r="S162" s="5" t="s">
+      <c r="T162" s="5" t="s">
         <v>1256</v>
       </c>
-      <c r="T162" s="5" t="s">
+      <c r="U162" s="5" t="s">
         <v>1257</v>
       </c>
-      <c r="U162" s="5" t="s">
+      <c r="V162" s="5" t="s">
         <v>1258</v>
-      </c>
-      <c r="V162" s="5" t="s">
-        <v>1259</v>
       </c>
       <c r="W162" s="9"/>
     </row>
@@ -19372,7 +19375,7 @@
         <v>109</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="52" t="s">
@@ -19382,7 +19385,7 @@
         <v>1118</v>
       </c>
       <c r="J163" s="56" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K163" s="10" t="s">
         <v>44</v>
@@ -19398,25 +19401,25 @@
         <v>9</v>
       </c>
       <c r="P163" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Q163" s="5" t="s">
         <v>1260</v>
-      </c>
-      <c r="Q163" s="5" t="s">
-        <v>1261</v>
       </c>
       <c r="R163" s="5" t="s">
         <v>976</v>
       </c>
       <c r="S163" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="T163" s="5" t="s">
         <v>1262</v>
-      </c>
-      <c r="T163" s="5" t="s">
-        <v>1263</v>
       </c>
       <c r="U163" s="5" t="s">
         <v>181</v>
       </c>
       <c r="V163" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="W163" s="9"/>
     </row>
@@ -19434,7 +19437,7 @@
         <v>109</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="52" t="s">
@@ -19444,7 +19447,7 @@
         <v>1118</v>
       </c>
       <c r="J164" s="56" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K164" s="14" t="s">
         <v>70</v>
@@ -19460,25 +19463,25 @@
         <v>278</v>
       </c>
       <c r="P164" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Q164" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="Q164" s="5" t="s">
+      <c r="R164" s="5" t="s">
         <v>1266</v>
       </c>
-      <c r="R164" s="5" t="s">
+      <c r="S164" s="5" t="s">
         <v>1267</v>
       </c>
-      <c r="S164" s="5" t="s">
+      <c r="T164" s="5" t="s">
         <v>1268</v>
       </c>
-      <c r="T164" s="5" t="s">
+      <c r="U164" s="5" t="s">
         <v>1269</v>
       </c>
-      <c r="U164" s="5" t="s">
+      <c r="V164" s="5" t="s">
         <v>1270</v>
-      </c>
-      <c r="V164" s="5" t="s">
-        <v>1271</v>
       </c>
       <c r="W164" s="9"/>
     </row>
@@ -19496,7 +19499,7 @@
         <v>109</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="52" t="s">
@@ -19506,7 +19509,7 @@
         <v>1118</v>
       </c>
       <c r="J165" s="56" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K165" s="17" t="s">
         <v>157</v>
@@ -19522,25 +19525,25 @@
         <v>278</v>
       </c>
       <c r="P165" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Q165" s="5" t="s">
         <v>1272</v>
       </c>
-      <c r="Q165" s="5" t="s">
+      <c r="R165" s="5" t="s">
         <v>1273</v>
       </c>
-      <c r="R165" s="5" t="s">
-        <v>1274</v>
-      </c>
       <c r="S165" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="T165" s="5" t="s">
         <v>1096</v>
       </c>
       <c r="U165" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="V165" s="5" t="s">
         <v>1275</v>
-      </c>
-      <c r="V165" s="5" t="s">
-        <v>1276</v>
       </c>
       <c r="W165" s="9"/>
     </row>
@@ -19558,7 +19561,7 @@
         <v>109</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="52" t="s">
@@ -19568,7 +19571,7 @@
         <v>1118</v>
       </c>
       <c r="J166" s="57" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K166" s="14" t="s">
         <v>70</v>
@@ -19584,25 +19587,25 @@
         <v>61</v>
       </c>
       <c r="P166" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="Q166" s="5" t="s">
         <v>1279</v>
       </c>
-      <c r="Q166" s="5" t="s">
+      <c r="R166" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="S166" s="5" t="s">
         <v>1280</v>
       </c>
-      <c r="R166" s="5" t="s">
-        <v>1280</v>
-      </c>
-      <c r="S166" s="5" t="s">
+      <c r="T166" s="5" t="s">
         <v>1281</v>
       </c>
-      <c r="T166" s="5" t="s">
+      <c r="U166" s="5" t="s">
         <v>1282</v>
       </c>
-      <c r="U166" s="5" t="s">
+      <c r="V166" s="5" t="s">
         <v>1283</v>
-      </c>
-      <c r="V166" s="5" t="s">
-        <v>1284</v>
       </c>
       <c r="W166" s="9"/>
     </row>
@@ -19620,7 +19623,7 @@
         <v>58</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="52" t="s">
@@ -19630,7 +19633,7 @@
         <v>1118</v>
       </c>
       <c r="J167" s="57" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K167" s="14" t="s">
         <v>70</v>
@@ -19646,25 +19649,25 @@
         <v>213</v>
       </c>
       <c r="P167" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="Q167" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="Q167" s="5" t="s">
+      <c r="R167" s="5" t="s">
         <v>1286</v>
       </c>
-      <c r="R167" s="5" t="s">
+      <c r="S167" s="5" t="s">
         <v>1287</v>
       </c>
-      <c r="S167" s="5" t="s">
+      <c r="T167" s="5" t="s">
         <v>1288</v>
       </c>
-      <c r="T167" s="5" t="s">
+      <c r="U167" s="5" t="s">
         <v>1289</v>
       </c>
-      <c r="U167" s="5" t="s">
+      <c r="V167" s="5" t="s">
         <v>1290</v>
-      </c>
-      <c r="V167" s="5" t="s">
-        <v>1291</v>
       </c>
       <c r="W167" s="9"/>
     </row>
@@ -19682,7 +19685,7 @@
         <v>58</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="52" t="s">
@@ -19692,7 +19695,7 @@
         <v>1118</v>
       </c>
       <c r="J168" s="57" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K168" s="14" t="s">
         <v>70</v>
@@ -19708,25 +19711,25 @@
         <v>9</v>
       </c>
       <c r="P168" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="Q168" s="5" t="s">
         <v>1293</v>
       </c>
-      <c r="Q168" s="5" t="s">
+      <c r="R168" s="5" t="s">
         <v>1294</v>
       </c>
-      <c r="R168" s="5" t="s">
+      <c r="S168" s="5" t="s">
         <v>1295</v>
       </c>
-      <c r="S168" s="5" t="s">
+      <c r="T168" s="5" t="s">
         <v>1296</v>
       </c>
-      <c r="T168" s="5" t="s">
+      <c r="U168" s="5" t="s">
         <v>1297</v>
       </c>
-      <c r="U168" s="5" t="s">
+      <c r="V168" s="5" t="s">
         <v>1298</v>
-      </c>
-      <c r="V168" s="5" t="s">
-        <v>1299</v>
       </c>
       <c r="W168" s="9"/>
     </row>
@@ -19744,7 +19747,7 @@
         <v>58</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="52" t="s">
@@ -19754,7 +19757,7 @@
         <v>1118</v>
       </c>
       <c r="J169" s="57" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K169" s="5" t="s">
         <v>16</v>
@@ -19770,25 +19773,25 @@
         <v>3</v>
       </c>
       <c r="P169" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="Q169" s="5" t="s">
         <v>1301</v>
       </c>
-      <c r="Q169" s="5" t="s">
+      <c r="R169" s="5" t="s">
         <v>1302</v>
       </c>
-      <c r="R169" s="5" t="s">
+      <c r="S169" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="S169" s="5" t="s">
+      <c r="T169" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="T169" s="5" t="s">
+      <c r="U169" s="5" t="s">
         <v>1305</v>
       </c>
-      <c r="U169" s="5" t="s">
+      <c r="V169" s="5" t="s">
         <v>1306</v>
-      </c>
-      <c r="V169" s="5" t="s">
-        <v>1307</v>
       </c>
       <c r="W169" s="9"/>
     </row>
@@ -19806,7 +19809,7 @@
         <v>109</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G170" s="4"/>
       <c r="H170" s="52" t="s">
@@ -19816,7 +19819,7 @@
         <v>1118</v>
       </c>
       <c r="J170" s="57" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K170" s="5" t="s">
         <v>16</v>
@@ -19832,25 +19835,25 @@
         <v>213</v>
       </c>
       <c r="P170" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="Q170" s="5" t="s">
         <v>1309</v>
       </c>
-      <c r="Q170" s="5" t="s">
+      <c r="R170" s="5" t="s">
         <v>1310</v>
       </c>
-      <c r="R170" s="5" t="s">
+      <c r="S170" s="5" t="s">
         <v>1311</v>
       </c>
-      <c r="S170" s="5" t="s">
+      <c r="T170" s="5" t="s">
         <v>1312</v>
       </c>
-      <c r="T170" s="5" t="s">
+      <c r="U170" s="5" t="s">
         <v>1313</v>
       </c>
-      <c r="U170" s="5" t="s">
+      <c r="V170" s="5" t="s">
         <v>1314</v>
-      </c>
-      <c r="V170" s="5" t="s">
-        <v>1315</v>
       </c>
       <c r="W170" s="9"/>
     </row>
@@ -19868,7 +19871,7 @@
         <v>54</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="52" t="s">
@@ -19878,7 +19881,7 @@
         <v>1118</v>
       </c>
       <c r="J171" s="57" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K171" s="14" t="s">
         <v>70</v>
@@ -19894,25 +19897,25 @@
         <v>278</v>
       </c>
       <c r="P171" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="Q171" s="5" t="s">
         <v>1317</v>
       </c>
-      <c r="Q171" s="5" t="s">
+      <c r="R171" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="R171" s="5" t="s">
+      <c r="S171" s="5" t="s">
         <v>1319</v>
       </c>
-      <c r="S171" s="5" t="s">
+      <c r="T171" s="5" t="s">
         <v>1320</v>
       </c>
-      <c r="T171" s="5" t="s">
+      <c r="U171" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="U171" s="5" t="s">
+      <c r="V171" s="5" t="s">
         <v>1322</v>
-      </c>
-      <c r="V171" s="5" t="s">
-        <v>1323</v>
       </c>
       <c r="W171" s="9"/>
     </row>
@@ -19930,7 +19933,7 @@
         <v>109</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="52" t="s">
@@ -19940,7 +19943,7 @@
         <v>1118</v>
       </c>
       <c r="J172" s="57" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K172" s="14" t="s">
         <v>70</v>
@@ -19956,25 +19959,25 @@
         <v>2</v>
       </c>
       <c r="P172" s="5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Q172" s="5" t="s">
         <v>1325</v>
       </c>
-      <c r="Q172" s="5" t="s">
+      <c r="R172" s="5" t="s">
         <v>1326</v>
       </c>
-      <c r="R172" s="5" t="s">
+      <c r="S172" s="5" t="s">
         <v>1327</v>
       </c>
-      <c r="S172" s="5" t="s">
+      <c r="T172" s="5" t="s">
         <v>1328</v>
       </c>
-      <c r="T172" s="5" t="s">
+      <c r="U172" s="5" t="s">
         <v>1329</v>
       </c>
-      <c r="U172" s="5" t="s">
+      <c r="V172" s="5" t="s">
         <v>1330</v>
-      </c>
-      <c r="V172" s="5" t="s">
-        <v>1331</v>
       </c>
       <c r="W172" s="9"/>
     </row>
@@ -19992,7 +19995,7 @@
         <v>109</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="52" t="s">
@@ -20002,7 +20005,7 @@
         <v>1118</v>
       </c>
       <c r="J173" s="57" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K173" s="14" t="s">
         <v>70</v>
@@ -20018,25 +20021,25 @@
         <v>1013</v>
       </c>
       <c r="P173" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Q173" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="Q173" s="5" t="s">
+      <c r="R173" s="5" t="s">
         <v>1334</v>
       </c>
-      <c r="R173" s="5" t="s">
+      <c r="S173" s="5" t="s">
         <v>1335</v>
       </c>
-      <c r="S173" s="5" t="s">
+      <c r="T173" s="5" t="s">
         <v>1336</v>
       </c>
-      <c r="T173" s="5" t="s">
+      <c r="U173" s="5" t="s">
         <v>1337</v>
       </c>
-      <c r="U173" s="5" t="s">
+      <c r="V173" s="5" t="s">
         <v>1338</v>
-      </c>
-      <c r="V173" s="5" t="s">
-        <v>1339</v>
       </c>
       <c r="W173" s="9"/>
     </row>
@@ -20054,7 +20057,7 @@
         <v>20</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="52" t="s">
@@ -20064,7 +20067,7 @@
         <v>1118</v>
       </c>
       <c r="J174" s="58" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="K174" s="14" t="s">
         <v>70</v>
@@ -20080,25 +20083,25 @@
         <v>115</v>
       </c>
       <c r="P174" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="Q174" s="5" t="s">
         <v>1341</v>
       </c>
-      <c r="Q174" s="5" t="s">
+      <c r="R174" s="5" t="s">
         <v>1342</v>
       </c>
-      <c r="R174" s="5" t="s">
+      <c r="S174" s="5" t="s">
         <v>1343</v>
       </c>
-      <c r="S174" s="5" t="s">
+      <c r="T174" s="5" t="s">
         <v>1344</v>
       </c>
-      <c r="T174" s="5" t="s">
+      <c r="U174" s="5" t="s">
         <v>1345</v>
       </c>
-      <c r="U174" s="5" t="s">
+      <c r="V174" s="5" t="s">
         <v>1346</v>
-      </c>
-      <c r="V174" s="5" t="s">
-        <v>1347</v>
       </c>
       <c r="W174" s="9"/>
     </row>
@@ -20116,7 +20119,7 @@
         <v>163</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="52" t="s">
@@ -20126,7 +20129,7 @@
         <v>1118</v>
       </c>
       <c r="J175" s="58" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="K175" s="14" t="s">
         <v>70</v>
@@ -20142,25 +20145,25 @@
         <v>80</v>
       </c>
       <c r="P175" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="Q175" s="5" t="s">
         <v>1349</v>
       </c>
-      <c r="Q175" s="5" t="s">
+      <c r="R175" s="5" t="s">
         <v>1350</v>
       </c>
-      <c r="R175" s="5" t="s">
+      <c r="S175" s="5" t="s">
         <v>1351</v>
       </c>
-      <c r="S175" s="5" t="s">
+      <c r="T175" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="T175" s="5" t="s">
+      <c r="U175" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="U175" s="5" t="s">
+      <c r="V175" s="5" t="s">
         <v>1354</v>
-      </c>
-      <c r="V175" s="5" t="s">
-        <v>1355</v>
       </c>
       <c r="W175" s="9"/>
     </row>
@@ -20178,7 +20181,7 @@
         <v>77</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="52" t="s">
@@ -20188,7 +20191,7 @@
         <v>1118</v>
       </c>
       <c r="J176" s="58" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="K176" s="14" t="s">
         <v>70</v>
@@ -20204,25 +20207,25 @@
         <v>80</v>
       </c>
       <c r="P176" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Q176" s="5" t="s">
         <v>1356</v>
       </c>
-      <c r="Q176" s="5" t="s">
+      <c r="R176" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="R176" s="5" t="s">
+      <c r="S176" s="5" t="s">
         <v>1358</v>
       </c>
-      <c r="S176" s="5" t="s">
+      <c r="T176" s="5" t="s">
         <v>1359</v>
       </c>
-      <c r="T176" s="5" t="s">
+      <c r="U176" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="U176" s="5" t="s">
+      <c r="V176" s="5" t="s">
         <v>1361</v>
-      </c>
-      <c r="V176" s="5" t="s">
-        <v>1362</v>
       </c>
       <c r="W176" s="9"/>
     </row>
@@ -20240,7 +20243,7 @@
         <v>20</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="52" t="s">
@@ -20250,7 +20253,7 @@
         <v>1118</v>
       </c>
       <c r="J177" s="58" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="K177" s="14" t="s">
         <v>70</v>
@@ -20266,25 +20269,25 @@
         <v>97</v>
       </c>
       <c r="P177" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="Q177" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="Q177" s="5" t="s">
+      <c r="R177" s="5" t="s">
         <v>1365</v>
       </c>
-      <c r="R177" s="5" t="s">
+      <c r="S177" s="5" t="s">
         <v>1366</v>
       </c>
-      <c r="S177" s="5" t="s">
+      <c r="T177" s="5" t="s">
         <v>1367</v>
       </c>
-      <c r="T177" s="5" t="s">
+      <c r="U177" s="5" t="s">
         <v>1368</v>
       </c>
-      <c r="U177" s="5" t="s">
+      <c r="V177" s="5" t="s">
         <v>1369</v>
-      </c>
-      <c r="V177" s="5" t="s">
-        <v>1370</v>
       </c>
       <c r="W177" s="9"/>
     </row>
@@ -20302,7 +20305,7 @@
         <v>171</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="52" t="s">
@@ -20312,7 +20315,7 @@
         <v>1118</v>
       </c>
       <c r="J178" s="59" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K178" s="14" t="s">
         <v>70</v>
@@ -20328,25 +20331,25 @@
         <v>61</v>
       </c>
       <c r="P178" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="Q178" s="5" t="s">
         <v>1373</v>
       </c>
-      <c r="Q178" s="5" t="s">
+      <c r="R178" s="5" t="s">
         <v>1374</v>
       </c>
-      <c r="R178" s="5" t="s">
+      <c r="S178" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="S178" s="5" t="s">
+      <c r="T178" s="5" t="s">
         <v>1376</v>
       </c>
-      <c r="T178" s="5" t="s">
+      <c r="U178" s="5" t="s">
         <v>1377</v>
       </c>
-      <c r="U178" s="5" t="s">
+      <c r="V178" s="5" t="s">
         <v>1378</v>
-      </c>
-      <c r="V178" s="5" t="s">
-        <v>1379</v>
       </c>
       <c r="W178" s="9"/>
     </row>
@@ -20364,7 +20367,7 @@
         <v>73</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="52" t="s">
@@ -20374,7 +20377,7 @@
         <v>1118</v>
       </c>
       <c r="J179" s="59" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K179" s="14" t="s">
         <v>70</v>
@@ -20390,25 +20393,25 @@
         <v>9</v>
       </c>
       <c r="P179" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q179" s="5" t="s">
         <v>1381</v>
       </c>
-      <c r="Q179" s="5" t="s">
+      <c r="R179" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="R179" s="5" t="s">
+      <c r="S179" s="5" t="s">
         <v>1383</v>
       </c>
-      <c r="S179" s="5" t="s">
+      <c r="T179" s="5" t="s">
         <v>1384</v>
       </c>
-      <c r="T179" s="5" t="s">
+      <c r="U179" s="5" t="s">
         <v>1385</v>
       </c>
-      <c r="U179" s="5" t="s">
+      <c r="V179" s="5" t="s">
         <v>1386</v>
-      </c>
-      <c r="V179" s="5" t="s">
-        <v>1387</v>
       </c>
       <c r="W179" s="9"/>
     </row>
@@ -20426,7 +20429,7 @@
         <v>58</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="52" t="s">
@@ -20436,7 +20439,7 @@
         <v>1118</v>
       </c>
       <c r="J180" s="59" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K180" s="5" t="s">
         <v>16</v>
@@ -20452,25 +20455,25 @@
         <v>229</v>
       </c>
       <c r="P180" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="Q180" s="5" t="s">
         <v>1389</v>
       </c>
-      <c r="Q180" s="5" t="s">
+      <c r="R180" s="5" t="s">
         <v>1390</v>
       </c>
-      <c r="R180" s="5" t="s">
+      <c r="S180" s="5" t="s">
         <v>1391</v>
       </c>
-      <c r="S180" s="5" t="s">
+      <c r="T180" s="5" t="s">
         <v>1392</v>
       </c>
-      <c r="T180" s="5" t="s">
+      <c r="U180" s="5" t="s">
         <v>1393</v>
       </c>
-      <c r="U180" s="5" t="s">
+      <c r="V180" s="5" t="s">
         <v>1394</v>
-      </c>
-      <c r="V180" s="5" t="s">
-        <v>1395</v>
       </c>
       <c r="W180" s="9"/>
     </row>
@@ -20488,7 +20491,7 @@
         <v>62</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="52" t="s">
@@ -20498,7 +20501,7 @@
         <v>1118</v>
       </c>
       <c r="J181" s="59" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K181" s="14" t="s">
         <v>70</v>
@@ -20514,25 +20517,25 @@
         <v>278</v>
       </c>
       <c r="P181" s="5" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="Q181" s="5" t="s">
         <v>305</v>
       </c>
       <c r="R181" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="S181" s="5" t="s">
         <v>1398</v>
       </c>
-      <c r="S181" s="5" t="s">
+      <c r="T181" s="5" t="s">
         <v>1399</v>
       </c>
-      <c r="T181" s="5" t="s">
+      <c r="U181" s="5" t="s">
         <v>1400</v>
       </c>
-      <c r="U181" s="5" t="s">
+      <c r="V181" s="5" t="s">
         <v>1401</v>
-      </c>
-      <c r="V181" s="5" t="s">
-        <v>1402</v>
       </c>
       <c r="W181" s="9"/>
     </row>
@@ -20550,7 +20553,7 @@
         <v>103</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="52" t="s">
@@ -20560,7 +20563,7 @@
         <v>1118</v>
       </c>
       <c r="J182" s="59" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K182" s="10" t="s">
         <v>44</v>
@@ -20576,25 +20579,25 @@
         <v>213</v>
       </c>
       <c r="P182" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="Q182" s="5" t="s">
         <v>1403</v>
       </c>
-      <c r="Q182" s="5" t="s">
+      <c r="R182" s="5" t="s">
         <v>1404</v>
       </c>
-      <c r="R182" s="5" t="s">
+      <c r="S182" s="5" t="s">
         <v>1405</v>
       </c>
-      <c r="S182" s="5" t="s">
+      <c r="T182" s="5" t="s">
         <v>1406</v>
       </c>
-      <c r="T182" s="5" t="s">
+      <c r="U182" s="5" t="s">
         <v>1407</v>
       </c>
-      <c r="U182" s="5" t="s">
+      <c r="V182" s="5" t="s">
         <v>1408</v>
-      </c>
-      <c r="V182" s="5" t="s">
-        <v>1409</v>
       </c>
       <c r="W182" s="9"/>
     </row>
@@ -20612,7 +20615,7 @@
         <v>62</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="52" t="s">
@@ -20622,7 +20625,7 @@
         <v>1118</v>
       </c>
       <c r="J183" s="59" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K183" s="14" t="s">
         <v>70</v>
@@ -20638,25 +20641,25 @@
         <v>229</v>
       </c>
       <c r="P183" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Q183" s="5" t="s">
         <v>1411</v>
       </c>
-      <c r="Q183" s="5" t="s">
+      <c r="R183" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="R183" s="5" t="s">
+      <c r="S183" s="5" t="s">
         <v>1413</v>
       </c>
-      <c r="S183" s="5" t="s">
+      <c r="T183" s="5" t="s">
         <v>1414</v>
       </c>
-      <c r="T183" s="5" t="s">
+      <c r="U183" s="5" t="s">
         <v>1415</v>
       </c>
-      <c r="U183" s="5" t="s">
+      <c r="V183" s="5" t="s">
         <v>1416</v>
-      </c>
-      <c r="V183" s="5" t="s">
-        <v>1417</v>
       </c>
       <c r="W183" s="9"/>
     </row>
@@ -20674,7 +20677,7 @@
         <v>96</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="52" t="s">
@@ -20684,7 +20687,7 @@
         <v>1118</v>
       </c>
       <c r="J184" s="59" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K184" s="14" t="s">
         <v>70</v>
@@ -20700,25 +20703,25 @@
         <v>80</v>
       </c>
       <c r="P184" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="Q184" s="5" t="s">
         <v>1419</v>
       </c>
-      <c r="Q184" s="5" t="s">
+      <c r="R184" s="5" t="s">
         <v>1420</v>
       </c>
-      <c r="R184" s="5" t="s">
+      <c r="S184" s="5" t="s">
         <v>1421</v>
       </c>
-      <c r="S184" s="5" t="s">
+      <c r="T184" s="5" t="s">
         <v>1422</v>
       </c>
-      <c r="T184" s="5" t="s">
+      <c r="U184" s="5" t="s">
         <v>1423</v>
       </c>
-      <c r="U184" s="5" t="s">
+      <c r="V184" s="5" t="s">
         <v>1424</v>
-      </c>
-      <c r="V184" s="5" t="s">
-        <v>1425</v>
       </c>
       <c r="W184" s="9"/>
     </row>
@@ -20736,7 +20739,7 @@
         <v>154</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="52" t="s">
@@ -20746,7 +20749,7 @@
         <v>1118</v>
       </c>
       <c r="J185" s="59" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K185" s="10" t="s">
         <v>44</v>
@@ -20762,25 +20765,25 @@
         <v>148</v>
       </c>
       <c r="P185" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="Q185" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="Q185" s="5" t="s">
+      <c r="R185" s="5" t="s">
         <v>1428</v>
       </c>
-      <c r="R185" s="5" t="s">
+      <c r="S185" s="5" t="s">
         <v>1429</v>
       </c>
-      <c r="S185" s="5" t="s">
+      <c r="T185" s="5" t="s">
         <v>1430</v>
       </c>
-      <c r="T185" s="5" t="s">
+      <c r="U185" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="U185" s="5" t="s">
+      <c r="V185" s="5" t="s">
         <v>1432</v>
-      </c>
-      <c r="V185" s="5" t="s">
-        <v>1433</v>
       </c>
       <c r="W185" s="9"/>
     </row>
@@ -20798,7 +20801,7 @@
         <v>161</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="52" t="s">
@@ -20808,7 +20811,7 @@
         <v>1118</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="K186" s="10" t="s">
         <v>44</v>
@@ -20821,28 +20824,28 @@
       </c>
       <c r="N186" s="5"/>
       <c r="O186" s="5" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="P186" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="Q186" s="5" t="s">
         <v>1435</v>
       </c>
-      <c r="Q186" s="5" t="s">
+      <c r="R186" s="5" t="s">
         <v>1436</v>
       </c>
-      <c r="R186" s="5" t="s">
+      <c r="S186" s="5" t="s">
         <v>1437</v>
       </c>
-      <c r="S186" s="5" t="s">
+      <c r="T186" s="5" t="s">
         <v>1438</v>
       </c>
-      <c r="T186" s="5" t="s">
+      <c r="U186" s="5" t="s">
         <v>1439</v>
       </c>
-      <c r="U186" s="5" t="s">
+      <c r="V186" s="5" t="s">
         <v>1440</v>
-      </c>
-      <c r="V186" s="5" t="s">
-        <v>1441</v>
       </c>
       <c r="W186" s="9"/>
     </row>
@@ -20860,7 +20863,7 @@
         <v>88</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="52" t="s">
@@ -20870,7 +20873,7 @@
         <v>1118</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="K187" s="10" t="s">
         <v>44</v>
@@ -20886,25 +20889,25 @@
         <v>213</v>
       </c>
       <c r="P187" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="Q187" s="5" t="s">
         <v>1443</v>
       </c>
-      <c r="Q187" s="5" t="s">
+      <c r="R187" s="5" t="s">
         <v>1444</v>
       </c>
-      <c r="R187" s="5" t="s">
+      <c r="S187" s="5" t="s">
         <v>1445</v>
       </c>
-      <c r="S187" s="5" t="s">
+      <c r="T187" s="5" t="s">
         <v>1446</v>
       </c>
-      <c r="T187" s="5" t="s">
+      <c r="U187" s="5" t="s">
         <v>1447</v>
       </c>
-      <c r="U187" s="5" t="s">
+      <c r="V187" s="5" t="s">
         <v>1448</v>
-      </c>
-      <c r="V187" s="5" t="s">
-        <v>1449</v>
       </c>
       <c r="W187" s="9"/>
     </row>
@@ -20922,7 +20925,7 @@
         <v>88</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="52" t="s">
@@ -20932,7 +20935,7 @@
         <v>1118</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="K188" s="14" t="s">
         <v>70</v>
@@ -20948,10 +20951,10 @@
         <v>278</v>
       </c>
       <c r="P188" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="Q188" s="5" t="s">
         <v>1451</v>
-      </c>
-      <c r="Q188" s="5" t="s">
-        <v>1452</v>
       </c>
       <c r="R188" s="5" t="s">
         <v>452</v>
@@ -20960,13 +20963,13 @@
         <v>626</v>
       </c>
       <c r="T188" s="5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="U188" s="5" t="s">
         <v>1453</v>
       </c>
-      <c r="U188" s="5" t="s">
+      <c r="V188" s="5" t="s">
         <v>1454</v>
-      </c>
-      <c r="V188" s="5" t="s">
-        <v>1455</v>
       </c>
       <c r="W188" s="9"/>
     </row>
@@ -20984,7 +20987,7 @@
         <v>88</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="52" t="s">
@@ -20994,7 +20997,7 @@
         <v>1118</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="K189" s="14" t="s">
         <v>70</v>
@@ -21010,25 +21013,25 @@
         <v>278</v>
       </c>
       <c r="P189" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="Q189" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="R189" s="5" t="s">
         <v>1457</v>
       </c>
-      <c r="Q189" s="5" t="s">
-        <v>1216</v>
-      </c>
-      <c r="R189" s="5" t="s">
+      <c r="S189" s="5" t="s">
         <v>1458</v>
       </c>
-      <c r="S189" s="5" t="s">
+      <c r="T189" s="5" t="s">
         <v>1459</v>
       </c>
-      <c r="T189" s="5" t="s">
+      <c r="U189" s="5" t="s">
         <v>1460</v>
       </c>
-      <c r="U189" s="5" t="s">
+      <c r="V189" s="5" t="s">
         <v>1461</v>
-      </c>
-      <c r="V189" s="5" t="s">
-        <v>1462</v>
       </c>
       <c r="W189" s="9"/>
     </row>
@@ -21046,7 +21049,7 @@
         <v>161</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="52" t="s">
@@ -21056,7 +21059,7 @@
         <v>1118</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="K190" s="14" t="s">
         <v>70</v>
@@ -21069,28 +21072,28 @@
       </c>
       <c r="N190" s="5"/>
       <c r="O190" s="5" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="P190" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q190" s="5" t="s">
         <v>1464</v>
       </c>
-      <c r="Q190" s="5" t="s">
+      <c r="R190" s="5" t="s">
         <v>1465</v>
       </c>
-      <c r="R190" s="5" t="s">
+      <c r="S190" s="5" t="s">
         <v>1466</v>
       </c>
-      <c r="S190" s="5" t="s">
+      <c r="T190" s="5" t="s">
         <v>1467</v>
       </c>
-      <c r="T190" s="5" t="s">
+      <c r="U190" s="5" t="s">
         <v>1468</v>
       </c>
-      <c r="U190" s="5" t="s">
+      <c r="V190" s="5" t="s">
         <v>1469</v>
-      </c>
-      <c r="V190" s="5" t="s">
-        <v>1470</v>
       </c>
       <c r="W190" s="9"/>
     </row>
@@ -21108,7 +21111,7 @@
         <v>99</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="52" t="s">
@@ -21118,7 +21121,7 @@
         <v>1118</v>
       </c>
       <c r="J191" s="60" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="K191" s="14" t="s">
         <v>70</v>
@@ -21134,25 +21137,25 @@
         <v>213</v>
       </c>
       <c r="P191" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Q191" s="5" t="s">
         <v>1472</v>
       </c>
-      <c r="Q191" s="5" t="s">
+      <c r="R191" s="5" t="s">
         <v>1473</v>
       </c>
-      <c r="R191" s="5" t="s">
+      <c r="S191" s="5" t="s">
         <v>1474</v>
       </c>
-      <c r="S191" s="5" t="s">
+      <c r="T191" s="5" t="s">
         <v>1475</v>
       </c>
-      <c r="T191" s="5" t="s">
+      <c r="U191" s="5" t="s">
         <v>1476</v>
       </c>
-      <c r="U191" s="5" t="s">
+      <c r="V191" s="5" t="s">
         <v>1477</v>
-      </c>
-      <c r="V191" s="5" t="s">
-        <v>1478</v>
       </c>
       <c r="W191" s="9"/>
     </row>
@@ -21170,7 +21173,7 @@
         <v>134</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="52" t="s">
@@ -21180,7 +21183,7 @@
         <v>1118</v>
       </c>
       <c r="J192" s="60" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="K192" s="14" t="s">
         <v>70</v>
@@ -21196,25 +21199,25 @@
         <v>6</v>
       </c>
       <c r="P192" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="Q192" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="Q192" s="5" t="s">
+      <c r="R192" s="5" t="s">
         <v>1481</v>
-      </c>
-      <c r="R192" s="5" t="s">
-        <v>1482</v>
       </c>
       <c r="S192" s="5" t="s">
         <v>290</v>
       </c>
       <c r="T192" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="U192" s="5" t="s">
         <v>1483</v>
       </c>
-      <c r="U192" s="5" t="s">
+      <c r="V192" s="5" t="s">
         <v>1484</v>
-      </c>
-      <c r="V192" s="5" t="s">
-        <v>1485</v>
       </c>
       <c r="W192" s="9"/>
     </row>
@@ -21232,7 +21235,7 @@
         <v>134</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="52" t="s">
@@ -21242,7 +21245,7 @@
         <v>1118</v>
       </c>
       <c r="J193" s="60" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="K193" s="14" t="s">
         <v>70</v>
@@ -21258,22 +21261,22 @@
         <v>2</v>
       </c>
       <c r="P193" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="Q193" s="5" t="s">
         <v>1487</v>
       </c>
-      <c r="Q193" s="5" t="s">
+      <c r="R193" s="5" t="s">
         <v>1488</v>
       </c>
-      <c r="R193" s="5" t="s">
+      <c r="S193" s="5" t="s">
         <v>1489</v>
       </c>
-      <c r="S193" s="5" t="s">
+      <c r="T193" s="5" t="s">
         <v>1490</v>
       </c>
-      <c r="T193" s="5" t="s">
+      <c r="U193" s="5" t="s">
         <v>1491</v>
-      </c>
-      <c r="U193" s="5" t="s">
-        <v>1492</v>
       </c>
       <c r="V193" s="5" t="s">
         <v>290</v>
@@ -21294,7 +21297,7 @@
         <v>54</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="52" t="s">
@@ -21304,7 +21307,7 @@
         <v>1118</v>
       </c>
       <c r="J194" s="17" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="K194" s="14" t="s">
         <v>70</v>
@@ -21320,22 +21323,22 @@
         <v>2</v>
       </c>
       <c r="P194" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="Q194" s="5" t="s">
         <v>1495</v>
       </c>
-      <c r="Q194" s="5" t="s">
+      <c r="R194" s="5" t="s">
         <v>1496</v>
       </c>
-      <c r="R194" s="5" t="s">
-        <v>1497</v>
-      </c>
       <c r="S194" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="T194" s="5" t="s">
         <v>543</v>
       </c>
       <c r="U194" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="V194" s="5" t="s">
         <v>775</v>
@@ -21356,7 +21359,7 @@
         <v>54</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="52" t="s">
@@ -21366,7 +21369,7 @@
         <v>1118</v>
       </c>
       <c r="J195" s="17" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="K195" s="19" t="s">
         <v>175</v>
@@ -21382,25 +21385,25 @@
         <v>2</v>
       </c>
       <c r="P195" s="5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="Q195" s="5" t="s">
         <v>1500</v>
       </c>
-      <c r="Q195" s="5" t="s">
+      <c r="R195" s="5" t="s">
         <v>1501</v>
       </c>
-      <c r="R195" s="5" t="s">
+      <c r="S195" s="5" t="s">
         <v>1502</v>
       </c>
-      <c r="S195" s="5" t="s">
+      <c r="T195" s="5" t="s">
         <v>1503</v>
       </c>
-      <c r="T195" s="5" t="s">
+      <c r="U195" s="5" t="s">
         <v>1504</v>
       </c>
-      <c r="U195" s="5" t="s">
+      <c r="V195" s="5" t="s">
         <v>1505</v>
-      </c>
-      <c r="V195" s="5" t="s">
-        <v>1506</v>
       </c>
       <c r="W195" s="9"/>
     </row>
@@ -21418,7 +21421,7 @@
         <v>41</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="52" t="s">
@@ -21428,7 +21431,7 @@
         <v>1118</v>
       </c>
       <c r="J196" s="17" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="K196" s="19" t="s">
         <v>175</v>
@@ -21444,25 +21447,25 @@
         <v>2</v>
       </c>
       <c r="P196" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="Q196" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="Q196" s="5" t="s">
+      <c r="R196" s="5" t="s">
         <v>1508</v>
       </c>
-      <c r="R196" s="5" t="s">
+      <c r="S196" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="S196" s="5" t="s">
+      <c r="T196" s="5" t="s">
         <v>1510</v>
       </c>
-      <c r="T196" s="5" t="s">
+      <c r="U196" s="5" t="s">
         <v>1511</v>
       </c>
-      <c r="U196" s="5" t="s">
+      <c r="V196" s="5" t="s">
         <v>1512</v>
-      </c>
-      <c r="V196" s="5" t="s">
-        <v>1513</v>
       </c>
       <c r="W196" s="9"/>
     </row>
@@ -21480,7 +21483,7 @@
         <v>39</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="52" t="s">
@@ -21490,7 +21493,7 @@
         <v>1118</v>
       </c>
       <c r="J197" s="17" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="K197" s="14" t="s">
         <v>70</v>
@@ -21506,25 +21509,25 @@
         <v>3</v>
       </c>
       <c r="P197" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="Q197" s="5" t="s">
         <v>1515</v>
       </c>
-      <c r="Q197" s="5" t="s">
+      <c r="R197" s="5" t="s">
         <v>1516</v>
       </c>
-      <c r="R197" s="5" t="s">
+      <c r="S197" s="5" t="s">
         <v>1517</v>
       </c>
-      <c r="S197" s="5" t="s">
+      <c r="T197" s="5" t="s">
         <v>1518</v>
       </c>
-      <c r="T197" s="5" t="s">
+      <c r="U197" s="5" t="s">
         <v>1519</v>
       </c>
-      <c r="U197" s="5" t="s">
+      <c r="V197" s="5" t="s">
         <v>1520</v>
-      </c>
-      <c r="V197" s="5" t="s">
-        <v>1521</v>
       </c>
       <c r="W197" s="9"/>
     </row>
@@ -21542,7 +21545,7 @@
         <v>55</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="52" t="s">
@@ -21552,7 +21555,7 @@
         <v>1118</v>
       </c>
       <c r="J198" s="51" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="K198" s="5" t="s">
         <v>16</v>
@@ -21568,19 +21571,19 @@
         <v>19</v>
       </c>
       <c r="P198" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="Q198" s="5" t="s">
         <v>1524</v>
       </c>
-      <c r="Q198" s="5" t="s">
+      <c r="R198" s="5" t="s">
         <v>1525</v>
       </c>
-      <c r="R198" s="5" t="s">
+      <c r="S198" s="5" t="s">
         <v>1526</v>
       </c>
-      <c r="S198" s="5" t="s">
+      <c r="T198" s="5" t="s">
         <v>1527</v>
-      </c>
-      <c r="T198" s="5" t="s">
-        <v>1528</v>
       </c>
       <c r="U198" s="5" t="s">
         <v>133</v>
@@ -21604,7 +21607,7 @@
         <v>92</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="52" t="s">
@@ -21614,7 +21617,7 @@
         <v>1118</v>
       </c>
       <c r="J199" s="51" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="K199" s="5" t="s">
         <v>16</v>
@@ -21630,25 +21633,25 @@
         <v>106</v>
       </c>
       <c r="P199" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="Q199" s="5" t="s">
         <v>1530</v>
       </c>
-      <c r="Q199" s="5" t="s">
+      <c r="R199" s="5" t="s">
         <v>1531</v>
       </c>
-      <c r="R199" s="5" t="s">
+      <c r="S199" s="5" t="s">
         <v>1532</v>
       </c>
-      <c r="S199" s="5" t="s">
+      <c r="T199" s="5" t="s">
         <v>1533</v>
       </c>
-      <c r="T199" s="5" t="s">
+      <c r="U199" s="5" t="s">
         <v>1534</v>
       </c>
-      <c r="U199" s="5" t="s">
+      <c r="V199" s="5" t="s">
         <v>1535</v>
-      </c>
-      <c r="V199" s="5" t="s">
-        <v>1536</v>
       </c>
       <c r="W199" s="9"/>
     </row>
@@ -21666,7 +21669,7 @@
         <v>92</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="52" t="s">
@@ -21676,7 +21679,7 @@
         <v>1118</v>
       </c>
       <c r="J200" s="51" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="K200" s="5" t="s">
         <v>16</v>
@@ -21692,25 +21695,25 @@
         <v>213</v>
       </c>
       <c r="P200" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="Q200" s="5" t="s">
         <v>1537</v>
       </c>
-      <c r="Q200" s="5" t="s">
+      <c r="R200" s="5" t="s">
         <v>1538</v>
       </c>
-      <c r="R200" s="5" t="s">
+      <c r="S200" s="5" t="s">
         <v>1539</v>
       </c>
-      <c r="S200" s="5" t="s">
+      <c r="T200" s="5" t="s">
         <v>1540</v>
       </c>
-      <c r="T200" s="5" t="s">
+      <c r="U200" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="U200" s="5" t="s">
+      <c r="V200" s="5" t="s">
         <v>1542</v>
-      </c>
-      <c r="V200" s="5" t="s">
-        <v>1543</v>
       </c>
       <c r="W200" s="9"/>
     </row>
@@ -21728,7 +21731,7 @@
         <v>92</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="52" t="s">
@@ -21738,7 +21741,7 @@
         <v>1118</v>
       </c>
       <c r="J201" s="51" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="K201" s="5" t="s">
         <v>16</v>
@@ -21754,25 +21757,25 @@
         <v>213</v>
       </c>
       <c r="P201" s="5" t="s">
+        <v>1544</v>
+      </c>
+      <c r="Q201" s="5" t="s">
         <v>1545</v>
       </c>
-      <c r="Q201" s="5" t="s">
+      <c r="R201" s="5" t="s">
         <v>1546</v>
       </c>
-      <c r="R201" s="5" t="s">
+      <c r="S201" s="5" t="s">
         <v>1547</v>
       </c>
-      <c r="S201" s="5" t="s">
+      <c r="T201" s="5" t="s">
         <v>1548</v>
       </c>
-      <c r="T201" s="5" t="s">
+      <c r="U201" s="5" t="s">
         <v>1549</v>
       </c>
-      <c r="U201" s="5" t="s">
+      <c r="V201" s="5" t="s">
         <v>1550</v>
-      </c>
-      <c r="V201" s="5" t="s">
-        <v>1551</v>
       </c>
       <c r="W201" s="9"/>
     </row>
@@ -21790,14 +21793,14 @@
         <v>33</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I202" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J202" s="61" t="s">
         <v>1117</v>
@@ -21813,28 +21816,28 @@
       </c>
       <c r="N202" s="5"/>
       <c r="O202" s="5" t="s">
+        <v>1553</v>
+      </c>
+      <c r="P202" s="5" t="s">
         <v>1554</v>
       </c>
-      <c r="P202" s="5" t="s">
+      <c r="Q202" s="5" t="s">
         <v>1555</v>
       </c>
-      <c r="Q202" s="5" t="s">
+      <c r="R202" s="5" t="s">
         <v>1556</v>
       </c>
-      <c r="R202" s="5" t="s">
+      <c r="S202" s="5" t="s">
         <v>1557</v>
       </c>
-      <c r="S202" s="5" t="s">
+      <c r="T202" s="5" t="s">
         <v>1558</v>
       </c>
-      <c r="T202" s="5" t="s">
+      <c r="U202" s="5" t="s">
         <v>1559</v>
       </c>
-      <c r="U202" s="5" t="s">
+      <c r="V202" s="5" t="s">
         <v>1560</v>
-      </c>
-      <c r="V202" s="5" t="s">
-        <v>1561</v>
       </c>
       <c r="W202" s="9"/>
     </row>
@@ -21852,14 +21855,14 @@
         <v>33</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I203" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J203" s="61" t="s">
         <v>1117</v>
@@ -21878,25 +21881,25 @@
         <v>106</v>
       </c>
       <c r="P203" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="Q203" s="5" t="s">
         <v>1563</v>
       </c>
-      <c r="Q203" s="5" t="s">
+      <c r="R203" s="5" t="s">
         <v>1564</v>
       </c>
-      <c r="R203" s="5" t="s">
+      <c r="S203" s="5" t="s">
         <v>1565</v>
       </c>
-      <c r="S203" s="5" t="s">
+      <c r="T203" s="5" t="s">
         <v>1566</v>
       </c>
-      <c r="T203" s="5" t="s">
+      <c r="U203" s="5" t="s">
         <v>1567</v>
       </c>
-      <c r="U203" s="5" t="s">
+      <c r="V203" s="5" t="s">
         <v>1568</v>
-      </c>
-      <c r="V203" s="5" t="s">
-        <v>1569</v>
       </c>
       <c r="W203" s="9"/>
     </row>
@@ -21921,7 +21924,7 @@
         <v>1117</v>
       </c>
       <c r="I204" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J204" s="61" t="s">
         <v>1117</v>
@@ -21940,25 +21943,25 @@
         <v>115</v>
       </c>
       <c r="P204" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="Q204" s="5" t="s">
         <v>1570</v>
       </c>
-      <c r="Q204" s="5" t="s">
+      <c r="R204" s="5" t="s">
         <v>1571</v>
       </c>
-      <c r="R204" s="5" t="s">
+      <c r="S204" s="5" t="s">
         <v>1572</v>
       </c>
-      <c r="S204" s="5" t="s">
+      <c r="T204" s="5" t="s">
         <v>1573</v>
-      </c>
-      <c r="T204" s="5" t="s">
-        <v>1574</v>
       </c>
       <c r="U204" s="5" t="s">
         <v>452</v>
       </c>
       <c r="V204" s="5" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="W204" s="9"/>
     </row>
@@ -21976,14 +21979,14 @@
         <v>33</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I205" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J205" s="61" t="s">
         <v>1117</v>
@@ -22002,25 +22005,25 @@
         <v>19</v>
       </c>
       <c r="P205" s="5" t="s">
+        <v>1576</v>
+      </c>
+      <c r="Q205" s="5" t="s">
         <v>1577</v>
       </c>
-      <c r="Q205" s="5" t="s">
+      <c r="R205" s="5" t="s">
         <v>1578</v>
       </c>
-      <c r="R205" s="5" t="s">
+      <c r="S205" s="5" t="s">
         <v>1579</v>
       </c>
-      <c r="S205" s="5" t="s">
+      <c r="T205" s="5" t="s">
         <v>1580</v>
       </c>
-      <c r="T205" s="5" t="s">
+      <c r="U205" s="5" t="s">
         <v>1581</v>
       </c>
-      <c r="U205" s="5" t="s">
+      <c r="V205" s="5" t="s">
         <v>1582</v>
-      </c>
-      <c r="V205" s="5" t="s">
-        <v>1583</v>
       </c>
       <c r="W205" s="9"/>
     </row>
@@ -22038,14 +22041,14 @@
         <v>33</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I206" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J206" s="61" t="s">
         <v>1117</v>
@@ -22064,25 +22067,25 @@
         <v>213</v>
       </c>
       <c r="P206" s="5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="Q206" s="5" t="s">
         <v>1585</v>
       </c>
-      <c r="Q206" s="5" t="s">
+      <c r="R206" s="5" t="s">
         <v>1586</v>
       </c>
-      <c r="R206" s="5" t="s">
+      <c r="S206" s="5" t="s">
         <v>1587</v>
       </c>
-      <c r="S206" s="5" t="s">
+      <c r="T206" s="5" t="s">
         <v>1588</v>
       </c>
-      <c r="T206" s="5" t="s">
+      <c r="U206" s="5" t="s">
         <v>1589</v>
       </c>
-      <c r="U206" s="5" t="s">
+      <c r="V206" s="5" t="s">
         <v>1590</v>
-      </c>
-      <c r="V206" s="5" t="s">
-        <v>1591</v>
       </c>
       <c r="W206" s="9"/>
     </row>
@@ -22100,14 +22103,14 @@
         <v>33</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I207" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J207" s="61" t="s">
         <v>1117</v>
@@ -22126,25 +22129,25 @@
         <v>139</v>
       </c>
       <c r="P207" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="Q207" s="5" t="s">
         <v>1593</v>
       </c>
-      <c r="Q207" s="5" t="s">
+      <c r="R207" s="5" t="s">
         <v>1594</v>
       </c>
-      <c r="R207" s="5" t="s">
+      <c r="S207" s="5" t="s">
         <v>1595</v>
       </c>
-      <c r="S207" s="5" t="s">
+      <c r="T207" s="5" t="s">
         <v>1596</v>
       </c>
-      <c r="T207" s="5" t="s">
+      <c r="U207" s="5" t="s">
         <v>1597</v>
       </c>
-      <c r="U207" s="5" t="s">
+      <c r="V207" s="5" t="s">
         <v>1598</v>
-      </c>
-      <c r="V207" s="5" t="s">
-        <v>1599</v>
       </c>
       <c r="W207" s="9"/>
     </row>
@@ -22162,17 +22165,17 @@
         <v>33</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I208" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J208" s="62" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="K208" s="14" t="s">
         <v>70</v>
@@ -22188,25 +22191,25 @@
         <v>148</v>
       </c>
       <c r="P208" s="5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="Q208" s="5" t="s">
         <v>1602</v>
       </c>
-      <c r="Q208" s="5" t="s">
+      <c r="R208" s="5" t="s">
         <v>1603</v>
       </c>
-      <c r="R208" s="5" t="s">
+      <c r="S208" s="5" t="s">
         <v>1604</v>
       </c>
-      <c r="S208" s="5" t="s">
+      <c r="T208" s="5" t="s">
         <v>1605</v>
       </c>
-      <c r="T208" s="5" t="s">
+      <c r="U208" s="5" t="s">
         <v>1606</v>
       </c>
-      <c r="U208" s="5" t="s">
+      <c r="V208" s="5" t="s">
         <v>1607</v>
-      </c>
-      <c r="V208" s="5" t="s">
-        <v>1608</v>
       </c>
       <c r="W208" s="9"/>
     </row>
@@ -22224,17 +22227,17 @@
         <v>33</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I209" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J209" s="62" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="K209" s="5" t="s">
         <v>16</v>
@@ -22250,25 +22253,25 @@
         <v>80</v>
       </c>
       <c r="P209" s="5" t="s">
+        <v>1609</v>
+      </c>
+      <c r="Q209" s="5" t="s">
         <v>1610</v>
       </c>
-      <c r="Q209" s="5" t="s">
+      <c r="R209" s="5" t="s">
         <v>1611</v>
       </c>
-      <c r="R209" s="5" t="s">
+      <c r="S209" s="5" t="s">
         <v>1612</v>
       </c>
-      <c r="S209" s="5" t="s">
+      <c r="T209" s="5" t="s">
         <v>1613</v>
       </c>
-      <c r="T209" s="5" t="s">
+      <c r="U209" s="5" t="s">
         <v>1614</v>
       </c>
-      <c r="U209" s="5" t="s">
+      <c r="V209" s="5" t="s">
         <v>1615</v>
-      </c>
-      <c r="V209" s="5" t="s">
-        <v>1616</v>
       </c>
       <c r="W209" s="9"/>
     </row>
@@ -22286,17 +22289,17 @@
         <v>33</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I210" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J210" s="62" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="K210" s="19" t="s">
         <v>175</v>
@@ -22312,22 +22315,22 @@
         <v>213</v>
       </c>
       <c r="P210" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="Q210" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="R210" s="5" t="s">
         <v>1618</v>
       </c>
-      <c r="Q210" s="5" t="s">
-        <v>1359</v>
-      </c>
-      <c r="R210" s="5" t="s">
+      <c r="S210" s="5" t="s">
         <v>1619</v>
       </c>
-      <c r="S210" s="5" t="s">
+      <c r="T210" s="5" t="s">
         <v>1620</v>
       </c>
-      <c r="T210" s="5" t="s">
-        <v>1621</v>
-      </c>
       <c r="U210" s="5" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="V210" s="5" t="s">
         <v>1096</v>
@@ -22348,17 +22351,17 @@
         <v>52</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I211" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J211" s="62" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="K211" s="28" t="s">
         <v>362</v>
@@ -22374,25 +22377,25 @@
         <v>213</v>
       </c>
       <c r="P211" s="5" t="s">
+        <v>1622</v>
+      </c>
+      <c r="Q211" s="5" t="s">
         <v>1623</v>
       </c>
-      <c r="Q211" s="5" t="s">
+      <c r="R211" s="5" t="s">
         <v>1624</v>
       </c>
-      <c r="R211" s="5" t="s">
+      <c r="S211" s="5" t="s">
         <v>1625</v>
       </c>
-      <c r="S211" s="5" t="s">
+      <c r="T211" s="5" t="s">
         <v>1626</v>
       </c>
-      <c r="T211" s="5" t="s">
+      <c r="U211" s="5" t="s">
         <v>1627</v>
       </c>
-      <c r="U211" s="5" t="s">
+      <c r="V211" s="5" t="s">
         <v>1628</v>
-      </c>
-      <c r="V211" s="5" t="s">
-        <v>1629</v>
       </c>
       <c r="W211" s="9"/>
     </row>
@@ -22410,17 +22413,17 @@
         <v>33</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="G212" s="4"/>
       <c r="H212" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I212" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J212" s="62" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="K212" s="28" t="s">
         <v>362</v>
@@ -22436,25 +22439,25 @@
         <v>2</v>
       </c>
       <c r="P212" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="Q212" s="5" t="s">
         <v>1631</v>
       </c>
-      <c r="Q212" s="5" t="s">
+      <c r="R212" s="5" t="s">
         <v>1632</v>
       </c>
-      <c r="R212" s="5" t="s">
+      <c r="S212" s="5" t="s">
         <v>1633</v>
       </c>
-      <c r="S212" s="5" t="s">
+      <c r="T212" s="5" t="s">
         <v>1634</v>
       </c>
-      <c r="T212" s="5" t="s">
+      <c r="U212" s="5" t="s">
         <v>1635</v>
       </c>
-      <c r="U212" s="5" t="s">
+      <c r="V212" s="5" t="s">
         <v>1636</v>
-      </c>
-      <c r="V212" s="5" t="s">
-        <v>1637</v>
       </c>
       <c r="W212" s="9"/>
     </row>
@@ -22472,17 +22475,17 @@
         <v>33</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="G213" s="4"/>
       <c r="H213" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I213" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J213" s="62" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="K213" s="28" t="s">
         <v>362</v>
@@ -22498,25 +22501,25 @@
         <v>9</v>
       </c>
       <c r="P213" s="5" t="s">
+        <v>1638</v>
+      </c>
+      <c r="Q213" s="5" t="s">
         <v>1639</v>
       </c>
-      <c r="Q213" s="5" t="s">
+      <c r="R213" s="5" t="s">
         <v>1640</v>
       </c>
-      <c r="R213" s="5" t="s">
+      <c r="S213" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="S213" s="5" t="s">
+      <c r="T213" s="5" t="s">
         <v>1642</v>
       </c>
-      <c r="T213" s="5" t="s">
+      <c r="U213" s="5" t="s">
         <v>1643</v>
       </c>
-      <c r="U213" s="5" t="s">
+      <c r="V213" s="5" t="s">
         <v>1644</v>
-      </c>
-      <c r="V213" s="5" t="s">
-        <v>1645</v>
       </c>
       <c r="W213" s="9"/>
     </row>
@@ -22534,17 +22537,17 @@
         <v>33</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I214" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J214" s="62" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="K214" s="28" t="s">
         <v>362</v>
@@ -22560,25 +22563,25 @@
         <v>80</v>
       </c>
       <c r="P214" s="5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="Q214" s="5" t="s">
         <v>1647</v>
       </c>
-      <c r="Q214" s="5" t="s">
+      <c r="R214" s="5" t="s">
         <v>1648</v>
       </c>
-      <c r="R214" s="5" t="s">
+      <c r="S214" s="5" t="s">
         <v>1649</v>
       </c>
-      <c r="S214" s="5" t="s">
+      <c r="T214" s="5" t="s">
         <v>1650</v>
       </c>
-      <c r="T214" s="5" t="s">
+      <c r="U214" s="5" t="s">
         <v>1651</v>
       </c>
-      <c r="U214" s="5" t="s">
+      <c r="V214" s="5" t="s">
         <v>1652</v>
-      </c>
-      <c r="V214" s="5" t="s">
-        <v>1653</v>
       </c>
       <c r="W214" s="9"/>
     </row>
@@ -22596,17 +22599,17 @@
         <v>64</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I215" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J215" s="63" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="K215" s="14" t="s">
         <v>70</v>
@@ -22622,25 +22625,25 @@
         <v>2</v>
       </c>
       <c r="P215" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="Q215" s="5" t="s">
         <v>1656</v>
       </c>
-      <c r="Q215" s="5" t="s">
+      <c r="R215" s="5" t="s">
         <v>1657</v>
       </c>
-      <c r="R215" s="5" t="s">
+      <c r="S215" s="5" t="s">
         <v>1658</v>
       </c>
-      <c r="S215" s="5" t="s">
-        <v>1659</v>
-      </c>
       <c r="T215" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="U215" s="5" t="s">
         <v>267</v>
       </c>
       <c r="V215" s="5" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="W215" s="9"/>
     </row>
@@ -22658,17 +22661,17 @@
         <v>64</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G216" s="4"/>
       <c r="H216" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I216" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J216" s="63" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="K216" s="14" t="s">
         <v>70</v>
@@ -22684,25 +22687,25 @@
         <v>213</v>
       </c>
       <c r="P216" s="5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="Q216" s="5" t="s">
         <v>1661</v>
       </c>
-      <c r="Q216" s="5" t="s">
+      <c r="R216" s="5" t="s">
         <v>1662</v>
       </c>
-      <c r="R216" s="5" t="s">
+      <c r="S216" s="5" t="s">
         <v>1663</v>
       </c>
-      <c r="S216" s="5" t="s">
+      <c r="T216" s="5" t="s">
         <v>1664</v>
       </c>
-      <c r="T216" s="5" t="s">
+      <c r="U216" s="5" t="s">
         <v>1665</v>
       </c>
-      <c r="U216" s="5" t="s">
+      <c r="V216" s="5" t="s">
         <v>1666</v>
-      </c>
-      <c r="V216" s="5" t="s">
-        <v>1667</v>
       </c>
       <c r="W216" s="9"/>
     </row>
@@ -22720,17 +22723,17 @@
         <v>64</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I217" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J217" s="63" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="K217" s="28" t="s">
         <v>362</v>
@@ -22746,25 +22749,25 @@
         <v>2</v>
       </c>
       <c r="P217" s="5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="Q217" s="5" t="s">
         <v>1669</v>
       </c>
-      <c r="Q217" s="5" t="s">
+      <c r="R217" s="5" t="s">
         <v>1670</v>
       </c>
-      <c r="R217" s="5" t="s">
+      <c r="S217" s="5" t="s">
         <v>1671</v>
-      </c>
-      <c r="S217" s="5" t="s">
-        <v>1672</v>
       </c>
       <c r="T217" s="5" t="s">
         <v>50</v>
       </c>
       <c r="U217" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="V217" s="5" t="s">
         <v>1673</v>
-      </c>
-      <c r="V217" s="5" t="s">
-        <v>1674</v>
       </c>
       <c r="W217" s="9"/>
     </row>
@@ -22782,17 +22785,17 @@
         <v>33</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I218" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J218" s="63" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="K218" s="28" t="s">
         <v>362</v>
@@ -22808,22 +22811,22 @@
         <v>213</v>
       </c>
       <c r="P218" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="Q218" s="5" t="s">
         <v>1676</v>
       </c>
-      <c r="Q218" s="5" t="s">
+      <c r="R218" s="5" t="s">
         <v>1677</v>
-      </c>
-      <c r="R218" s="5" t="s">
-        <v>1678</v>
       </c>
       <c r="S218" s="5" t="s">
         <v>364</v>
       </c>
       <c r="T218" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="U218" s="5" t="s">
         <v>1679</v>
-      </c>
-      <c r="U218" s="5" t="s">
-        <v>1680</v>
       </c>
       <c r="V218" s="5" t="s">
         <v>57</v>
@@ -22844,17 +22847,17 @@
         <v>33</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I219" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J219" s="58" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="K219" s="14" t="s">
         <v>70</v>
@@ -22870,25 +22873,25 @@
         <v>61</v>
       </c>
       <c r="P219" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="Q219" s="5" t="s">
         <v>1683</v>
       </c>
-      <c r="Q219" s="5" t="s">
+      <c r="R219" s="5" t="s">
         <v>1684</v>
       </c>
-      <c r="R219" s="5" t="s">
+      <c r="S219" s="5" t="s">
         <v>1685</v>
       </c>
-      <c r="S219" s="5" t="s">
+      <c r="T219" s="5" t="s">
         <v>1686</v>
       </c>
-      <c r="T219" s="5" t="s">
+      <c r="U219" s="5" t="s">
         <v>1687</v>
       </c>
-      <c r="U219" s="5" t="s">
+      <c r="V219" s="5" t="s">
         <v>1688</v>
-      </c>
-      <c r="V219" s="5" t="s">
-        <v>1689</v>
       </c>
       <c r="W219" s="9"/>
     </row>
@@ -22906,17 +22909,17 @@
         <v>33</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I220" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J220" s="58" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="K220" s="14" t="s">
         <v>70</v>
@@ -22932,16 +22935,16 @@
         <v>213</v>
       </c>
       <c r="P220" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="Q220" s="5" t="s">
         <v>1691</v>
       </c>
-      <c r="Q220" s="5" t="s">
+      <c r="R220" s="5" t="s">
         <v>1692</v>
       </c>
-      <c r="R220" s="5" t="s">
+      <c r="S220" s="5" t="s">
         <v>1693</v>
-      </c>
-      <c r="S220" s="5" t="s">
-        <v>1694</v>
       </c>
       <c r="T220" s="5" t="s">
         <v>1127</v>
@@ -22968,17 +22971,17 @@
         <v>33</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I221" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J221" s="58" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="K221" s="14" t="s">
         <v>70</v>
@@ -22994,25 +22997,25 @@
         <v>9</v>
       </c>
       <c r="P221" s="5" t="s">
+        <v>1695</v>
+      </c>
+      <c r="Q221" s="5" t="s">
         <v>1696</v>
       </c>
-      <c r="Q221" s="5" t="s">
+      <c r="R221" s="5" t="s">
         <v>1697</v>
       </c>
-      <c r="R221" s="5" t="s">
+      <c r="S221" s="5" t="s">
         <v>1698</v>
       </c>
-      <c r="S221" s="5" t="s">
+      <c r="T221" s="5" t="s">
         <v>1699</v>
       </c>
-      <c r="T221" s="5" t="s">
+      <c r="U221" s="5" t="s">
         <v>1700</v>
       </c>
-      <c r="U221" s="5" t="s">
+      <c r="V221" s="5" t="s">
         <v>1701</v>
-      </c>
-      <c r="V221" s="5" t="s">
-        <v>1702</v>
       </c>
       <c r="W221" s="9"/>
     </row>
@@ -23030,17 +23033,17 @@
         <v>33</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I222" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J222" s="58" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="K222" s="14" t="s">
         <v>70</v>
@@ -23056,25 +23059,25 @@
         <v>213</v>
       </c>
       <c r="P222" s="5" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="Q222" s="5" t="s">
         <v>434</v>
       </c>
       <c r="R222" s="5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="S222" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="S222" s="5" t="s">
+      <c r="T222" s="5" t="s">
         <v>1706</v>
       </c>
-      <c r="T222" s="5" t="s">
+      <c r="U222" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="U222" s="5" t="s">
+      <c r="V222" s="5" t="s">
         <v>1708</v>
-      </c>
-      <c r="V222" s="5" t="s">
-        <v>1709</v>
       </c>
       <c r="W222" s="9"/>
     </row>
@@ -23092,17 +23095,17 @@
         <v>33</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I223" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J223" s="58" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="K223" s="14" t="s">
         <v>70</v>
@@ -23118,25 +23121,25 @@
         <v>97</v>
       </c>
       <c r="P223" s="5" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q223" s="5" t="s">
         <v>1710</v>
       </c>
-      <c r="Q223" s="5" t="s">
+      <c r="R223" s="5" t="s">
         <v>1711</v>
       </c>
-      <c r="R223" s="5" t="s">
+      <c r="S223" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="S223" s="5" t="s">
+      <c r="T223" s="5" t="s">
         <v>1713</v>
       </c>
-      <c r="T223" s="5" t="s">
+      <c r="U223" s="5" t="s">
         <v>1714</v>
       </c>
-      <c r="U223" s="5" t="s">
+      <c r="V223" s="5" t="s">
         <v>1715</v>
-      </c>
-      <c r="V223" s="5" t="s">
-        <v>1716</v>
       </c>
       <c r="W223" s="9"/>
     </row>
@@ -23154,17 +23157,17 @@
         <v>90</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I224" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J224" s="58" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="K224" s="14" t="s">
         <v>70</v>
@@ -23180,25 +23183,25 @@
         <v>148</v>
       </c>
       <c r="P224" s="5" t="s">
+        <v>1717</v>
+      </c>
+      <c r="Q224" s="5" t="s">
         <v>1718</v>
       </c>
-      <c r="Q224" s="5" t="s">
+      <c r="R224" s="5" t="s">
         <v>1719</v>
       </c>
-      <c r="R224" s="5" t="s">
+      <c r="S224" s="5" t="s">
         <v>1720</v>
       </c>
-      <c r="S224" s="5" t="s">
+      <c r="T224" s="5" t="s">
         <v>1721</v>
       </c>
-      <c r="T224" s="5" t="s">
+      <c r="U224" s="5" t="s">
         <v>1722</v>
       </c>
-      <c r="U224" s="5" t="s">
+      <c r="V224" s="5" t="s">
         <v>1723</v>
-      </c>
-      <c r="V224" s="5" t="s">
-        <v>1724</v>
       </c>
       <c r="W224" s="9"/>
     </row>
@@ -23216,17 +23219,17 @@
         <v>33</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I225" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J225" s="64" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="K225" s="19" t="s">
         <v>175</v>
@@ -23242,25 +23245,25 @@
         <v>2</v>
       </c>
       <c r="P225" s="5" t="s">
+        <v>1725</v>
+      </c>
+      <c r="Q225" s="5" t="s">
         <v>1726</v>
       </c>
-      <c r="Q225" s="5" t="s">
+      <c r="R225" s="5" t="s">
         <v>1727</v>
       </c>
-      <c r="R225" s="5" t="s">
+      <c r="S225" s="5" t="s">
         <v>1728</v>
       </c>
-      <c r="S225" s="5" t="s">
+      <c r="T225" s="5" t="s">
         <v>1729</v>
       </c>
-      <c r="T225" s="5" t="s">
+      <c r="U225" s="5" t="s">
         <v>1730</v>
       </c>
-      <c r="U225" s="5" t="s">
+      <c r="V225" s="5" t="s">
         <v>1731</v>
-      </c>
-      <c r="V225" s="5" t="s">
-        <v>1732</v>
       </c>
       <c r="W225" s="9"/>
     </row>
@@ -23278,17 +23281,17 @@
         <v>33</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="G226" s="4"/>
       <c r="H226" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I226" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J226" s="64" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="K226" s="19" t="s">
         <v>175</v>
@@ -23304,25 +23307,25 @@
         <v>213</v>
       </c>
       <c r="P226" s="5" t="s">
+        <v>1733</v>
+      </c>
+      <c r="Q226" s="5" t="s">
+        <v>1713</v>
+      </c>
+      <c r="R226" s="5" t="s">
+        <v>1712</v>
+      </c>
+      <c r="S226" s="5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="T226" s="5" t="s">
         <v>1734</v>
       </c>
-      <c r="Q226" s="5" t="s">
-        <v>1714</v>
-      </c>
-      <c r="R226" s="5" t="s">
-        <v>1713</v>
-      </c>
-      <c r="S226" s="5" t="s">
-        <v>1712</v>
-      </c>
-      <c r="T226" s="5" t="s">
+      <c r="U226" s="5" t="s">
         <v>1735</v>
       </c>
-      <c r="U226" s="5" t="s">
+      <c r="V226" s="5" t="s">
         <v>1736</v>
-      </c>
-      <c r="V226" s="5" t="s">
-        <v>1737</v>
       </c>
       <c r="W226" s="9"/>
     </row>
@@ -23340,17 +23343,17 @@
         <v>81</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I227" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J227" s="64" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="K227" s="19" t="s">
         <v>175</v>
@@ -23366,25 +23369,25 @@
         <v>9</v>
       </c>
       <c r="P227" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="Q227" s="5" t="s">
         <v>1739</v>
       </c>
-      <c r="Q227" s="5" t="s">
+      <c r="R227" s="5" t="s">
         <v>1740</v>
       </c>
-      <c r="R227" s="5" t="s">
+      <c r="S227" s="5" t="s">
         <v>1741</v>
       </c>
-      <c r="S227" s="5" t="s">
+      <c r="T227" s="5" t="s">
         <v>1742</v>
       </c>
-      <c r="T227" s="5" t="s">
+      <c r="U227" s="5" t="s">
         <v>1743</v>
       </c>
-      <c r="U227" s="5" t="s">
+      <c r="V227" s="5" t="s">
         <v>1744</v>
-      </c>
-      <c r="V227" s="5" t="s">
-        <v>1745</v>
       </c>
       <c r="W227" s="9"/>
     </row>
@@ -23402,17 +23405,17 @@
         <v>81</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I228" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J228" s="64" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="K228" s="19" t="s">
         <v>175</v>
@@ -23428,25 +23431,25 @@
         <v>2</v>
       </c>
       <c r="P228" s="5" t="s">
+        <v>1746</v>
+      </c>
+      <c r="Q228" s="5" t="s">
         <v>1747</v>
       </c>
-      <c r="Q228" s="5" t="s">
+      <c r="R228" s="5" t="s">
         <v>1748</v>
       </c>
-      <c r="R228" s="5" t="s">
+      <c r="S228" s="5" t="s">
         <v>1749</v>
       </c>
-      <c r="S228" s="5" t="s">
+      <c r="T228" s="5" t="s">
         <v>1750</v>
       </c>
-      <c r="T228" s="5" t="s">
+      <c r="U228" s="5" t="s">
         <v>1751</v>
       </c>
-      <c r="U228" s="5" t="s">
+      <c r="V228" s="5" t="s">
         <v>1752</v>
-      </c>
-      <c r="V228" s="5" t="s">
-        <v>1753</v>
       </c>
       <c r="W228" s="9"/>
     </row>
@@ -23464,17 +23467,17 @@
         <v>186</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I229" s="65" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J229" s="60" t="s">
         <v>1755</v>
-      </c>
-      <c r="J229" s="60" t="s">
-        <v>1756</v>
       </c>
       <c r="K229" s="14" t="s">
         <v>70</v>
@@ -23490,25 +23493,25 @@
         <v>139</v>
       </c>
       <c r="P229" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="Q229" s="5" t="s">
         <v>1757</v>
       </c>
-      <c r="Q229" s="5" t="s">
+      <c r="R229" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="R229" s="5" t="s">
+      <c r="S229" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="S229" s="5" t="s">
+      <c r="T229" s="5" t="s">
         <v>1760</v>
       </c>
-      <c r="T229" s="5" t="s">
+      <c r="U229" s="5" t="s">
+        <v>1657</v>
+      </c>
+      <c r="V229" s="5" t="s">
         <v>1761</v>
-      </c>
-      <c r="U229" s="5" t="s">
-        <v>1658</v>
-      </c>
-      <c r="V229" s="5" t="s">
-        <v>1762</v>
       </c>
       <c r="W229" s="9"/>
     </row>
@@ -23526,17 +23529,17 @@
         <v>152</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I230" s="65" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J230" s="60" t="s">
         <v>1755</v>
-      </c>
-      <c r="J230" s="60" t="s">
-        <v>1756</v>
       </c>
       <c r="K230" s="14" t="s">
         <v>70</v>
@@ -23552,31 +23555,31 @@
         <v>278</v>
       </c>
       <c r="P230" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Q230" s="5" t="s">
         <v>1763</v>
       </c>
-      <c r="Q230" s="5" t="s">
+      <c r="R230" s="5" t="s">
         <v>1764</v>
       </c>
-      <c r="R230" s="5" t="s">
+      <c r="S230" s="5" t="s">
         <v>1765</v>
       </c>
-      <c r="S230" s="5" t="s">
+      <c r="T230" s="5" t="s">
         <v>1766</v>
       </c>
-      <c r="T230" s="5" t="s">
+      <c r="U230" s="5" t="s">
         <v>1767</v>
       </c>
-      <c r="U230" s="5" t="s">
+      <c r="V230" s="5" t="s">
         <v>1768</v>
-      </c>
-      <c r="V230" s="5" t="s">
-        <v>1769</v>
       </c>
       <c r="W230" s="9"/>
     </row>
     <row r="231" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
-        <v>1326</v>
+        <v>590</v>
       </c>
       <c r="C231" s="5">
         <v>169</v>
@@ -23588,17 +23591,17 @@
         <v>186</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I231" s="65" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J231" s="60" t="s">
         <v>1755</v>
-      </c>
-      <c r="J231" s="60" t="s">
-        <v>1756</v>
       </c>
       <c r="K231" s="14" t="s">
         <v>70</v>
@@ -23614,31 +23617,31 @@
         <v>106</v>
       </c>
       <c r="P231" s="5" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q231" s="5" t="s">
         <v>1770</v>
       </c>
-      <c r="Q231" s="5" t="s">
+      <c r="R231" s="5" t="s">
         <v>1771</v>
       </c>
-      <c r="R231" s="5" t="s">
+      <c r="S231" s="5" t="s">
         <v>1772</v>
       </c>
-      <c r="S231" s="5" t="s">
+      <c r="T231" s="5" t="s">
         <v>1773</v>
       </c>
-      <c r="T231" s="5" t="s">
+      <c r="U231" s="5" t="s">
         <v>1774</v>
       </c>
-      <c r="U231" s="5" t="s">
+      <c r="V231" s="5" t="s">
         <v>1775</v>
-      </c>
-      <c r="V231" s="5" t="s">
-        <v>1776</v>
       </c>
       <c r="W231" s="9"/>
     </row>
     <row r="232" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
-        <v>1327</v>
+        <v>686</v>
       </c>
       <c r="C232" s="5">
         <v>79</v>
@@ -23650,17 +23653,17 @@
         <v>120</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I232" s="65" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J232" s="60" t="s">
         <v>1755</v>
-      </c>
-      <c r="J232" s="60" t="s">
-        <v>1756</v>
       </c>
       <c r="K232" s="14" t="s">
         <v>70</v>
@@ -23676,31 +23679,31 @@
         <v>9</v>
       </c>
       <c r="P232" s="5" t="s">
+        <v>1777</v>
+      </c>
+      <c r="Q232" s="5" t="s">
         <v>1778</v>
-      </c>
-      <c r="Q232" s="5" t="s">
-        <v>1779</v>
       </c>
       <c r="R232" s="5" t="s">
         <v>558</v>
       </c>
       <c r="S232" s="5" t="s">
+        <v>1779</v>
+      </c>
+      <c r="T232" s="5" t="s">
         <v>1780</v>
       </c>
-      <c r="T232" s="5" t="s">
+      <c r="U232" s="5" t="s">
         <v>1781</v>
       </c>
-      <c r="U232" s="5" t="s">
+      <c r="V232" s="5" t="s">
         <v>1782</v>
-      </c>
-      <c r="V232" s="5" t="s">
-        <v>1783</v>
       </c>
       <c r="W232" s="9"/>
     </row>
     <row r="233" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
-        <v>1328</v>
+        <v>687</v>
       </c>
       <c r="C233" s="5">
         <v>114</v>
@@ -23712,17 +23715,17 @@
         <v>120</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G233" s="4"/>
       <c r="H233" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I233" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J233" s="50" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="K233" s="14" t="s">
         <v>70</v>
@@ -23738,31 +23741,31 @@
         <v>61</v>
       </c>
       <c r="P233" s="5" t="s">
+        <v>1785</v>
+      </c>
+      <c r="Q233" s="5" t="s">
         <v>1786</v>
       </c>
-      <c r="Q233" s="5" t="s">
+      <c r="R233" s="5" t="s">
         <v>1787</v>
       </c>
-      <c r="R233" s="5" t="s">
+      <c r="S233" s="5" t="s">
         <v>1788</v>
       </c>
-      <c r="S233" s="5" t="s">
+      <c r="T233" s="5" t="s">
         <v>1789</v>
       </c>
-      <c r="T233" s="5" t="s">
+      <c r="U233" s="5" t="s">
         <v>1790</v>
       </c>
-      <c r="U233" s="5" t="s">
+      <c r="V233" s="5" t="s">
         <v>1791</v>
-      </c>
-      <c r="V233" s="5" t="s">
-        <v>1792</v>
       </c>
       <c r="W233" s="9"/>
     </row>
     <row r="234" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
-        <v>1329</v>
+        <v>688</v>
       </c>
       <c r="C234" s="5">
         <v>169</v>
@@ -23774,17 +23777,17 @@
         <v>86</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I234" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J234" s="50" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="K234" s="14" t="s">
         <v>70</v>
@@ -23800,31 +23803,31 @@
         <v>6</v>
       </c>
       <c r="P234" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q234" s="5" t="s">
         <v>1794</v>
       </c>
-      <c r="Q234" s="5" t="s">
+      <c r="R234" s="5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="S234" s="5" t="s">
         <v>1795</v>
       </c>
-      <c r="R234" s="5" t="s">
-        <v>1793</v>
-      </c>
-      <c r="S234" s="5" t="s">
+      <c r="T234" s="5" t="s">
         <v>1796</v>
       </c>
-      <c r="T234" s="5" t="s">
+      <c r="U234" s="5" t="s">
         <v>1797</v>
       </c>
-      <c r="U234" s="5" t="s">
+      <c r="V234" s="5" t="s">
         <v>1798</v>
-      </c>
-      <c r="V234" s="5" t="s">
-        <v>1799</v>
       </c>
       <c r="W234" s="9"/>
     </row>
     <row r="235" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
-        <v>1330</v>
+        <v>859</v>
       </c>
       <c r="C235" s="5">
         <v>169</v>
@@ -23836,17 +23839,17 @@
         <v>86</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I235" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J235" s="50" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="K235" s="14" t="s">
         <v>70</v>
@@ -23862,31 +23865,31 @@
         <v>13</v>
       </c>
       <c r="P235" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="Q235" s="5" t="s">
         <v>1801</v>
       </c>
-      <c r="Q235" s="5" t="s">
+      <c r="R235" s="5" t="s">
         <v>1802</v>
       </c>
-      <c r="R235" s="5" t="s">
+      <c r="S235" s="5" t="s">
         <v>1803</v>
       </c>
-      <c r="S235" s="5" t="s">
+      <c r="T235" s="5" t="s">
         <v>1804</v>
       </c>
-      <c r="T235" s="5" t="s">
+      <c r="U235" s="5" t="s">
         <v>1805</v>
       </c>
-      <c r="U235" s="5" t="s">
+      <c r="V235" s="5" t="s">
         <v>1806</v>
-      </c>
-      <c r="V235" s="5" t="s">
-        <v>1807</v>
       </c>
       <c r="W235" s="9"/>
     </row>
     <row r="236" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
-        <v>1331</v>
+        <v>860</v>
       </c>
       <c r="C236" s="5">
         <v>114</v>
@@ -23898,20 +23901,20 @@
         <v>86</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I236" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J236" s="50" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="K236" s="66" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="L236" s="20" t="s">
         <v>8</v>
@@ -23924,31 +23927,31 @@
         <v>3</v>
       </c>
       <c r="P236" s="5" t="s">
+        <v>1809</v>
+      </c>
+      <c r="Q236" s="5" t="s">
         <v>1810</v>
       </c>
-      <c r="Q236" s="5" t="s">
+      <c r="R236" s="5" t="s">
         <v>1811</v>
       </c>
-      <c r="R236" s="5" t="s">
+      <c r="S236" s="5" t="s">
         <v>1812</v>
       </c>
-      <c r="S236" s="5" t="s">
+      <c r="T236" s="5" t="s">
         <v>1813</v>
       </c>
-      <c r="T236" s="5" t="s">
+      <c r="U236" s="5" t="s">
         <v>1814</v>
       </c>
-      <c r="U236" s="5" t="s">
+      <c r="V236" s="5" t="s">
         <v>1815</v>
-      </c>
-      <c r="V236" s="5" t="s">
-        <v>1816</v>
       </c>
       <c r="W236" s="9"/>
     </row>
     <row r="237" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
-        <v>1332</v>
+        <v>861</v>
       </c>
       <c r="C237" s="5">
         <v>169</v>
@@ -23960,20 +23963,20 @@
         <v>126</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I237" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J237" s="50" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="K237" s="66" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="L237" s="20" t="s">
         <v>8</v>
@@ -23986,31 +23989,31 @@
         <v>7</v>
       </c>
       <c r="P237" s="5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="Q237" s="5" t="s">
         <v>1818</v>
       </c>
-      <c r="Q237" s="5" t="s">
+      <c r="R237" s="5" t="s">
         <v>1819</v>
       </c>
-      <c r="R237" s="5" t="s">
+      <c r="S237" s="5" t="s">
         <v>1820</v>
       </c>
-      <c r="S237" s="5" t="s">
+      <c r="T237" s="5" t="s">
         <v>1821</v>
       </c>
-      <c r="T237" s="5" t="s">
+      <c r="U237" s="5" t="s">
         <v>1822</v>
       </c>
-      <c r="U237" s="5" t="s">
+      <c r="V237" s="5" t="s">
         <v>1823</v>
-      </c>
-      <c r="V237" s="5" t="s">
-        <v>1824</v>
       </c>
       <c r="W237" s="9"/>
     </row>
     <row r="238" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
-        <v>1333</v>
+        <v>862</v>
       </c>
       <c r="C238" s="5">
         <v>169</v>
@@ -24022,20 +24025,20 @@
         <v>126</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I238" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J238" s="50" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="K238" s="66" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="L238" s="20" t="s">
         <v>8</v>
@@ -24048,31 +24051,31 @@
         <v>9</v>
       </c>
       <c r="P238" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="Q238" s="5" t="s">
         <v>1826</v>
       </c>
-      <c r="Q238" s="5" t="s">
+      <c r="R238" s="5" t="s">
         <v>1827</v>
       </c>
-      <c r="R238" s="5" t="s">
+      <c r="S238" s="5" t="s">
         <v>1828</v>
       </c>
-      <c r="S238" s="5" t="s">
+      <c r="T238" s="5" t="s">
         <v>1829</v>
       </c>
-      <c r="T238" s="5" t="s">
+      <c r="U238" s="5" t="s">
         <v>1830</v>
       </c>
-      <c r="U238" s="5" t="s">
+      <c r="V238" s="5" t="s">
         <v>1831</v>
-      </c>
-      <c r="V238" s="5" t="s">
-        <v>1832</v>
       </c>
       <c r="W238" s="9"/>
     </row>
     <row r="239" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
-        <v>1334</v>
+        <v>863</v>
       </c>
       <c r="C239" s="5">
         <v>48</v>
@@ -24084,17 +24087,17 @@
         <v>152</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G239" s="4"/>
       <c r="H239" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I239" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J239" s="51" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="K239" s="5" t="s">
         <v>16</v>
@@ -24110,31 +24113,31 @@
         <v>148</v>
       </c>
       <c r="P239" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="Q239" s="5" t="s">
         <v>1834</v>
       </c>
-      <c r="Q239" s="5" t="s">
+      <c r="R239" s="5" t="s">
         <v>1835</v>
       </c>
-      <c r="R239" s="5" t="s">
+      <c r="S239" s="5" t="s">
         <v>1836</v>
       </c>
-      <c r="S239" s="5" t="s">
+      <c r="T239" s="5" t="s">
         <v>1837</v>
       </c>
-      <c r="T239" s="5" t="s">
+      <c r="U239" s="5" t="s">
         <v>1838</v>
       </c>
-      <c r="U239" s="5" t="s">
+      <c r="V239" s="5" t="s">
         <v>1839</v>
-      </c>
-      <c r="V239" s="5" t="s">
-        <v>1840</v>
       </c>
       <c r="W239" s="9"/>
     </row>
     <row r="240" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
-        <v>1335</v>
+        <v>865</v>
       </c>
       <c r="C240" s="5">
         <v>30</v>
@@ -24146,17 +24149,17 @@
         <v>54</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I240" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J240" s="51" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="K240" s="14" t="s">
         <v>70</v>
@@ -24172,31 +24175,31 @@
         <v>213</v>
       </c>
       <c r="P240" s="5" t="s">
+        <v>1841</v>
+      </c>
+      <c r="Q240" s="5" t="s">
         <v>1842</v>
       </c>
-      <c r="Q240" s="5" t="s">
+      <c r="R240" s="5" t="s">
         <v>1843</v>
       </c>
-      <c r="R240" s="5" t="s">
+      <c r="S240" s="5" t="s">
         <v>1844</v>
       </c>
-      <c r="S240" s="5" t="s">
+      <c r="T240" s="5" t="s">
         <v>1845</v>
       </c>
-      <c r="T240" s="5" t="s">
+      <c r="U240" s="5" t="s">
         <v>1846</v>
       </c>
-      <c r="U240" s="5" t="s">
+      <c r="V240" s="5" t="s">
         <v>1847</v>
-      </c>
-      <c r="V240" s="5" t="s">
-        <v>1848</v>
       </c>
       <c r="W240" s="9"/>
     </row>
     <row r="241" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
-        <v>1336</v>
+        <v>933</v>
       </c>
       <c r="C241" s="5">
         <v>30</v>
@@ -24208,17 +24211,17 @@
         <v>54</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G241" s="4"/>
       <c r="H241" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I241" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J241" s="51" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="K241" s="14" t="s">
         <v>70</v>
@@ -24234,31 +24237,31 @@
         <v>3</v>
       </c>
       <c r="P241" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="Q241" s="5" t="s">
         <v>1850</v>
       </c>
-      <c r="Q241" s="5" t="s">
+      <c r="R241" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="R241" s="5" t="s">
+      <c r="S241" s="5" t="s">
         <v>1852</v>
       </c>
-      <c r="S241" s="5" t="s">
+      <c r="T241" s="5" t="s">
         <v>1853</v>
       </c>
-      <c r="T241" s="5" t="s">
+      <c r="U241" s="5" t="s">
         <v>1854</v>
       </c>
-      <c r="U241" s="5" t="s">
+      <c r="V241" s="5" t="s">
         <v>1855</v>
-      </c>
-      <c r="V241" s="5" t="s">
-        <v>1856</v>
       </c>
       <c r="W241" s="9"/>
     </row>
     <row r="242" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
-        <v>1337</v>
+        <v>934</v>
       </c>
       <c r="C242" s="5">
         <v>30</v>
@@ -24270,17 +24273,17 @@
         <v>94</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G242" s="4"/>
       <c r="H242" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I242" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J242" s="51" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="K242" s="14" t="s">
         <v>70</v>
@@ -24296,31 +24299,31 @@
         <v>213</v>
       </c>
       <c r="P242" s="5" t="s">
+        <v>1857</v>
+      </c>
+      <c r="Q242" s="5" t="s">
         <v>1858</v>
       </c>
-      <c r="Q242" s="5" t="s">
+      <c r="R242" s="5" t="s">
         <v>1859</v>
       </c>
-      <c r="R242" s="5" t="s">
+      <c r="S242" s="5" t="s">
         <v>1860</v>
       </c>
-      <c r="S242" s="5" t="s">
+      <c r="T242" s="5" t="s">
         <v>1861</v>
       </c>
-      <c r="T242" s="5" t="s">
+      <c r="U242" s="5" t="s">
         <v>1862</v>
       </c>
-      <c r="U242" s="5" t="s">
+      <c r="V242" s="5" t="s">
         <v>1863</v>
-      </c>
-      <c r="V242" s="5" t="s">
-        <v>1864</v>
       </c>
       <c r="W242" s="9"/>
     </row>
     <row r="243" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
-        <v>1338</v>
+        <v>935</v>
       </c>
       <c r="C243" s="5">
         <v>94</v>
@@ -24332,17 +24335,17 @@
         <v>94</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I243" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J243" s="51" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="K243" s="14" t="s">
         <v>70</v>
@@ -24358,31 +24361,31 @@
         <v>213</v>
       </c>
       <c r="P243" s="5" t="s">
+        <v>1865</v>
+      </c>
+      <c r="Q243" s="5" t="s">
         <v>1866</v>
       </c>
-      <c r="Q243" s="5" t="s">
+      <c r="R243" s="5" t="s">
         <v>1867</v>
       </c>
-      <c r="R243" s="5" t="s">
+      <c r="S243" s="5" t="s">
         <v>1868</v>
       </c>
-      <c r="S243" s="5" t="s">
+      <c r="T243" s="5" t="s">
         <v>1869</v>
       </c>
-      <c r="T243" s="5" t="s">
+      <c r="U243" s="5" t="s">
         <v>1870</v>
       </c>
-      <c r="U243" s="5" t="s">
-        <v>1871</v>
-      </c>
       <c r="V243" s="5" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="W243" s="9"/>
     </row>
     <row r="244" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
-        <v>1339</v>
+        <v>936</v>
       </c>
       <c r="C244" s="5">
         <v>48</v>
@@ -24394,17 +24397,17 @@
         <v>152</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I244" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J244" s="51" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="K244" s="5" t="s">
         <v>16</v>
@@ -24420,31 +24423,31 @@
         <v>106</v>
       </c>
       <c r="P244" s="5" t="s">
+        <v>1872</v>
+      </c>
+      <c r="Q244" s="5" t="s">
         <v>1873</v>
       </c>
-      <c r="Q244" s="5" t="s">
+      <c r="R244" s="5" t="s">
         <v>1874</v>
       </c>
-      <c r="R244" s="5" t="s">
+      <c r="S244" s="5" t="s">
         <v>1875</v>
       </c>
-      <c r="S244" s="5" t="s">
+      <c r="T244" s="5" t="s">
         <v>1876</v>
       </c>
-      <c r="T244" s="5" t="s">
+      <c r="U244" s="5" t="s">
         <v>1877</v>
       </c>
-      <c r="U244" s="5" t="s">
+      <c r="V244" s="5" t="s">
         <v>1878</v>
-      </c>
-      <c r="V244" s="5" t="s">
-        <v>1879</v>
       </c>
       <c r="W244" s="9"/>
     </row>
     <row r="245" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
-        <v>1340</v>
+        <v>937</v>
       </c>
       <c r="C245" s="5">
         <v>107</v>
@@ -24456,17 +24459,17 @@
         <v>54</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I245" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J245" s="51" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="K245" s="5" t="s">
         <v>16</v>
@@ -24482,31 +24485,31 @@
         <v>278</v>
       </c>
       <c r="P245" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="Q245" s="5" t="s">
         <v>1881</v>
       </c>
-      <c r="Q245" s="5" t="s">
+      <c r="R245" s="5" t="s">
         <v>1882</v>
       </c>
-      <c r="R245" s="5" t="s">
+      <c r="S245" s="5" t="s">
         <v>1883</v>
       </c>
-      <c r="S245" s="5" t="s">
+      <c r="T245" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="T245" s="5" t="s">
+      <c r="U245" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="U245" s="5" t="s">
+      <c r="V245" s="5" t="s">
         <v>1886</v>
-      </c>
-      <c r="V245" s="5" t="s">
-        <v>1887</v>
       </c>
       <c r="W245" s="9"/>
     </row>
     <row r="246" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
-        <v>1341</v>
+        <v>1138</v>
       </c>
       <c r="C246" s="5">
         <v>101</v>
@@ -24518,17 +24521,17 @@
         <v>36</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G246" s="4"/>
       <c r="H246" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I246" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J246" s="67" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="K246" s="14" t="s">
         <v>70</v>
@@ -24544,31 +24547,31 @@
         <v>106</v>
       </c>
       <c r="P246" s="5" t="s">
+        <v>1888</v>
+      </c>
+      <c r="Q246" s="5" t="s">
         <v>1889</v>
       </c>
-      <c r="Q246" s="5" t="s">
+      <c r="R246" s="5" t="s">
         <v>1890</v>
       </c>
-      <c r="R246" s="5" t="s">
+      <c r="S246" s="5" t="s">
         <v>1891</v>
       </c>
-      <c r="S246" s="5" t="s">
+      <c r="T246" s="5" t="s">
         <v>1892</v>
       </c>
-      <c r="T246" s="5" t="s">
+      <c r="U246" s="5" t="s">
         <v>1893</v>
       </c>
-      <c r="U246" s="5" t="s">
+      <c r="V246" s="5" t="s">
         <v>1894</v>
-      </c>
-      <c r="V246" s="5" t="s">
-        <v>1895</v>
       </c>
       <c r="W246" s="9"/>
     </row>
     <row r="247" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
-        <v>1342</v>
+        <v>1139</v>
       </c>
       <c r="C247" s="5">
         <v>204</v>
@@ -24580,17 +24583,17 @@
         <v>33</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I247" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J247" s="67" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="K247" s="14" t="s">
         <v>70</v>
@@ -24606,53 +24609,53 @@
         <v>278</v>
       </c>
       <c r="P247" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="Q247" s="5" t="s">
+        <v>1659</v>
+      </c>
+      <c r="R247" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="Q247" s="5" t="s">
-        <v>1660</v>
-      </c>
-      <c r="R247" s="5" t="s">
+      <c r="S247" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="S247" s="5" t="s">
+      <c r="T247" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="T247" s="5" t="s">
+      <c r="U247" s="5" t="s">
         <v>1900</v>
       </c>
-      <c r="U247" s="5" t="s">
+      <c r="V247" s="5" t="s">
         <v>1901</v>
-      </c>
-      <c r="V247" s="5" t="s">
-        <v>1902</v>
       </c>
       <c r="W247" s="9"/>
     </row>
     <row r="248" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
-        <v>1343</v>
+        <v>1140</v>
       </c>
       <c r="C248" s="5">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="D248" s="5">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="E248" s="5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I248" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J248" s="67" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="K248" s="14" t="s">
         <v>70</v>
@@ -24668,31 +24671,31 @@
         <v>213</v>
       </c>
       <c r="P248" s="5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="Q248" s="5" t="s">
         <v>1904</v>
       </c>
-      <c r="Q248" s="5" t="s">
+      <c r="R248" s="5" t="s">
         <v>1905</v>
       </c>
-      <c r="R248" s="5" t="s">
+      <c r="S248" s="5" t="s">
         <v>1906</v>
       </c>
-      <c r="S248" s="5" t="s">
+      <c r="T248" s="5" t="s">
         <v>1907</v>
       </c>
-      <c r="T248" s="5" t="s">
+      <c r="U248" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="U248" s="5" t="s">
-        <v>1909</v>
-      </c>
       <c r="V248" s="5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="W248" s="9"/>
     </row>
     <row r="249" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
-        <v>1344</v>
+        <v>1142</v>
       </c>
       <c r="C249" s="5">
         <v>30</v>
@@ -24704,17 +24707,17 @@
         <v>36</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I249" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J249" s="67" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="K249" s="14" t="s">
         <v>70</v>
@@ -24730,31 +24733,31 @@
         <v>148</v>
       </c>
       <c r="P249" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="Q249" s="5" t="s">
         <v>1911</v>
       </c>
-      <c r="Q249" s="5" t="s">
+      <c r="R249" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="R249" s="5" t="s">
+      <c r="S249" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="S249" s="5" t="s">
+      <c r="T249" s="5" t="s">
         <v>1914</v>
       </c>
-      <c r="T249" s="5" t="s">
+      <c r="U249" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="U249" s="5" t="s">
+      <c r="V249" s="5" t="s">
         <v>1916</v>
-      </c>
-      <c r="V249" s="5" t="s">
-        <v>1917</v>
       </c>
       <c r="W249" s="9"/>
     </row>
     <row r="250" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
-        <v>1345</v>
+        <v>1145</v>
       </c>
       <c r="C250" s="5">
         <v>131</v>
@@ -24766,17 +24769,17 @@
         <v>90</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I250" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J250" s="15" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="K250" s="5" t="s">
         <v>16</v>
@@ -24792,31 +24795,31 @@
         <v>148</v>
       </c>
       <c r="P250" s="5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="Q250" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="Q250" s="5" t="s">
+      <c r="R250" s="5" t="s">
         <v>1921</v>
       </c>
-      <c r="R250" s="5" t="s">
+      <c r="S250" s="5" t="s">
         <v>1922</v>
       </c>
-      <c r="S250" s="5" t="s">
+      <c r="T250" s="5" t="s">
         <v>1923</v>
       </c>
-      <c r="T250" s="5" t="s">
+      <c r="U250" s="5" t="s">
         <v>1924</v>
       </c>
-      <c r="U250" s="5" t="s">
+      <c r="V250" s="5" t="s">
         <v>1925</v>
-      </c>
-      <c r="V250" s="5" t="s">
-        <v>1926</v>
       </c>
       <c r="W250" s="9"/>
     </row>
     <row r="251" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
-        <v>1346</v>
+        <v>1146</v>
       </c>
       <c r="C251" s="5">
         <v>169</v>
@@ -24828,17 +24831,17 @@
         <v>126</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="G251" s="4"/>
       <c r="H251" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I251" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J251" s="15" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="K251" s="5" t="s">
         <v>16</v>
@@ -24854,31 +24857,31 @@
         <v>80</v>
       </c>
       <c r="P251" s="5" t="s">
+        <v>1927</v>
+      </c>
+      <c r="Q251" s="5" t="s">
         <v>1928</v>
       </c>
-      <c r="Q251" s="5" t="s">
+      <c r="R251" s="5" t="s">
         <v>1929</v>
-      </c>
-      <c r="R251" s="5" t="s">
-        <v>1930</v>
       </c>
       <c r="S251" s="5" t="s">
         <v>252</v>
       </c>
       <c r="T251" s="5" t="s">
+        <v>1930</v>
+      </c>
+      <c r="U251" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="U251" s="5" t="s">
+      <c r="V251" s="5" t="s">
         <v>1932</v>
-      </c>
-      <c r="V251" s="5" t="s">
-        <v>1933</v>
       </c>
       <c r="W251" s="9"/>
     </row>
     <row r="252" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
-        <v>1347</v>
+        <v>1147</v>
       </c>
       <c r="C252" s="5">
         <v>210</v>
@@ -24890,17 +24893,17 @@
         <v>112</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I252" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J252" s="15" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="K252" s="17" t="s">
         <v>157</v>
@@ -24916,31 +24919,31 @@
         <v>6</v>
       </c>
       <c r="P252" s="5" t="s">
+        <v>1934</v>
+      </c>
+      <c r="Q252" s="5" t="s">
         <v>1935</v>
       </c>
-      <c r="Q252" s="5" t="s">
+      <c r="R252" s="5" t="s">
         <v>1936</v>
       </c>
-      <c r="R252" s="5" t="s">
+      <c r="S252" s="5" t="s">
         <v>1937</v>
       </c>
-      <c r="S252" s="5" t="s">
+      <c r="T252" s="5" t="s">
         <v>1938</v>
       </c>
-      <c r="T252" s="5" t="s">
+      <c r="U252" s="5" t="s">
         <v>1939</v>
       </c>
-      <c r="U252" s="5" t="s">
+      <c r="V252" s="5" t="s">
         <v>1940</v>
-      </c>
-      <c r="V252" s="5" t="s">
-        <v>1941</v>
       </c>
       <c r="W252" s="9"/>
     </row>
     <row r="253" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
-        <v>1348</v>
+        <v>1148</v>
       </c>
       <c r="C253" s="5">
         <v>169</v>
@@ -24952,17 +24955,17 @@
         <v>126</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I253" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J253" s="15" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="K253" s="17" t="s">
         <v>157</v>
@@ -24978,31 +24981,31 @@
         <v>9</v>
       </c>
       <c r="P253" s="5" t="s">
+        <v>1942</v>
+      </c>
+      <c r="Q253" s="5" t="s">
         <v>1943</v>
       </c>
-      <c r="Q253" s="5" t="s">
+      <c r="R253" s="5" t="s">
         <v>1944</v>
       </c>
-      <c r="R253" s="5" t="s">
+      <c r="S253" s="5" t="s">
         <v>1945</v>
       </c>
-      <c r="S253" s="5" t="s">
+      <c r="T253" s="5" t="s">
         <v>1946</v>
       </c>
-      <c r="T253" s="5" t="s">
+      <c r="U253" s="5" t="s">
         <v>1947</v>
       </c>
-      <c r="U253" s="5" t="s">
+      <c r="V253" s="5" t="s">
         <v>1948</v>
-      </c>
-      <c r="V253" s="5" t="s">
-        <v>1949</v>
       </c>
       <c r="W253" s="9"/>
     </row>
     <row r="254" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
-        <v>1349</v>
+        <v>1149</v>
       </c>
       <c r="C254" s="5">
         <v>210</v>
@@ -25014,17 +25017,17 @@
         <v>112</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I254" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J254" s="15" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="K254" s="19" t="s">
         <v>175</v>
@@ -25040,31 +25043,31 @@
         <v>1013</v>
       </c>
       <c r="P254" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="Q254" s="5" t="s">
         <v>1951</v>
       </c>
-      <c r="Q254" s="5" t="s">
+      <c r="R254" s="5" t="s">
         <v>1952</v>
       </c>
-      <c r="R254" s="5" t="s">
+      <c r="S254" s="5" t="s">
         <v>1953</v>
       </c>
-      <c r="S254" s="5" t="s">
+      <c r="T254" s="5" t="s">
         <v>1954</v>
       </c>
-      <c r="T254" s="5" t="s">
+      <c r="U254" s="5" t="s">
         <v>1955</v>
       </c>
-      <c r="U254" s="5" t="s">
+      <c r="V254" s="5" t="s">
         <v>1956</v>
-      </c>
-      <c r="V254" s="5" t="s">
-        <v>1957</v>
       </c>
       <c r="W254" s="9"/>
     </row>
     <row r="255" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
-        <v>1350</v>
+        <v>1150</v>
       </c>
       <c r="C255" s="5">
         <v>131</v>
@@ -25076,17 +25079,17 @@
         <v>90</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="G255" s="4"/>
       <c r="H255" s="52" t="s">
         <v>1117</v>
       </c>
       <c r="I255" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J255" s="15" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="K255" s="19" t="s">
         <v>175</v>
@@ -25102,27 +25105,102 @@
         <v>1013</v>
       </c>
       <c r="P255" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="Q255" s="5" t="s">
         <v>1958</v>
       </c>
-      <c r="Q255" s="5" t="s">
+      <c r="R255" s="5" t="s">
         <v>1959</v>
       </c>
-      <c r="R255" s="5" t="s">
+      <c r="S255" s="5" t="s">
         <v>1960</v>
       </c>
-      <c r="S255" s="5" t="s">
+      <c r="T255" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="T255" s="5" t="s">
+      <c r="U255" s="5" t="s">
         <v>1962</v>
       </c>
-      <c r="U255" s="5" t="s">
+      <c r="V255" s="5" t="s">
         <v>1963</v>
       </c>
-      <c r="V255" s="5" t="s">
-        <v>1964</v>
-      </c>
       <c r="W255" s="9"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="1"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="1"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="1"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="1"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="1"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="1"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="1"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="1"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="1"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="1"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="1"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="1"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="1"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="1"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="1"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="1"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="1"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="1"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="1"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="1"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="1"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="1"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="1"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="1"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.coder_resources/Pandaria.xlsx
+++ b/.coder_resources/Pandaria.xlsx
@@ -6127,7 +6127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6140,6 +6140,12 @@
       <color indexed="8"/>
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="94">
@@ -6715,7 +6721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7010,6 +7016,7 @@
     <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7283,7 +7290,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7291,10 +7298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W281"/>
+  <dimension ref="B1:X281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y267" sqref="Y267"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AK236" sqref="AK236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7302,7 +7309,7 @@
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1156</v>
       </c>
@@ -7363,8 +7370,9 @@
         <v>22</v>
       </c>
       <c r="W1" s="8"/>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="100"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>2</v>
       </c>
@@ -7425,8 +7433,9 @@
         <v>30</v>
       </c>
       <c r="W2" s="8"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="100"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>3</v>
       </c>
@@ -7487,8 +7496,9 @@
         <v>38</v>
       </c>
       <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="100"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>4</v>
       </c>
@@ -7549,8 +7559,9 @@
         <v>47</v>
       </c>
       <c r="W4" s="8"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="100"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>5</v>
       </c>
@@ -7611,8 +7622,9 @@
         <v>55</v>
       </c>
       <c r="W5" s="8"/>
-    </row>
-    <row r="6" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="X5" s="100"/>
+    </row>
+    <row r="6" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>26</v>
       </c>
@@ -7673,8 +7685,9 @@
         <v>62</v>
       </c>
       <c r="W6" s="8"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="100"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>48</v>
       </c>
@@ -7735,8 +7748,9 @@
         <v>72</v>
       </c>
       <c r="W7" s="8"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="100"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>276</v>
       </c>
@@ -7797,8 +7811,9 @@
         <v>81</v>
       </c>
       <c r="W8" s="8"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="100"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>314</v>
       </c>
@@ -7859,8 +7874,9 @@
         <v>89</v>
       </c>
       <c r="W9" s="8"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="100"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>335</v>
       </c>
@@ -7921,8 +7937,9 @@
         <v>98</v>
       </c>
       <c r="W10" s="8"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="100"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>382</v>
       </c>
@@ -7983,8 +8000,9 @@
         <v>107</v>
       </c>
       <c r="W11" s="8"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="100"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>383</v>
       </c>
@@ -8045,8 +8063,9 @@
         <v>116</v>
       </c>
       <c r="W12" s="8"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="100"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>384</v>
       </c>
@@ -8107,8 +8126,9 @@
         <v>123</v>
       </c>
       <c r="W13" s="8"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="100"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>385</v>
       </c>
@@ -8169,8 +8189,9 @@
         <v>130</v>
       </c>
       <c r="W14" s="8"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="100"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>386</v>
       </c>
@@ -8231,8 +8252,9 @@
         <v>139</v>
       </c>
       <c r="W15" s="8"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="100"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>387</v>
       </c>
@@ -8293,8 +8315,9 @@
         <v>147</v>
       </c>
       <c r="W16" s="8"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="100"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>388</v>
       </c>
@@ -8355,8 +8378,9 @@
         <v>157</v>
       </c>
       <c r="W17" s="8"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="100"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>389</v>
       </c>
@@ -8417,8 +8441,9 @@
         <v>166</v>
       </c>
       <c r="W18" s="8"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="100"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>390</v>
       </c>
@@ -8479,8 +8504,9 @@
         <v>175</v>
       </c>
       <c r="W19" s="8"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="100"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>391</v>
       </c>
@@ -8541,8 +8567,9 @@
         <v>181</v>
       </c>
       <c r="W20" s="8"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X20" s="100"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>392</v>
       </c>
@@ -8603,8 +8630,9 @@
         <v>189</v>
       </c>
       <c r="W21" s="8"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X21" s="100"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>393</v>
       </c>
@@ -8665,8 +8693,9 @@
         <v>197</v>
       </c>
       <c r="W22" s="8"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X22" s="100"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>438</v>
       </c>
@@ -8727,8 +8756,9 @@
         <v>204</v>
       </c>
       <c r="W23" s="8"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X23" s="100"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>464</v>
       </c>
@@ -8789,8 +8819,9 @@
         <v>213</v>
       </c>
       <c r="W24" s="8"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X24" s="100"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>473</v>
       </c>
@@ -8851,8 +8882,9 @@
         <v>219</v>
       </c>
       <c r="W25" s="8"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X25" s="100"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>478</v>
       </c>
@@ -8913,8 +8945,9 @@
         <v>228</v>
       </c>
       <c r="W26" s="8"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X26" s="100"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>480</v>
       </c>
@@ -8975,8 +9008,9 @@
         <v>236</v>
       </c>
       <c r="W27" s="8"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X27" s="100"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>499</v>
       </c>
@@ -9037,8 +9071,9 @@
         <v>245</v>
       </c>
       <c r="W28" s="8"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X28" s="100"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>502</v>
       </c>
@@ -9099,8 +9134,9 @@
         <v>253</v>
       </c>
       <c r="W29" s="8"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X29" s="100"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>506</v>
       </c>
@@ -9161,8 +9197,9 @@
         <v>261</v>
       </c>
       <c r="W30" s="8"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X30" s="100"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>507</v>
       </c>
@@ -9223,8 +9260,9 @@
         <v>268</v>
       </c>
       <c r="W31" s="8"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X31" s="100"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>508</v>
       </c>
@@ -9285,8 +9323,9 @@
         <v>277</v>
       </c>
       <c r="W32" s="8"/>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X32" s="100"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>509</v>
       </c>
@@ -9347,8 +9386,9 @@
         <v>127</v>
       </c>
       <c r="W33" s="8"/>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X33" s="100"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>512</v>
       </c>
@@ -9409,8 +9449,9 @@
         <v>291</v>
       </c>
       <c r="W34" s="8"/>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X34" s="100"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>526</v>
       </c>
@@ -9471,8 +9512,9 @@
         <v>297</v>
       </c>
       <c r="W35" s="8"/>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X35" s="100"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>527</v>
       </c>
@@ -9533,8 +9575,9 @@
         <v>304</v>
       </c>
       <c r="W36" s="8"/>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X36" s="100"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>534</v>
       </c>
@@ -9595,8 +9638,9 @@
         <v>312</v>
       </c>
       <c r="W37" s="8"/>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X37" s="100"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>535</v>
       </c>
@@ -9657,8 +9701,9 @@
         <v>320</v>
       </c>
       <c r="W38" s="8"/>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X38" s="100"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>536</v>
       </c>
@@ -9719,8 +9764,9 @@
         <v>328</v>
       </c>
       <c r="W39" s="8"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X39" s="100"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>537</v>
       </c>
@@ -9781,8 +9827,9 @@
         <v>337</v>
       </c>
       <c r="W40" s="8"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X40" s="100"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>538</v>
       </c>
@@ -9843,8 +9890,9 @@
         <v>344</v>
       </c>
       <c r="W41" s="8"/>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X41" s="100"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>539</v>
       </c>
@@ -9905,8 +9953,9 @@
         <v>352</v>
       </c>
       <c r="W42" s="8"/>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X42" s="100"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>540</v>
       </c>
@@ -9967,8 +10016,9 @@
         <v>359</v>
       </c>
       <c r="W43" s="8"/>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X43" s="100"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>541</v>
       </c>
@@ -10029,8 +10079,9 @@
         <v>366</v>
       </c>
       <c r="W44" s="8"/>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X44" s="100"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>542</v>
       </c>
@@ -10091,8 +10142,9 @@
         <v>372</v>
       </c>
       <c r="W45" s="8"/>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X45" s="100"/>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>543</v>
       </c>
@@ -10153,8 +10205,9 @@
         <v>380</v>
       </c>
       <c r="W46" s="8"/>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X46" s="100"/>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>544</v>
       </c>
@@ -10215,8 +10268,9 @@
         <v>388</v>
       </c>
       <c r="W47" s="8"/>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X47" s="100"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>545</v>
       </c>
@@ -10277,8 +10331,9 @@
         <v>396</v>
       </c>
       <c r="W48" s="8"/>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X48" s="100"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>546</v>
       </c>
@@ -10339,8 +10394,9 @@
         <v>402</v>
       </c>
       <c r="W49" s="8"/>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X49" s="100"/>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>547</v>
       </c>
@@ -10401,8 +10457,9 @@
         <v>342</v>
       </c>
       <c r="W50" s="8"/>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X50" s="100"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>548</v>
       </c>
@@ -10463,8 +10520,9 @@
         <v>418</v>
       </c>
       <c r="W51" s="8"/>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X51" s="100"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>549</v>
       </c>
@@ -10525,8 +10583,9 @@
         <v>426</v>
       </c>
       <c r="W52" s="8"/>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X52" s="100"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>550</v>
       </c>
@@ -10587,8 +10646,9 @@
         <v>433</v>
       </c>
       <c r="W53" s="8"/>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X53" s="100"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>551</v>
       </c>
@@ -10649,8 +10709,9 @@
         <v>440</v>
       </c>
       <c r="W54" s="8"/>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X54" s="100"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>552</v>
       </c>
@@ -10711,8 +10772,9 @@
         <v>449</v>
       </c>
       <c r="W55" s="8"/>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X55" s="100"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>553</v>
       </c>
@@ -10773,8 +10835,9 @@
         <v>456</v>
       </c>
       <c r="W56" s="8"/>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X56" s="100"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>554</v>
       </c>
@@ -10835,8 +10898,9 @@
         <v>464</v>
       </c>
       <c r="W57" s="8"/>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X57" s="100"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>555</v>
       </c>
@@ -10897,8 +10961,9 @@
         <v>472</v>
       </c>
       <c r="W58" s="8"/>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X58" s="100"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>556</v>
       </c>
@@ -10959,8 +11024,9 @@
         <v>479</v>
       </c>
       <c r="W59" s="8"/>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X59" s="100"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>557</v>
       </c>
@@ -11021,8 +11087,9 @@
         <v>487</v>
       </c>
       <c r="W60" s="8"/>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X60" s="100"/>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>558</v>
       </c>
@@ -11083,8 +11150,9 @@
         <v>495</v>
       </c>
       <c r="W61" s="8"/>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X61" s="100"/>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>582</v>
       </c>
@@ -11145,8 +11213,9 @@
         <v>501</v>
       </c>
       <c r="W62" s="8"/>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X62" s="100"/>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>604</v>
       </c>
@@ -11207,8 +11276,9 @@
         <v>507</v>
       </c>
       <c r="W63" s="8"/>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X63" s="100"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>615</v>
       </c>
@@ -11269,8 +11339,9 @@
         <v>515</v>
       </c>
       <c r="W64" s="8"/>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X64" s="100"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>644</v>
       </c>
@@ -11331,8 +11402,9 @@
         <v>523</v>
       </c>
       <c r="W65" s="8"/>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X65" s="100"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>649</v>
       </c>
@@ -11393,8 +11465,9 @@
         <v>529</v>
       </c>
       <c r="W66" s="8"/>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X66" s="100"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>650</v>
       </c>
@@ -11455,8 +11528,9 @@
         <v>537</v>
       </c>
       <c r="W67" s="8"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X67" s="100"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>651</v>
       </c>
@@ -11517,8 +11591,9 @@
         <v>545</v>
       </c>
       <c r="W68" s="8"/>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X68" s="100"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>652</v>
       </c>
@@ -11579,8 +11654,9 @@
         <v>553</v>
       </c>
       <c r="W69" s="8"/>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X69" s="100"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>670</v>
       </c>
@@ -11641,8 +11717,9 @@
         <v>561</v>
       </c>
       <c r="W70" s="8"/>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X70" s="100"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>1166</v>
       </c>
@@ -11703,8 +11780,9 @@
         <v>568</v>
       </c>
       <c r="W71" s="8"/>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X71" s="100"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>1167</v>
       </c>
@@ -11765,8 +11843,9 @@
         <v>574</v>
       </c>
       <c r="W72" s="8"/>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X72" s="100"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>1168</v>
       </c>
@@ -11827,8 +11906,9 @@
         <v>581</v>
       </c>
       <c r="W73" s="8"/>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X73" s="100"/>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>1169</v>
       </c>
@@ -11889,8 +11969,9 @@
         <v>588</v>
       </c>
       <c r="W74" s="8"/>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X74" s="100"/>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>1170</v>
       </c>
@@ -11951,8 +12032,9 @@
         <v>596</v>
       </c>
       <c r="W75" s="8"/>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X75" s="100"/>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>1171</v>
       </c>
@@ -12013,8 +12095,9 @@
         <v>604</v>
       </c>
       <c r="W76" s="8"/>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X76" s="100"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>1172</v>
       </c>
@@ -12075,8 +12158,9 @@
         <v>611</v>
       </c>
       <c r="W77" s="8"/>
-    </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X77" s="100"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>1173</v>
       </c>
@@ -12137,8 +12221,9 @@
         <v>619</v>
       </c>
       <c r="W78" s="8"/>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X78" s="100"/>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>1174</v>
       </c>
@@ -12199,8 +12284,9 @@
         <v>627</v>
       </c>
       <c r="W79" s="8"/>
-    </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X79" s="100"/>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>1175</v>
       </c>
@@ -12261,8 +12347,9 @@
         <v>635</v>
       </c>
       <c r="W80" s="8"/>
-    </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X80" s="100"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>1176</v>
       </c>
@@ -12323,8 +12410,9 @@
         <v>642</v>
       </c>
       <c r="W81" s="8"/>
-    </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X81" s="100"/>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>1177</v>
       </c>
@@ -12385,8 +12473,9 @@
         <v>649</v>
       </c>
       <c r="W82" s="8"/>
-    </row>
-    <row r="83" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="X82" s="100"/>
+    </row>
+    <row r="83" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>1178</v>
       </c>
@@ -12447,8 +12536,9 @@
         <v>659</v>
       </c>
       <c r="W83" s="8"/>
-    </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X83" s="100"/>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>1179</v>
       </c>
@@ -12509,8 +12599,9 @@
         <v>666</v>
       </c>
       <c r="W84" s="8"/>
-    </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X84" s="100"/>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>1180</v>
       </c>
@@ -12571,8 +12662,9 @@
         <v>674</v>
       </c>
       <c r="W85" s="8"/>
-    </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X85" s="100"/>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>1182</v>
       </c>
@@ -12633,8 +12725,9 @@
         <v>682</v>
       </c>
       <c r="W86" s="8"/>
-    </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X86" s="100"/>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>1183</v>
       </c>
@@ -12695,8 +12788,9 @@
         <v>689</v>
       </c>
       <c r="W87" s="8"/>
-    </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X87" s="100"/>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>1184</v>
       </c>
@@ -12757,8 +12851,9 @@
         <v>695</v>
       </c>
       <c r="W88" s="8"/>
-    </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X88" s="100"/>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>1185</v>
       </c>
@@ -12819,8 +12914,9 @@
         <v>703</v>
       </c>
       <c r="W89" s="8"/>
-    </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X89" s="100"/>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>1186</v>
       </c>
@@ -12881,8 +12977,9 @@
         <v>711</v>
       </c>
       <c r="W90" s="8"/>
-    </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X90" s="100"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>1187</v>
       </c>
@@ -12943,8 +13040,9 @@
         <v>718</v>
       </c>
       <c r="W91" s="8"/>
-    </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X91" s="100"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>1188</v>
       </c>
@@ -13005,8 +13103,9 @@
         <v>726</v>
       </c>
       <c r="W92" s="8"/>
-    </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X92" s="100"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>1189</v>
       </c>
@@ -13067,8 +13166,9 @@
         <v>731</v>
       </c>
       <c r="W93" s="8"/>
-    </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X93" s="100"/>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>1190</v>
       </c>
@@ -13129,8 +13229,9 @@
         <v>737</v>
       </c>
       <c r="W94" s="8"/>
-    </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X94" s="100"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>1191</v>
       </c>
@@ -13191,8 +13292,9 @@
         <v>746</v>
       </c>
       <c r="W95" s="8"/>
-    </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X95" s="100"/>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>1192</v>
       </c>
@@ -13253,8 +13355,9 @@
         <v>754</v>
       </c>
       <c r="W96" s="8"/>
-    </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X96" s="100"/>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>1193</v>
       </c>
@@ -13315,8 +13418,9 @@
         <v>762</v>
       </c>
       <c r="W97" s="8"/>
-    </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X97" s="100"/>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>1194</v>
       </c>
@@ -13377,8 +13481,9 @@
         <v>769</v>
       </c>
       <c r="W98" s="8"/>
-    </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X98" s="100"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>1195</v>
       </c>
@@ -13439,8 +13544,9 @@
         <v>774</v>
       </c>
       <c r="W99" s="8"/>
-    </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X99" s="100"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>1196</v>
       </c>
@@ -13501,8 +13607,9 @@
         <v>782</v>
       </c>
       <c r="W100" s="8"/>
-    </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X100" s="100"/>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>1197</v>
       </c>
@@ -13563,8 +13670,9 @@
         <v>790</v>
       </c>
       <c r="W101" s="8"/>
-    </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X101" s="100"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>1198</v>
       </c>
@@ -13625,8 +13733,9 @@
         <v>798</v>
       </c>
       <c r="W102" s="8"/>
-    </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X102" s="100"/>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>1199</v>
       </c>
@@ -13687,8 +13796,9 @@
         <v>803</v>
       </c>
       <c r="W103" s="8"/>
-    </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X103" s="100"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>1200</v>
       </c>
@@ -13749,8 +13859,9 @@
         <v>811</v>
       </c>
       <c r="W104" s="8"/>
-    </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X104" s="100"/>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>1201</v>
       </c>
@@ -13811,8 +13922,9 @@
         <v>819</v>
       </c>
       <c r="W105" s="8"/>
-    </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X105" s="100"/>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>1202</v>
       </c>
@@ -13873,8 +13985,9 @@
         <v>826</v>
       </c>
       <c r="W106" s="8"/>
-    </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X106" s="100"/>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>1203</v>
       </c>
@@ -13935,8 +14048,9 @@
         <v>834</v>
       </c>
       <c r="W107" s="8"/>
-    </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X107" s="100"/>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>1204</v>
       </c>
@@ -13997,8 +14111,9 @@
         <v>840</v>
       </c>
       <c r="W108" s="8"/>
-    </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X108" s="100"/>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>1205</v>
       </c>
@@ -14059,8 +14174,9 @@
         <v>846</v>
       </c>
       <c r="W109" s="8"/>
-    </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X109" s="100"/>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>1206</v>
       </c>
@@ -14121,8 +14237,9 @@
         <v>851</v>
       </c>
       <c r="W110" s="8"/>
-    </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X110" s="100"/>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>1207</v>
       </c>
@@ -14183,8 +14300,9 @@
         <v>858</v>
       </c>
       <c r="W111" s="8"/>
-    </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X111" s="100"/>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>1208</v>
       </c>
@@ -14245,8 +14363,9 @@
         <v>866</v>
       </c>
       <c r="W112" s="8"/>
-    </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X112" s="100"/>
+    </row>
+    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>1209</v>
       </c>
@@ -14307,8 +14426,9 @@
         <v>873</v>
       </c>
       <c r="W113" s="8"/>
-    </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X113" s="100"/>
+    </row>
+    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>1210</v>
       </c>
@@ -14369,8 +14489,9 @@
         <v>881</v>
       </c>
       <c r="W114" s="8"/>
-    </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X114" s="100"/>
+    </row>
+    <row r="115" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>1211</v>
       </c>
@@ -14431,8 +14552,9 @@
         <v>889</v>
       </c>
       <c r="W115" s="8"/>
-    </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X115" s="100"/>
+    </row>
+    <row r="116" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>1212</v>
       </c>
@@ -14493,8 +14615,9 @@
         <v>897</v>
       </c>
       <c r="W116" s="8"/>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X116" s="100"/>
+    </row>
+    <row r="117" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>1213</v>
       </c>
@@ -14555,8 +14678,9 @@
         <v>905</v>
       </c>
       <c r="W117" s="8"/>
-    </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X117" s="100"/>
+    </row>
+    <row r="118" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>1214</v>
       </c>
@@ -14617,8 +14741,9 @@
         <v>913</v>
       </c>
       <c r="W118" s="8"/>
-    </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X118" s="100"/>
+    </row>
+    <row r="119" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>1215</v>
       </c>
@@ -14679,8 +14804,9 @@
         <v>921</v>
       </c>
       <c r="W119" s="8"/>
-    </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X119" s="100"/>
+    </row>
+    <row r="120" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>1216</v>
       </c>
@@ -14741,8 +14867,9 @@
         <v>929</v>
       </c>
       <c r="W120" s="8"/>
-    </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X120" s="100"/>
+    </row>
+    <row r="121" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>1217</v>
       </c>
@@ -14803,8 +14930,9 @@
         <v>936</v>
       </c>
       <c r="W121" s="8"/>
-    </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X121" s="100"/>
+    </row>
+    <row r="122" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>1218</v>
       </c>
@@ -14865,8 +14993,9 @@
         <v>943</v>
       </c>
       <c r="W122" s="8"/>
-    </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X122" s="100"/>
+    </row>
+    <row r="123" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>1219</v>
       </c>
@@ -14927,8 +15056,9 @@
         <v>949</v>
       </c>
       <c r="W123" s="8"/>
-    </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X123" s="100"/>
+    </row>
+    <row r="124" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>1220</v>
       </c>
@@ -14989,8 +15119,9 @@
         <v>956</v>
       </c>
       <c r="W124" s="8"/>
-    </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X124" s="100"/>
+    </row>
+    <row r="125" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>1221</v>
       </c>
@@ -15051,8 +15182,9 @@
         <v>963</v>
       </c>
       <c r="W125" s="8"/>
-    </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X125" s="100"/>
+    </row>
+    <row r="126" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>1222</v>
       </c>
@@ -15113,8 +15245,9 @@
         <v>972</v>
       </c>
       <c r="W126" s="8"/>
-    </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X126" s="100"/>
+    </row>
+    <row r="127" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>1223</v>
       </c>
@@ -15175,8 +15308,9 @@
         <v>979</v>
       </c>
       <c r="W127" s="8"/>
-    </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X127" s="100"/>
+    </row>
+    <row r="128" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>1224</v>
       </c>
@@ -15237,8 +15371,9 @@
         <v>987</v>
       </c>
       <c r="W128" s="8"/>
-    </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X128" s="100"/>
+    </row>
+    <row r="129" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>1225</v>
       </c>
@@ -15299,8 +15434,9 @@
         <v>995</v>
       </c>
       <c r="W129" s="8"/>
-    </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X129" s="100"/>
+    </row>
+    <row r="130" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>1226</v>
       </c>
@@ -15361,8 +15497,9 @@
         <v>1001</v>
       </c>
       <c r="W130" s="8"/>
-    </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X130" s="100"/>
+    </row>
+    <row r="131" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>1227</v>
       </c>
@@ -15423,8 +15560,9 @@
         <v>1009</v>
       </c>
       <c r="W131" s="8"/>
-    </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X131" s="100"/>
+    </row>
+    <row r="132" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>1228</v>
       </c>
@@ -15485,8 +15623,9 @@
         <v>1015</v>
       </c>
       <c r="W132" s="8"/>
-    </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X132" s="100"/>
+    </row>
+    <row r="133" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>1229</v>
       </c>
@@ -15547,8 +15686,9 @@
         <v>1021</v>
       </c>
       <c r="W133" s="8"/>
-    </row>
-    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X133" s="100"/>
+    </row>
+    <row r="134" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>1230</v>
       </c>
@@ -15609,8 +15749,9 @@
         <v>1028</v>
       </c>
       <c r="W134" s="8"/>
-    </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X134" s="100"/>
+    </row>
+    <row r="135" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>1231</v>
       </c>
@@ -15671,8 +15812,9 @@
         <v>927</v>
       </c>
       <c r="W135" s="8"/>
-    </row>
-    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X135" s="100"/>
+    </row>
+    <row r="136" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>1232</v>
       </c>
@@ -15733,8 +15875,9 @@
         <v>1039</v>
       </c>
       <c r="W136" s="8"/>
-    </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X136" s="100"/>
+    </row>
+    <row r="137" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>1233</v>
       </c>
@@ -15795,8 +15938,9 @@
         <v>1047</v>
       </c>
       <c r="W137" s="8"/>
-    </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X137" s="100"/>
+    </row>
+    <row r="138" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>1234</v>
       </c>
@@ -15857,8 +16001,9 @@
         <v>1055</v>
       </c>
       <c r="W138" s="8"/>
-    </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X138" s="100"/>
+    </row>
+    <row r="139" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>1235</v>
       </c>
@@ -15919,8 +16064,9 @@
         <v>1061</v>
       </c>
       <c r="W139" s="8"/>
-    </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X139" s="100"/>
+    </row>
+    <row r="140" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>1236</v>
       </c>
@@ -15981,8 +16127,9 @@
         <v>1068</v>
       </c>
       <c r="W140" s="8"/>
-    </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X140" s="100"/>
+    </row>
+    <row r="141" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>1237</v>
       </c>
@@ -16043,8 +16190,9 @@
         <v>1075</v>
       </c>
       <c r="W141" s="8"/>
-    </row>
-    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X141" s="100"/>
+    </row>
+    <row r="142" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>1238</v>
       </c>
@@ -16105,8 +16253,9 @@
         <v>1083</v>
       </c>
       <c r="W142" s="8"/>
-    </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X142" s="100"/>
+    </row>
+    <row r="143" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>1239</v>
       </c>
@@ -16167,8 +16316,9 @@
         <v>1090</v>
       </c>
       <c r="W143" s="8"/>
-    </row>
-    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X143" s="100"/>
+    </row>
+    <row r="144" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>1240</v>
       </c>
@@ -16229,8 +16379,9 @@
         <v>1097</v>
       </c>
       <c r="W144" s="8"/>
-    </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X144" s="100"/>
+    </row>
+    <row r="145" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>1241</v>
       </c>
@@ -16291,8 +16442,9 @@
         <v>1104</v>
       </c>
       <c r="W145" s="8"/>
-    </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X145" s="100"/>
+    </row>
+    <row r="146" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>1242</v>
       </c>
@@ -16353,8 +16505,9 @@
         <v>1112</v>
       </c>
       <c r="W146" s="8"/>
-    </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X146" s="100"/>
+    </row>
+    <row r="147" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>1243</v>
       </c>
@@ -16415,8 +16568,9 @@
         <v>1118</v>
       </c>
       <c r="W147" s="8"/>
-    </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X147" s="100"/>
+    </row>
+    <row r="148" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>1244</v>
       </c>
@@ -16477,8 +16631,9 @@
         <v>1124</v>
       </c>
       <c r="W148" s="8"/>
-    </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X148" s="100"/>
+    </row>
+    <row r="149" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>1245</v>
       </c>
@@ -16539,8 +16694,9 @@
         <v>1129</v>
       </c>
       <c r="W149" s="8"/>
-    </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X149" s="100"/>
+    </row>
+    <row r="150" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>1246</v>
       </c>
@@ -16601,8 +16757,9 @@
         <v>1136</v>
       </c>
       <c r="W150" s="8"/>
-    </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X150" s="100"/>
+    </row>
+    <row r="151" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>1247</v>
       </c>
@@ -16663,8 +16820,9 @@
         <v>1144</v>
       </c>
       <c r="W151" s="8"/>
-    </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X151" s="100"/>
+    </row>
+    <row r="152" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>1248</v>
       </c>
@@ -16725,8 +16883,9 @@
         <v>1150</v>
       </c>
       <c r="W152" s="8"/>
-    </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X152" s="100"/>
+    </row>
+    <row r="153" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>1249</v>
       </c>
@@ -16787,8 +16946,9 @@
         <v>1158</v>
       </c>
       <c r="W153" s="8"/>
-    </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X153" s="100"/>
+    </row>
+    <row r="154" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>1250</v>
       </c>
@@ -16849,8 +17009,9 @@
         <v>1166</v>
       </c>
       <c r="W154" s="8"/>
-    </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X154" s="100"/>
+    </row>
+    <row r="155" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>1251</v>
       </c>
@@ -16911,8 +17072,9 @@
         <v>1171</v>
       </c>
       <c r="W155" s="8"/>
-    </row>
-    <row r="156" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X155" s="100"/>
+    </row>
+    <row r="156" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>1252</v>
       </c>
@@ -16973,8 +17135,9 @@
         <v>1178</v>
       </c>
       <c r="W156" s="8"/>
-    </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X156" s="100"/>
+    </row>
+    <row r="157" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>1253</v>
       </c>
@@ -17035,8 +17198,9 @@
         <v>1185</v>
       </c>
       <c r="W157" s="8"/>
-    </row>
-    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X157" s="100"/>
+    </row>
+    <row r="158" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>1254</v>
       </c>
@@ -17097,8 +17261,9 @@
         <v>1193</v>
       </c>
       <c r="W158" s="8"/>
-    </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X158" s="100"/>
+    </row>
+    <row r="159" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>1255</v>
       </c>
@@ -17159,8 +17324,9 @@
         <v>1202</v>
       </c>
       <c r="W159" s="8"/>
-    </row>
-    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X159" s="100"/>
+    </row>
+    <row r="160" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>1256</v>
       </c>
@@ -17221,8 +17387,9 @@
         <v>1209</v>
       </c>
       <c r="W160" s="8"/>
-    </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X160" s="100"/>
+    </row>
+    <row r="161" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>1257</v>
       </c>
@@ -17283,8 +17450,9 @@
         <v>1217</v>
       </c>
       <c r="W161" s="8"/>
-    </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X161" s="100"/>
+    </row>
+    <row r="162" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>1258</v>
       </c>
@@ -17345,8 +17513,9 @@
         <v>1225</v>
       </c>
       <c r="W162" s="8"/>
-    </row>
-    <row r="163" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X162" s="100"/>
+    </row>
+    <row r="163" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>1181</v>
       </c>
@@ -17407,8 +17576,9 @@
         <v>1230</v>
       </c>
       <c r="W163" s="8"/>
-    </row>
-    <row r="164" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X163" s="100"/>
+    </row>
+    <row r="164" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>1259</v>
       </c>
@@ -17469,8 +17639,9 @@
         <v>1237</v>
       </c>
       <c r="W164" s="8"/>
-    </row>
-    <row r="165" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X164" s="100"/>
+    </row>
+    <row r="165" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>1260</v>
       </c>
@@ -17531,8 +17702,9 @@
         <v>1242</v>
       </c>
       <c r="W165" s="8"/>
-    </row>
-    <row r="166" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X165" s="100"/>
+    </row>
+    <row r="166" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>1261</v>
       </c>
@@ -17593,8 +17765,9 @@
         <v>1249</v>
       </c>
       <c r="W166" s="8"/>
-    </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X166" s="100"/>
+    </row>
+    <row r="167" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>1262</v>
       </c>
@@ -17655,8 +17828,9 @@
         <v>1256</v>
       </c>
       <c r="W167" s="8"/>
-    </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X167" s="100"/>
+    </row>
+    <row r="168" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>1263</v>
       </c>
@@ -17717,8 +17891,9 @@
         <v>1264</v>
       </c>
       <c r="W168" s="8"/>
-    </row>
-    <row r="169" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X168" s="100"/>
+    </row>
+    <row r="169" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>1264</v>
       </c>
@@ -17779,8 +17954,9 @@
         <v>1272</v>
       </c>
       <c r="W169" s="8"/>
-    </row>
-    <row r="170" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X169" s="100"/>
+    </row>
+    <row r="170" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>1265</v>
       </c>
@@ -17841,8 +18017,9 @@
         <v>1280</v>
       </c>
       <c r="W170" s="8"/>
-    </row>
-    <row r="171" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X170" s="100"/>
+    </row>
+    <row r="171" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>1266</v>
       </c>
@@ -17903,8 +18080,9 @@
         <v>1288</v>
       </c>
       <c r="W171" s="8"/>
-    </row>
-    <row r="172" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X171" s="100"/>
+    </row>
+    <row r="172" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>1267</v>
       </c>
@@ -17965,8 +18143,9 @@
         <v>1295</v>
       </c>
       <c r="W172" s="8"/>
-    </row>
-    <row r="173" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X172" s="100"/>
+    </row>
+    <row r="173" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>1268</v>
       </c>
@@ -18027,8 +18206,9 @@
         <v>1303</v>
       </c>
       <c r="W173" s="8"/>
-    </row>
-    <row r="174" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X173" s="100"/>
+    </row>
+    <row r="174" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>1269</v>
       </c>
@@ -18089,8 +18269,9 @@
         <v>1311</v>
       </c>
       <c r="W174" s="8"/>
-    </row>
-    <row r="175" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X174" s="100"/>
+    </row>
+    <row r="175" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>1270</v>
       </c>
@@ -18151,8 +18332,9 @@
         <v>1319</v>
       </c>
       <c r="W175" s="8"/>
-    </row>
-    <row r="176" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X175" s="100"/>
+    </row>
+    <row r="176" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>1271</v>
       </c>
@@ -18213,8 +18395,9 @@
         <v>1326</v>
       </c>
       <c r="W176" s="8"/>
-    </row>
-    <row r="177" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X176" s="100"/>
+    </row>
+    <row r="177" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>1272</v>
       </c>
@@ -18275,8 +18458,9 @@
         <v>1334</v>
       </c>
       <c r="W177" s="8"/>
-    </row>
-    <row r="178" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X177" s="100"/>
+    </row>
+    <row r="178" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>1273</v>
       </c>
@@ -18337,8 +18521,9 @@
         <v>1342</v>
       </c>
       <c r="W178" s="8"/>
-    </row>
-    <row r="179" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X178" s="100"/>
+    </row>
+    <row r="179" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>1274</v>
       </c>
@@ -18399,8 +18584,9 @@
         <v>1350</v>
       </c>
       <c r="W179" s="8"/>
-    </row>
-    <row r="180" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X179" s="100"/>
+    </row>
+    <row r="180" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>1275</v>
       </c>
@@ -18461,8 +18647,9 @@
         <v>1357</v>
       </c>
       <c r="W180" s="8"/>
-    </row>
-    <row r="181" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X180" s="100"/>
+    </row>
+    <row r="181" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>1276</v>
       </c>
@@ -18523,8 +18710,9 @@
         <v>1364</v>
       </c>
       <c r="W181" s="8"/>
-    </row>
-    <row r="182" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X181" s="100"/>
+    </row>
+    <row r="182" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>1277</v>
       </c>
@@ -18585,8 +18773,9 @@
         <v>1371</v>
       </c>
       <c r="W182" s="8"/>
-    </row>
-    <row r="183" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X182" s="100"/>
+    </row>
+    <row r="183" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>1278</v>
       </c>
@@ -18647,8 +18836,9 @@
         <v>1379</v>
       </c>
       <c r="W183" s="8"/>
-    </row>
-    <row r="184" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X183" s="100"/>
+    </row>
+    <row r="184" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>1279</v>
       </c>
@@ -18709,8 +18899,9 @@
         <v>1386</v>
       </c>
       <c r="W184" s="8"/>
-    </row>
-    <row r="185" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X184" s="100"/>
+    </row>
+    <row r="185" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>1280</v>
       </c>
@@ -18771,8 +18962,9 @@
         <v>1393</v>
       </c>
       <c r="W185" s="8"/>
-    </row>
-    <row r="186" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X185" s="100"/>
+    </row>
+    <row r="186" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>1281</v>
       </c>
@@ -18833,8 +19025,9 @@
         <v>1400</v>
       </c>
       <c r="W186" s="8"/>
-    </row>
-    <row r="187" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X186" s="100"/>
+    </row>
+    <row r="187" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>1282</v>
       </c>
@@ -18895,8 +19088,9 @@
         <v>1407</v>
       </c>
       <c r="W187" s="8"/>
-    </row>
-    <row r="188" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X187" s="100"/>
+    </row>
+    <row r="188" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>1283</v>
       </c>
@@ -18957,8 +19151,9 @@
         <v>1413</v>
       </c>
       <c r="W188" s="8"/>
-    </row>
-    <row r="189" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X188" s="100"/>
+    </row>
+    <row r="189" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>1284</v>
       </c>
@@ -19019,8 +19214,9 @@
         <v>1419</v>
       </c>
       <c r="W189" s="8"/>
-    </row>
-    <row r="190" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X189" s="100"/>
+    </row>
+    <row r="190" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>1285</v>
       </c>
@@ -19081,8 +19277,9 @@
         <v>1426</v>
       </c>
       <c r="W190" s="8"/>
-    </row>
-    <row r="191" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X190" s="100"/>
+    </row>
+    <row r="191" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>1286</v>
       </c>
@@ -19143,8 +19340,9 @@
         <v>1434</v>
       </c>
       <c r="W191" s="8"/>
-    </row>
-    <row r="192" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X191" s="100"/>
+    </row>
+    <row r="192" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>1287</v>
       </c>
@@ -19205,8 +19403,9 @@
         <v>1441</v>
       </c>
       <c r="W192" s="8"/>
-    </row>
-    <row r="193" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X192" s="100"/>
+    </row>
+    <row r="193" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>1288</v>
       </c>
@@ -19267,8 +19466,9 @@
         <v>282</v>
       </c>
       <c r="W193" s="8"/>
-    </row>
-    <row r="194" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X193" s="100"/>
+    </row>
+    <row r="194" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>1289</v>
       </c>
@@ -19329,8 +19529,9 @@
         <v>753</v>
       </c>
       <c r="W194" s="8"/>
-    </row>
-    <row r="195" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X194" s="100"/>
+    </row>
+    <row r="195" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>1290</v>
       </c>
@@ -19391,8 +19592,9 @@
         <v>1461</v>
       </c>
       <c r="W195" s="8"/>
-    </row>
-    <row r="196" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X195" s="100"/>
+    </row>
+    <row r="196" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>1291</v>
       </c>
@@ -19453,8 +19655,9 @@
         <v>1468</v>
       </c>
       <c r="W196" s="8"/>
-    </row>
-    <row r="197" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X196" s="100"/>
+    </row>
+    <row r="197" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>1292</v>
       </c>
@@ -19515,8 +19718,9 @@
         <v>1476</v>
       </c>
       <c r="W197" s="8"/>
-    </row>
-    <row r="198" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X197" s="100"/>
+    </row>
+    <row r="198" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>1293</v>
       </c>
@@ -19577,8 +19781,9 @@
         <v>260</v>
       </c>
       <c r="W198" s="8"/>
-    </row>
-    <row r="199" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X198" s="100"/>
+    </row>
+    <row r="199" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>1294</v>
       </c>
@@ -19639,8 +19844,9 @@
         <v>1490</v>
       </c>
       <c r="W199" s="8"/>
-    </row>
-    <row r="200" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X199" s="100"/>
+    </row>
+    <row r="200" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>1295</v>
       </c>
@@ -19701,8 +19907,9 @@
         <v>1497</v>
       </c>
       <c r="W200" s="8"/>
-    </row>
-    <row r="201" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X200" s="100"/>
+    </row>
+    <row r="201" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>1296</v>
       </c>
@@ -19763,8 +19970,9 @@
         <v>1504</v>
       </c>
       <c r="W201" s="8"/>
-    </row>
-    <row r="202" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X201" s="100"/>
+    </row>
+    <row r="202" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>1297</v>
       </c>
@@ -19825,8 +20033,9 @@
         <v>1513</v>
       </c>
       <c r="W202" s="8"/>
-    </row>
-    <row r="203" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X202" s="100"/>
+    </row>
+    <row r="203" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>1298</v>
       </c>
@@ -19887,8 +20096,9 @@
         <v>1521</v>
       </c>
       <c r="W203" s="8"/>
-    </row>
-    <row r="204" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X203" s="100"/>
+    </row>
+    <row r="204" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>1299</v>
       </c>
@@ -19949,8 +20159,9 @@
         <v>1527</v>
       </c>
       <c r="W204" s="8"/>
-    </row>
-    <row r="205" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X204" s="100"/>
+    </row>
+    <row r="205" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>1300</v>
       </c>
@@ -20011,8 +20222,9 @@
         <v>1535</v>
       </c>
       <c r="W205" s="8"/>
-    </row>
-    <row r="206" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X205" s="100"/>
+    </row>
+    <row r="206" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>1301</v>
       </c>
@@ -20073,8 +20285,9 @@
         <v>1542</v>
       </c>
       <c r="W206" s="8"/>
-    </row>
-    <row r="207" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X206" s="100"/>
+    </row>
+    <row r="207" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>1302</v>
       </c>
@@ -20135,8 +20348,9 @@
         <v>1550</v>
       </c>
       <c r="W207" s="8"/>
-    </row>
-    <row r="208" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X207" s="100"/>
+    </row>
+    <row r="208" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>1303</v>
       </c>
@@ -20197,8 +20411,9 @@
         <v>1558</v>
       </c>
       <c r="W208" s="8"/>
-    </row>
-    <row r="209" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X208" s="100"/>
+    </row>
+    <row r="209" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>1304</v>
       </c>
@@ -20259,8 +20474,9 @@
         <v>1566</v>
       </c>
       <c r="W209" s="8"/>
-    </row>
-    <row r="210" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X209" s="100"/>
+    </row>
+    <row r="210" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>1305</v>
       </c>
@@ -20321,8 +20537,9 @@
         <v>1070</v>
       </c>
       <c r="W210" s="8"/>
-    </row>
-    <row r="211" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X210" s="100"/>
+    </row>
+    <row r="211" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>1306</v>
       </c>
@@ -20383,8 +20600,9 @@
         <v>1577</v>
       </c>
       <c r="W211" s="8"/>
-    </row>
-    <row r="212" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X211" s="100"/>
+    </row>
+    <row r="212" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>1307</v>
       </c>
@@ -20445,8 +20663,9 @@
         <v>1584</v>
       </c>
       <c r="W212" s="8"/>
-    </row>
-    <row r="213" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X212" s="100"/>
+    </row>
+    <row r="213" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>1308</v>
       </c>
@@ -20507,8 +20726,9 @@
         <v>1592</v>
       </c>
       <c r="W213" s="8"/>
-    </row>
-    <row r="214" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X213" s="100"/>
+    </row>
+    <row r="214" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>1309</v>
       </c>
@@ -20569,8 +20789,9 @@
         <v>1600</v>
       </c>
       <c r="W214" s="8"/>
-    </row>
-    <row r="215" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X214" s="100"/>
+    </row>
+    <row r="215" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>1310</v>
       </c>
@@ -20631,8 +20852,9 @@
         <v>1606</v>
       </c>
       <c r="W215" s="8"/>
-    </row>
-    <row r="216" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X215" s="100"/>
+    </row>
+    <row r="216" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>1311</v>
       </c>
@@ -20693,8 +20915,9 @@
         <v>1613</v>
       </c>
       <c r="W216" s="8"/>
-    </row>
-    <row r="217" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X216" s="100"/>
+    </row>
+    <row r="217" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>1312</v>
       </c>
@@ -20755,8 +20978,9 @@
         <v>1620</v>
       </c>
       <c r="W217" s="8"/>
-    </row>
-    <row r="218" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X217" s="100"/>
+    </row>
+    <row r="218" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>1313</v>
       </c>
@@ -20817,8 +21041,9 @@
         <v>52</v>
       </c>
       <c r="W218" s="8"/>
-    </row>
-    <row r="219" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X218" s="100"/>
+    </row>
+    <row r="219" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>1314</v>
       </c>
@@ -20879,8 +21104,9 @@
         <v>1633</v>
       </c>
       <c r="W219" s="8"/>
-    </row>
-    <row r="220" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X219" s="100"/>
+    </row>
+    <row r="220" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>1315</v>
       </c>
@@ -20941,8 +21167,9 @@
         <v>98</v>
       </c>
       <c r="W220" s="8"/>
-    </row>
-    <row r="221" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X220" s="100"/>
+    </row>
+    <row r="221" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>1316</v>
       </c>
@@ -21003,8 +21230,9 @@
         <v>1645</v>
       </c>
       <c r="W221" s="8"/>
-    </row>
-    <row r="222" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X221" s="100"/>
+    </row>
+    <row r="222" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>1317</v>
       </c>
@@ -21065,8 +21293,9 @@
         <v>1651</v>
       </c>
       <c r="W222" s="8"/>
-    </row>
-    <row r="223" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X222" s="100"/>
+    </row>
+    <row r="223" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>1318</v>
       </c>
@@ -21127,8 +21356,9 @@
         <v>1658</v>
       </c>
       <c r="W223" s="8"/>
-    </row>
-    <row r="224" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X223" s="100"/>
+    </row>
+    <row r="224" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>1319</v>
       </c>
@@ -21189,8 +21419,9 @@
         <v>1665</v>
       </c>
       <c r="W224" s="8"/>
-    </row>
-    <row r="225" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X224" s="100"/>
+    </row>
+    <row r="225" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>1320</v>
       </c>
@@ -21251,8 +21482,9 @@
         <v>1672</v>
       </c>
       <c r="W225" s="8"/>
-    </row>
-    <row r="226" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X225" s="100"/>
+    </row>
+    <row r="226" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>1321</v>
       </c>
@@ -21313,8 +21545,9 @@
         <v>1676</v>
       </c>
       <c r="W226" s="8"/>
-    </row>
-    <row r="227" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X226" s="100"/>
+    </row>
+    <row r="227" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>1322</v>
       </c>
@@ -21375,8 +21608,9 @@
         <v>1683</v>
       </c>
       <c r="W227" s="8"/>
-    </row>
-    <row r="228" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X227" s="100"/>
+    </row>
+    <row r="228" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>1323</v>
       </c>
@@ -21437,8 +21671,9 @@
         <v>1690</v>
       </c>
       <c r="W228" s="8"/>
-    </row>
-    <row r="229" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X228" s="100"/>
+    </row>
+    <row r="229" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>1324</v>
       </c>
@@ -21499,8 +21734,9 @@
         <v>1698</v>
       </c>
       <c r="W229" s="8"/>
-    </row>
-    <row r="230" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X229" s="100"/>
+    </row>
+    <row r="230" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>1325</v>
       </c>
@@ -21561,8 +21797,9 @@
         <v>1705</v>
       </c>
       <c r="W230" s="8"/>
-    </row>
-    <row r="231" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X230" s="100"/>
+    </row>
+    <row r="231" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>590</v>
       </c>
@@ -21623,8 +21860,9 @@
         <v>1712</v>
       </c>
       <c r="W231" s="8"/>
-    </row>
-    <row r="232" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X231" s="100"/>
+    </row>
+    <row r="232" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>686</v>
       </c>
@@ -21685,8 +21923,9 @@
         <v>1718</v>
       </c>
       <c r="W232" s="8"/>
-    </row>
-    <row r="233" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X232" s="100"/>
+    </row>
+    <row r="233" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>687</v>
       </c>
@@ -21747,8 +21986,9 @@
         <v>1725</v>
       </c>
       <c r="W233" s="8"/>
-    </row>
-    <row r="234" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X233" s="100"/>
+    </row>
+    <row r="234" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>688</v>
       </c>
@@ -21809,8 +22049,9 @@
         <v>1732</v>
       </c>
       <c r="W234" s="8"/>
-    </row>
-    <row r="235" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X234" s="100"/>
+    </row>
+    <row r="235" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>859</v>
       </c>
@@ -21871,8 +22112,9 @@
         <v>1740</v>
       </c>
       <c r="W235" s="8"/>
-    </row>
-    <row r="236" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X235" s="100"/>
+    </row>
+    <row r="236" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>860</v>
       </c>
@@ -21933,8 +22175,9 @@
         <v>1749</v>
       </c>
       <c r="W236" s="8"/>
-    </row>
-    <row r="237" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X236" s="100"/>
+    </row>
+    <row r="237" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>861</v>
       </c>
@@ -21995,8 +22238,9 @@
         <v>1756</v>
       </c>
       <c r="W237" s="8"/>
-    </row>
-    <row r="238" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X237" s="100"/>
+    </row>
+    <row r="238" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>862</v>
       </c>
@@ -22057,8 +22301,9 @@
         <v>1763</v>
       </c>
       <c r="W238" s="8"/>
-    </row>
-    <row r="239" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X238" s="100"/>
+    </row>
+    <row r="239" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>863</v>
       </c>
@@ -22119,8 +22364,9 @@
         <v>1771</v>
       </c>
       <c r="W239" s="8"/>
-    </row>
-    <row r="240" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X239" s="100"/>
+    </row>
+    <row r="240" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>865</v>
       </c>
@@ -22181,8 +22427,9 @@
         <v>1778</v>
       </c>
       <c r="W240" s="8"/>
-    </row>
-    <row r="241" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X240" s="100"/>
+    </row>
+    <row r="241" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>933</v>
       </c>
@@ -22243,8 +22490,9 @@
         <v>1785</v>
       </c>
       <c r="W241" s="8"/>
-    </row>
-    <row r="242" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X241" s="100"/>
+    </row>
+    <row r="242" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>934</v>
       </c>
@@ -22305,8 +22553,9 @@
         <v>1792</v>
       </c>
       <c r="W242" s="8"/>
-    </row>
-    <row r="243" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X242" s="100"/>
+    </row>
+    <row r="243" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>935</v>
       </c>
@@ -22367,8 +22616,9 @@
         <v>1141</v>
       </c>
       <c r="W243" s="8"/>
-    </row>
-    <row r="244" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X243" s="100"/>
+    </row>
+    <row r="244" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>936</v>
       </c>
@@ -22429,8 +22679,9 @@
         <v>1805</v>
       </c>
       <c r="W244" s="8"/>
-    </row>
-    <row r="245" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X244" s="100"/>
+    </row>
+    <row r="245" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>937</v>
       </c>
@@ -22491,8 +22742,9 @@
         <v>1812</v>
       </c>
       <c r="W245" s="8"/>
-    </row>
-    <row r="246" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X245" s="100"/>
+    </row>
+    <row r="246" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>1138</v>
       </c>
@@ -22553,8 +22805,9 @@
         <v>1820</v>
       </c>
       <c r="W246" s="8"/>
-    </row>
-    <row r="247" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X246" s="100"/>
+    </row>
+    <row r="247" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>1139</v>
       </c>
@@ -22615,8 +22868,9 @@
         <v>1827</v>
       </c>
       <c r="W247" s="8"/>
-    </row>
-    <row r="248" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X247" s="100"/>
+    </row>
+    <row r="248" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>1140</v>
       </c>
@@ -22677,8 +22931,9 @@
         <v>1163</v>
       </c>
       <c r="W248" s="8"/>
-    </row>
-    <row r="249" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X248" s="100"/>
+    </row>
+    <row r="249" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>1142</v>
       </c>
@@ -22739,8 +22994,9 @@
         <v>1841</v>
       </c>
       <c r="W249" s="8"/>
-    </row>
-    <row r="250" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X249" s="100"/>
+    </row>
+    <row r="250" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>1145</v>
       </c>
@@ -22801,8 +23057,9 @@
         <v>1849</v>
       </c>
       <c r="W250" s="8"/>
-    </row>
-    <row r="251" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X250" s="100"/>
+    </row>
+    <row r="251" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>1146</v>
       </c>
@@ -22863,8 +23120,9 @@
         <v>1855</v>
       </c>
       <c r="W251" s="8"/>
-    </row>
-    <row r="252" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X251" s="100"/>
+    </row>
+    <row r="252" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>1147</v>
       </c>
@@ -22925,8 +23183,9 @@
         <v>1863</v>
       </c>
       <c r="W252" s="8"/>
-    </row>
-    <row r="253" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X252" s="100"/>
+    </row>
+    <row r="253" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>1148</v>
       </c>
@@ -22987,8 +23246,9 @@
         <v>1870</v>
       </c>
       <c r="W253" s="8"/>
-    </row>
-    <row r="254" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X253" s="100"/>
+    </row>
+    <row r="254" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>1149</v>
       </c>
@@ -23049,8 +23309,9 @@
         <v>1877</v>
       </c>
       <c r="W254" s="8"/>
-    </row>
-    <row r="255" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X254" s="100"/>
+    </row>
+    <row r="255" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>1150</v>
       </c>
@@ -23111,6 +23372,7 @@
         <v>1884</v>
       </c>
       <c r="W255" s="8"/>
+      <c r="X255" s="100"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>

--- a/.coder_resources/Pandaria.xlsx
+++ b/.coder_resources/Pandaria.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="2035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="2034">
   <si>
     <t>4_6</t>
   </si>
@@ -5853,18 +5853,12 @@
     <t>thunder_king</t>
   </si>
   <si>
-    <t>steppe</t>
-  </si>
-  <si>
     <t>mainland_pandaren</t>
   </si>
   <si>
     <t>waterspeaker</t>
   </si>
   <si>
-    <t>scorched_earth</t>
-  </si>
-  <si>
     <t>cult_of_wealth</t>
   </si>
   <si>
@@ -5880,9 +5874,6 @@
     <t>Kypar'qov</t>
   </si>
   <si>
-    <t>desert</t>
-  </si>
-  <si>
     <t>fire_cult</t>
   </si>
   <si>
@@ -6124,6 +6115,12 @@
   </si>
   <si>
     <t>Dredwoh(U)</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>marsh</t>
   </si>
 </sst>
 </file>
@@ -7302,7 +7299,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7312,8 +7309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X259" sqref="X259"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AC268" sqref="AC268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7354,7 +7351,7 @@
         <v>1943</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N1" s="19"/>
       <c r="O1" s="19" t="s">
@@ -7417,7 +7414,7 @@
         <v>1943</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N2" s="19"/>
       <c r="O2" s="19" t="s">
@@ -7480,7 +7477,7 @@
         <v>1943</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N3" s="19"/>
       <c r="O3" s="19" t="s">
@@ -7543,7 +7540,7 @@
         <v>7</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>442</v>
+        <v>9</v>
       </c>
       <c r="N4" s="19"/>
       <c r="O4" s="19" t="s">
@@ -7606,7 +7603,7 @@
         <v>1943</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N5" s="19"/>
       <c r="O5" s="19" t="s">
@@ -7669,7 +7666,7 @@
         <v>1943</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>1944</v>
+        <v>9</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19" t="s">
@@ -7726,13 +7723,13 @@
         <v>73</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>442</v>
+        <v>14</v>
       </c>
       <c r="N7" s="19"/>
       <c r="O7" s="19" t="s">
@@ -7789,13 +7786,13 @@
         <v>73</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>1944</v>
+        <v>9</v>
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19" t="s">
@@ -7858,7 +7855,7 @@
         <v>1943</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>1944</v>
+        <v>2032</v>
       </c>
       <c r="N9" s="19"/>
       <c r="O9" s="19" t="s">
@@ -7921,7 +7918,7 @@
         <v>1943</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>1944</v>
+        <v>2032</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="19" t="s">
@@ -7978,13 +7975,13 @@
         <v>82</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>1944</v>
+        <v>99</v>
       </c>
       <c r="N11" s="19"/>
       <c r="O11" s="19" t="s">
@@ -8047,7 +8044,7 @@
         <v>1943</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>1944</v>
+        <v>2032</v>
       </c>
       <c r="N12" s="19"/>
       <c r="O12" s="19" t="s">
@@ -8091,7 +8088,7 @@
         <v>126</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="20" t="s">
@@ -8110,7 +8107,7 @@
         <v>1943</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="N13" s="19"/>
       <c r="O13" s="19" t="s">
@@ -8173,7 +8170,7 @@
         <v>1943</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19" t="s">
@@ -8230,13 +8227,13 @@
         <v>1874</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>1944</v>
+        <v>9</v>
       </c>
       <c r="N15" s="19"/>
       <c r="O15" s="19" t="s">
@@ -8293,13 +8290,13 @@
         <v>82</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>1944</v>
+        <v>9</v>
       </c>
       <c r="N16" s="19"/>
       <c r="O16" s="19" t="s">
@@ -8347,7 +8344,7 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I17" s="95" t="s">
         <v>1491</v>
@@ -8359,10 +8356,10 @@
         <v>150</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19" t="s">
@@ -8410,7 +8407,7 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I18" s="95" t="s">
         <v>1491</v>
@@ -8419,13 +8416,13 @@
         <v>149</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>442</v>
+        <v>159</v>
       </c>
       <c r="N18" s="35"/>
       <c r="O18" s="19" t="s">
@@ -8473,7 +8470,7 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I19" s="95" t="s">
         <v>1491</v>
@@ -8488,7 +8485,7 @@
         <v>7</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>1947</v>
+        <v>99</v>
       </c>
       <c r="N19" s="35"/>
       <c r="O19" s="19" t="s">
@@ -8536,7 +8533,7 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I20" s="95" t="s">
         <v>1491</v>
@@ -8608,7 +8605,7 @@
         <v>1877</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>65</v>
@@ -8671,13 +8668,13 @@
         <v>1877</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>442</v>
+        <v>99</v>
       </c>
       <c r="N22" s="35"/>
       <c r="O22" s="19" t="s">
@@ -8734,13 +8731,13 @@
         <v>1877</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L23" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>442</v>
+        <v>14</v>
       </c>
       <c r="N23" s="35"/>
       <c r="O23" s="19" t="s">
@@ -8797,13 +8794,13 @@
         <v>1877</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>442</v>
+        <v>14</v>
       </c>
       <c r="N24" s="35"/>
       <c r="O24" s="19" t="s">
@@ -8860,7 +8857,7 @@
         <v>1878</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>65</v>
@@ -8923,13 +8920,13 @@
         <v>220</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>1944</v>
+        <v>159</v>
       </c>
       <c r="N26" s="35"/>
       <c r="O26" s="19" t="s">
@@ -8989,10 +8986,10 @@
         <v>150</v>
       </c>
       <c r="L27" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="N27" s="35"/>
       <c r="O27" s="19" t="s">
@@ -9052,10 +9049,10 @@
         <v>150</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>1944</v>
+        <v>238</v>
       </c>
       <c r="N28" s="35"/>
       <c r="O28" s="19" t="s">
@@ -9115,10 +9112,10 @@
         <v>150</v>
       </c>
       <c r="L29" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>1944</v>
+        <v>238</v>
       </c>
       <c r="N29" s="35"/>
       <c r="O29" s="19" t="s">
@@ -9175,13 +9172,13 @@
         <v>1883</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>442</v>
+        <v>159</v>
       </c>
       <c r="N30" s="19"/>
       <c r="O30" s="19" t="s">
@@ -9238,13 +9235,13 @@
         <v>1883</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>442</v>
+        <v>159</v>
       </c>
       <c r="N31" s="19"/>
       <c r="O31" s="19" t="s">
@@ -9301,13 +9298,13 @@
         <v>1878</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L32" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>442</v>
+        <v>9</v>
       </c>
       <c r="N32" s="19"/>
       <c r="O32" s="19" t="s">
@@ -9364,13 +9361,13 @@
         <v>1883</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>442</v>
+        <v>159</v>
       </c>
       <c r="N33" s="19"/>
       <c r="O33" s="19" t="s">
@@ -9427,13 +9424,13 @@
         <v>1883</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>442</v>
+        <v>159</v>
       </c>
       <c r="N34" s="19"/>
       <c r="O34" s="19" t="s">
@@ -9490,13 +9487,13 @@
         <v>1880</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L35" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>442</v>
+        <v>159</v>
       </c>
       <c r="N35" s="19"/>
       <c r="O35" s="19" t="s">
@@ -9559,7 +9556,7 @@
         <v>1943</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>442</v>
+        <v>9</v>
       </c>
       <c r="N36" s="19"/>
       <c r="O36" s="19" t="s">
@@ -9622,7 +9619,7 @@
         <v>1943</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>442</v>
+        <v>9</v>
       </c>
       <c r="N37" s="19"/>
       <c r="O37" s="19" t="s">
@@ -9679,13 +9676,13 @@
         <v>1880</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L38" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>442</v>
+        <v>2032</v>
       </c>
       <c r="N38" s="19"/>
       <c r="O38" s="19" t="s">
@@ -9745,10 +9742,10 @@
         <v>330</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>442</v>
+        <v>9</v>
       </c>
       <c r="N39" s="19"/>
       <c r="O39" s="19" t="s">
@@ -9808,10 +9805,10 @@
         <v>330</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>442</v>
+        <v>14</v>
       </c>
       <c r="N40" s="19"/>
       <c r="O40" s="19" t="s">
@@ -9874,7 +9871,7 @@
         <v>7</v>
       </c>
       <c r="M41" s="19" t="s">
-        <v>442</v>
+        <v>14</v>
       </c>
       <c r="N41" s="19"/>
       <c r="O41" s="19" t="s">
@@ -9934,7 +9931,7 @@
         <v>330</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="M42" s="19" t="s">
         <v>99</v>
@@ -9991,7 +9988,7 @@
         <v>12</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="K43" s="23" t="s">
         <v>353</v>
@@ -10000,7 +9997,7 @@
         <v>7</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N43" s="19"/>
       <c r="O43" s="19" t="s">
@@ -10044,7 +10041,7 @@
         <v>131</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="20" t="s">
@@ -10054,7 +10051,7 @@
         <v>12</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="K44" s="23" t="s">
         <v>353</v>
@@ -10107,7 +10104,7 @@
         <v>79</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="20" t="s">
@@ -10117,7 +10114,7 @@
         <v>12</v>
       </c>
       <c r="J45" s="43" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="K45" s="23" t="s">
         <v>353</v>
@@ -10189,7 +10186,7 @@
         <v>7</v>
       </c>
       <c r="M46" s="19" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N46" s="19"/>
       <c r="O46" s="19" t="s">
@@ -10252,7 +10249,7 @@
         <v>7</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N47" s="19"/>
       <c r="O47" s="19" t="s">
@@ -10315,7 +10312,7 @@
         <v>7</v>
       </c>
       <c r="M48" s="19" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N48" s="19"/>
       <c r="O48" s="19" t="s">
@@ -10375,10 +10372,10 @@
         <v>330</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>1947</v>
+        <v>99</v>
       </c>
       <c r="N49" s="19"/>
       <c r="O49" s="19" t="s">
@@ -10438,10 +10435,10 @@
         <v>330</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>442</v>
+        <v>99</v>
       </c>
       <c r="N50" s="19"/>
       <c r="O50" s="19" t="s">
@@ -10501,7 +10498,7 @@
         <v>330</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="M51" s="19" t="s">
         <v>99</v>
@@ -10564,10 +10561,10 @@
         <v>330</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="M52" s="19" t="s">
-        <v>442</v>
+        <v>9</v>
       </c>
       <c r="N52" s="19"/>
       <c r="O52" s="19" t="s">
@@ -10611,7 +10608,7 @@
         <v>161</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="20" t="s">
@@ -10624,13 +10621,13 @@
         <v>480</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M53" s="19" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N53" s="19"/>
       <c r="O53" s="19" t="s">
@@ -10687,13 +10684,13 @@
         <v>480</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L54" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>442</v>
+        <v>9</v>
       </c>
       <c r="N54" s="19"/>
       <c r="O54" s="19" t="s">
@@ -10753,10 +10750,10 @@
         <v>13</v>
       </c>
       <c r="L55" s="101" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="M55" s="19" t="s">
-        <v>1947</v>
+        <v>442</v>
       </c>
       <c r="N55" s="19"/>
       <c r="O55" s="19" t="s">
@@ -10819,7 +10816,7 @@
         <v>1943</v>
       </c>
       <c r="M56" s="19" t="s">
-        <v>1947</v>
+        <v>442</v>
       </c>
       <c r="N56" s="19"/>
       <c r="O56" s="19" t="s">
@@ -10876,13 +10873,13 @@
         <v>441</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L57" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M57" s="19" t="s">
-        <v>1947</v>
+        <v>99</v>
       </c>
       <c r="N57" s="19"/>
       <c r="O57" s="19" t="s">
@@ -10939,13 +10936,13 @@
         <v>441</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L58" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M58" s="19" t="s">
-        <v>1947</v>
+        <v>99</v>
       </c>
       <c r="N58" s="19"/>
       <c r="O58" s="19" t="s">
@@ -11002,7 +10999,7 @@
         <v>441</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L59" s="9" t="s">
         <v>65</v>
@@ -11065,13 +11062,13 @@
         <v>480</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L60" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M60" s="19" t="s">
-        <v>1947</v>
+        <v>442</v>
       </c>
       <c r="N60" s="19"/>
       <c r="O60" s="19" t="s">
@@ -11125,16 +11122,16 @@
         <v>12</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M61" s="19" t="s">
-        <v>1947</v>
+        <v>442</v>
       </c>
       <c r="N61" s="19"/>
       <c r="O61" s="19" t="s">
@@ -11188,16 +11185,16 @@
         <v>12</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L62" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>99</v>
+        <v>442</v>
       </c>
       <c r="N62" s="19"/>
       <c r="O62" s="19" t="s">
@@ -11241,7 +11238,7 @@
         <v>167</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="20" t="s">
@@ -11251,16 +11248,16 @@
         <v>12</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L63" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M63" s="19" t="s">
-        <v>99</v>
+        <v>442</v>
       </c>
       <c r="N63" s="19"/>
       <c r="O63" s="19" t="s">
@@ -11317,7 +11314,7 @@
         <v>1895</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L64" s="9" t="s">
         <v>65</v>
@@ -11380,7 +11377,7 @@
         <v>1895</v>
       </c>
       <c r="K65" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L65" s="9" t="s">
         <v>65</v>
@@ -11443,7 +11440,7 @@
         <v>1895</v>
       </c>
       <c r="K66" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L66" s="9" t="s">
         <v>65</v>
@@ -11506,7 +11503,7 @@
         <v>546</v>
       </c>
       <c r="K67" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L67" s="9" t="s">
         <v>65</v>
@@ -11569,7 +11566,7 @@
         <v>546</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L68" s="9" t="s">
         <v>65</v>
@@ -11632,7 +11629,7 @@
         <v>546</v>
       </c>
       <c r="K69" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L69" s="9" t="s">
         <v>65</v>
@@ -11695,7 +11692,7 @@
         <v>508</v>
       </c>
       <c r="K70" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L70" s="9" t="s">
         <v>65</v>
@@ -11745,7 +11742,7 @@
         <v>135</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="20" t="s">
@@ -11755,10 +11752,10 @@
         <v>508</v>
       </c>
       <c r="J71" s="46" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K71" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L71" s="9" t="s">
         <v>65</v>
@@ -11821,7 +11818,7 @@
         <v>508</v>
       </c>
       <c r="K72" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L72" s="9" t="s">
         <v>65</v>
@@ -11884,7 +11881,7 @@
         <v>508</v>
       </c>
       <c r="K73" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L73" s="9" t="s">
         <v>65</v>
@@ -11934,7 +11931,7 @@
         <v>129</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="20" t="s">
@@ -12010,7 +12007,7 @@
         <v>508</v>
       </c>
       <c r="K75" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L75" s="9" t="s">
         <v>65</v>
@@ -12070,7 +12067,7 @@
         <v>508</v>
       </c>
       <c r="J76" s="46" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>13</v>
@@ -12123,7 +12120,7 @@
         <v>135</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="20" t="s">
@@ -12133,7 +12130,7 @@
         <v>508</v>
       </c>
       <c r="J77" s="46" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>13</v>
@@ -12505,10 +12502,10 @@
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I83" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J83" s="49" t="s">
         <v>650</v>
@@ -12520,7 +12517,7 @@
         <v>10</v>
       </c>
       <c r="M83" s="19" t="s">
-        <v>442</v>
+        <v>2032</v>
       </c>
       <c r="N83" s="19"/>
       <c r="O83" s="19" t="s">
@@ -12568,10 +12565,10 @@
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I84" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J84" s="49" t="s">
         <v>650</v>
@@ -12631,10 +12628,10 @@
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I85" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J85" s="49" t="s">
         <v>650</v>
@@ -12646,7 +12643,7 @@
         <v>10</v>
       </c>
       <c r="M85" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N85" s="19"/>
       <c r="O85" s="19" t="s">
@@ -12694,10 +12691,10 @@
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I86" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J86" s="51" t="s">
         <v>675</v>
@@ -12753,14 +12750,14 @@
         <v>93</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I87" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J87" s="49" t="s">
         <v>650</v>
@@ -12816,14 +12813,14 @@
         <v>56</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I88" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J88" s="51" t="s">
         <v>675</v>
@@ -12883,10 +12880,10 @@
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I89" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J89" s="51" t="s">
         <v>675</v>
@@ -12898,7 +12895,7 @@
         <v>10</v>
       </c>
       <c r="M89" s="19" t="s">
-        <v>442</v>
+        <v>2032</v>
       </c>
       <c r="N89" s="19"/>
       <c r="O89" s="19" t="s">
@@ -12946,10 +12943,10 @@
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I90" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J90" s="51" t="s">
         <v>675</v>
@@ -12961,7 +12958,7 @@
         <v>10</v>
       </c>
       <c r="M90" s="19" t="s">
-        <v>14</v>
+        <v>2032</v>
       </c>
       <c r="N90" s="19"/>
       <c r="O90" s="19" t="s">
@@ -13005,26 +13002,26 @@
         <v>122</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I91" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J91" s="52" t="s">
         <v>776</v>
       </c>
       <c r="K91" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L91" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M91" s="19" t="s">
-        <v>9</v>
+        <v>2032</v>
       </c>
       <c r="N91" s="19"/>
       <c r="O91" s="19" t="s">
@@ -13072,10 +13069,10 @@
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I92" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J92" s="53" t="s">
         <v>719</v>
@@ -13087,7 +13084,7 @@
         <v>10</v>
       </c>
       <c r="M92" s="19" t="s">
-        <v>442</v>
+        <v>2032</v>
       </c>
       <c r="N92" s="19"/>
       <c r="O92" s="19" t="s">
@@ -13135,10 +13132,10 @@
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I93" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J93" s="53" t="s">
         <v>719</v>
@@ -13150,7 +13147,7 @@
         <v>10</v>
       </c>
       <c r="M93" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N93" s="19"/>
       <c r="O93" s="19" t="s">
@@ -13198,10 +13195,10 @@
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I94" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J94" s="53" t="s">
         <v>719</v>
@@ -13213,7 +13210,7 @@
         <v>10</v>
       </c>
       <c r="M94" s="19" t="s">
-        <v>1953</v>
+        <v>238</v>
       </c>
       <c r="N94" s="19"/>
       <c r="O94" s="19" t="s">
@@ -13261,10 +13258,10 @@
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I95" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J95" s="54" t="s">
         <v>753</v>
@@ -13273,20 +13270,20 @@
         <v>739</v>
       </c>
       <c r="L95" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M95" s="19" t="s">
-        <v>442</v>
+        <v>2032</v>
       </c>
       <c r="N95" s="19"/>
       <c r="O95" s="19" t="s">
         <v>206</v>
       </c>
       <c r="P95" s="19" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="Q95" s="19" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="R95" s="19" t="s">
         <v>740</v>
@@ -13324,10 +13321,10 @@
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I96" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J96" s="54" t="s">
         <v>753</v>
@@ -13339,7 +13336,7 @@
         <v>10</v>
       </c>
       <c r="M96" s="19" t="s">
-        <v>9</v>
+        <v>2032</v>
       </c>
       <c r="N96" s="19"/>
       <c r="O96" s="19" t="s">
@@ -13387,10 +13384,10 @@
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I97" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J97" s="54" t="s">
         <v>753</v>
@@ -13399,17 +13396,17 @@
         <v>739</v>
       </c>
       <c r="L97" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M97" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N97" s="19"/>
       <c r="O97" s="19" t="s">
         <v>8</v>
       </c>
       <c r="P97" s="19" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="Q97" s="19" t="s">
         <v>754</v>
@@ -13450,10 +13447,10 @@
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I98" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J98" s="54" t="s">
         <v>753</v>
@@ -13462,17 +13459,17 @@
         <v>739</v>
       </c>
       <c r="L98" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M98" s="19" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N98" s="19"/>
       <c r="O98" s="19" t="s">
         <v>2</v>
       </c>
       <c r="P98" s="19" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="Q98" s="19" t="s">
         <v>760</v>
@@ -13513,10 +13510,10 @@
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I99" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J99" s="57" t="s">
         <v>784</v>
@@ -13525,17 +13522,17 @@
         <v>739</v>
       </c>
       <c r="L99" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M99" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N99" s="19"/>
       <c r="O99" s="19" t="s">
         <v>206</v>
       </c>
       <c r="P99" s="19" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="Q99" s="19" t="s">
         <v>766</v>
@@ -13572,14 +13569,14 @@
         <v>33</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I100" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J100" s="57" t="s">
         <v>784</v>
@@ -13588,17 +13585,17 @@
         <v>739</v>
       </c>
       <c r="L100" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M100" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N100" s="19"/>
       <c r="O100" s="19" t="s">
         <v>270</v>
       </c>
       <c r="P100" s="19" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="Q100" s="19" t="s">
         <v>770</v>
@@ -13639,10 +13636,10 @@
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I101" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J101" s="52" t="s">
         <v>776</v>
@@ -13654,7 +13651,7 @@
         <v>10</v>
       </c>
       <c r="M101" s="19" t="s">
-        <v>442</v>
+        <v>2032</v>
       </c>
       <c r="N101" s="19"/>
       <c r="O101" s="19" t="s">
@@ -13702,10 +13699,10 @@
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I102" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J102" s="57" t="s">
         <v>784</v>
@@ -13717,7 +13714,7 @@
         <v>1943</v>
       </c>
       <c r="M102" s="19" t="s">
-        <v>1944</v>
+        <v>2032</v>
       </c>
       <c r="N102" s="19"/>
       <c r="O102" s="19" t="s">
@@ -13765,10 +13762,10 @@
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I103" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J103" s="57" t="s">
         <v>784</v>
@@ -13780,7 +13777,7 @@
         <v>1943</v>
       </c>
       <c r="M103" s="19" t="s">
-        <v>554</v>
+        <v>2033</v>
       </c>
       <c r="N103" s="19"/>
       <c r="O103" s="19" t="s">
@@ -13828,10 +13825,10 @@
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I104" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J104" s="52" t="s">
         <v>776</v>
@@ -13843,7 +13840,7 @@
         <v>1943</v>
       </c>
       <c r="M104" s="19" t="s">
-        <v>442</v>
+        <v>9</v>
       </c>
       <c r="N104" s="19"/>
       <c r="O104" s="19" t="s">
@@ -13891,10 +13888,10 @@
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I105" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J105" s="52" t="s">
         <v>776</v>
@@ -13906,7 +13903,7 @@
         <v>10</v>
       </c>
       <c r="M105" s="19" t="s">
-        <v>442</v>
+        <v>14</v>
       </c>
       <c r="N105" s="19"/>
       <c r="O105" s="19" t="s">
@@ -13954,7 +13951,7 @@
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I106" s="54" t="s">
         <v>651</v>
@@ -13963,7 +13960,7 @@
         <v>1907</v>
       </c>
       <c r="K106" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L106" s="9" t="s">
         <v>65</v>
@@ -14017,7 +14014,7 @@
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I107" s="54" t="s">
         <v>651</v>
@@ -14026,13 +14023,13 @@
         <v>1907</v>
       </c>
       <c r="K107" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L107" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M107" s="19" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N107" s="19"/>
       <c r="O107" s="19" t="s">
@@ -14080,7 +14077,7 @@
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I108" s="54" t="s">
         <v>651</v>
@@ -14089,7 +14086,7 @@
         <v>845</v>
       </c>
       <c r="K108" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L108" s="9" t="s">
         <v>65</v>
@@ -14143,7 +14140,7 @@
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I109" s="54" t="s">
         <v>651</v>
@@ -14152,13 +14149,13 @@
         <v>1907</v>
       </c>
       <c r="K109" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L109" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M109" s="19" t="s">
-        <v>442</v>
+        <v>2032</v>
       </c>
       <c r="N109" s="19"/>
       <c r="O109" s="19" t="s">
@@ -14206,7 +14203,7 @@
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I110" s="54" t="s">
         <v>651</v>
@@ -14215,7 +14212,7 @@
         <v>1907</v>
       </c>
       <c r="K110" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L110" s="9" t="s">
         <v>65</v>
@@ -14269,7 +14266,7 @@
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I111" s="54" t="s">
         <v>651</v>
@@ -14284,7 +14281,7 @@
         <v>10</v>
       </c>
       <c r="M111" s="19" t="s">
-        <v>442</v>
+        <v>2032</v>
       </c>
       <c r="N111" s="19"/>
       <c r="O111" s="19" t="s">
@@ -14332,7 +14329,7 @@
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I112" s="54" t="s">
         <v>651</v>
@@ -14347,7 +14344,7 @@
         <v>10</v>
       </c>
       <c r="M112" s="19" t="s">
-        <v>1947</v>
+        <v>14</v>
       </c>
       <c r="N112" s="19"/>
       <c r="O112" s="19" t="s">
@@ -14395,7 +14392,7 @@
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I113" s="54" t="s">
         <v>651</v>
@@ -14461,10 +14458,10 @@
         <v>12</v>
       </c>
       <c r="I114" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J114" s="60" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>13</v>
@@ -14473,7 +14470,7 @@
         <v>1943</v>
       </c>
       <c r="M114" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N114" s="19"/>
       <c r="O114" s="19" t="s">
@@ -14524,10 +14521,10 @@
         <v>12</v>
       </c>
       <c r="I115" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J115" s="60" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>13</v>
@@ -14536,7 +14533,7 @@
         <v>1943</v>
       </c>
       <c r="M115" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N115" s="19"/>
       <c r="O115" s="19" t="s">
@@ -14587,10 +14584,10 @@
         <v>12</v>
       </c>
       <c r="I116" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J116" s="60" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>13</v>
@@ -14599,7 +14596,7 @@
         <v>1943</v>
       </c>
       <c r="M116" s="19" t="s">
-        <v>1953</v>
+        <v>9</v>
       </c>
       <c r="N116" s="19"/>
       <c r="O116" s="19" t="s">
@@ -14647,7 +14644,7 @@
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I117" s="54" t="s">
         <v>651</v>
@@ -14662,7 +14659,7 @@
         <v>10</v>
       </c>
       <c r="M117" s="19" t="s">
-        <v>442</v>
+        <v>2032</v>
       </c>
       <c r="N117" s="19"/>
       <c r="O117" s="19" t="s">
@@ -14710,7 +14707,7 @@
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I118" s="54" t="s">
         <v>651</v>
@@ -14722,10 +14719,10 @@
         <v>739</v>
       </c>
       <c r="L118" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M118" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N118" s="19"/>
       <c r="O118" s="19" t="s">
@@ -14773,7 +14770,7 @@
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I119" s="54" t="s">
         <v>651</v>
@@ -14785,17 +14782,17 @@
         <v>739</v>
       </c>
       <c r="L119" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M119" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N119" s="19"/>
       <c r="O119" s="19" t="s">
         <v>270</v>
       </c>
       <c r="P119" s="19" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="Q119" s="19" t="s">
         <v>908</v>
@@ -14832,11 +14829,11 @@
         <v>39</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I120" s="54" t="s">
         <v>651</v>
@@ -14848,10 +14845,10 @@
         <v>739</v>
       </c>
       <c r="L120" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M120" s="19" t="s">
-        <v>442</v>
+        <v>9</v>
       </c>
       <c r="N120" s="19"/>
       <c r="O120" s="19" t="s">
@@ -14899,7 +14896,7 @@
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I121" s="54" t="s">
         <v>651</v>
@@ -14911,20 +14908,20 @@
         <v>739</v>
       </c>
       <c r="L121" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M121" s="19" t="s">
-        <v>442</v>
+        <v>2032</v>
       </c>
       <c r="N121" s="19"/>
       <c r="O121" s="19" t="s">
         <v>270</v>
       </c>
       <c r="P121" s="19" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="Q121" s="19" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="R121" s="19" t="s">
         <v>922</v>
@@ -14962,7 +14959,7 @@
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I122" s="54" t="s">
         <v>651</v>
@@ -14974,7 +14971,7 @@
         <v>739</v>
       </c>
       <c r="L122" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M122" s="19" t="s">
         <v>14</v>
@@ -14984,7 +14981,7 @@
         <v>270</v>
       </c>
       <c r="P122" s="19" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="Q122" s="19" t="s">
         <v>928</v>
@@ -15025,7 +15022,7 @@
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I123" s="54" t="s">
         <v>651</v>
@@ -15037,17 +15034,17 @@
         <v>739</v>
       </c>
       <c r="L123" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M123" s="19" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N123" s="19"/>
       <c r="O123" s="19" t="s">
         <v>206</v>
       </c>
       <c r="P123" s="19" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="Q123" s="19" t="s">
         <v>935</v>
@@ -15084,11 +15081,11 @@
         <v>39</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I124" s="54" t="s">
         <v>651</v>
@@ -15100,17 +15097,17 @@
         <v>739</v>
       </c>
       <c r="L124" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M124" s="19" t="s">
-        <v>14</v>
+        <v>2033</v>
       </c>
       <c r="N124" s="19"/>
       <c r="O124" s="19" t="s">
         <v>206</v>
       </c>
       <c r="P124" s="19" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="Q124" s="19" t="s">
         <v>940</v>
@@ -15147,11 +15144,11 @@
         <v>39</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I125" s="54" t="s">
         <v>651</v>
@@ -15163,17 +15160,17 @@
         <v>739</v>
       </c>
       <c r="L125" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M125" s="19" t="s">
-        <v>9</v>
+        <v>2033</v>
       </c>
       <c r="N125" s="19"/>
       <c r="O125" s="19" t="s">
         <v>8</v>
       </c>
       <c r="P125" s="19" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="Q125" s="19" t="s">
         <v>946</v>
@@ -15214,7 +15211,7 @@
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I126" s="54" t="s">
         <v>651</v>
@@ -15226,10 +15223,10 @@
         <v>739</v>
       </c>
       <c r="L126" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M126" s="19" t="s">
-        <v>442</v>
+        <v>9</v>
       </c>
       <c r="N126" s="19"/>
       <c r="O126" s="19" t="s">
@@ -15277,7 +15274,7 @@
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I127" s="54" t="s">
         <v>651</v>
@@ -15289,17 +15286,17 @@
         <v>739</v>
       </c>
       <c r="L127" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M127" s="19" t="s">
-        <v>1944</v>
+        <v>9</v>
       </c>
       <c r="N127" s="19"/>
       <c r="O127" s="19" t="s">
         <v>975</v>
       </c>
       <c r="P127" s="19" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="Q127" s="19" t="s">
         <v>962</v>
@@ -15340,7 +15337,7 @@
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I128" s="54" t="s">
         <v>651</v>
@@ -15352,10 +15349,10 @@
         <v>739</v>
       </c>
       <c r="L128" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M128" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N128" s="19"/>
       <c r="O128" s="19" t="s">
@@ -15403,7 +15400,7 @@
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I129" s="54" t="s">
         <v>651</v>
@@ -15418,7 +15415,7 @@
         <v>10</v>
       </c>
       <c r="M129" s="19" t="s">
-        <v>14</v>
+        <v>2032</v>
       </c>
       <c r="N129" s="19"/>
       <c r="O129" s="19" t="s">
@@ -15466,7 +15463,7 @@
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I130" s="54" t="s">
         <v>651</v>
@@ -15478,17 +15475,17 @@
         <v>739</v>
       </c>
       <c r="L130" s="56" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M130" s="19" t="s">
-        <v>442</v>
+        <v>14</v>
       </c>
       <c r="N130" s="19"/>
       <c r="O130" s="19" t="s">
         <v>206</v>
       </c>
       <c r="P130" s="19" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="Q130" s="19" t="s">
         <v>983</v>
@@ -15529,7 +15526,7 @@
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I131" s="54" t="s">
         <v>651</v>
@@ -15538,13 +15535,13 @@
         <v>934</v>
       </c>
       <c r="K131" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L131" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M131" s="19" t="s">
-        <v>554</v>
+        <v>2033</v>
       </c>
       <c r="N131" s="19"/>
       <c r="O131" s="19" t="s">
@@ -15592,7 +15589,7 @@
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="47" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="I132" s="54" t="s">
         <v>651</v>
@@ -15601,13 +15598,13 @@
         <v>934</v>
       </c>
       <c r="K132" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L132" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M132" s="19" t="s">
-        <v>554</v>
+        <v>2033</v>
       </c>
       <c r="N132" s="19"/>
       <c r="O132" s="19" t="s">
@@ -15658,7 +15655,7 @@
         <v>12</v>
       </c>
       <c r="I133" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J133" s="66" t="s">
         <v>1921</v>
@@ -15670,7 +15667,7 @@
         <v>1943</v>
       </c>
       <c r="M133" s="19" t="s">
-        <v>1947</v>
+        <v>159</v>
       </c>
       <c r="N133" s="19"/>
       <c r="O133" s="19" t="s">
@@ -15721,7 +15718,7 @@
         <v>12</v>
       </c>
       <c r="I134" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J134" s="66" t="s">
         <v>1921</v>
@@ -15733,7 +15730,7 @@
         <v>1943</v>
       </c>
       <c r="M134" s="19" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N134" s="19"/>
       <c r="O134" s="19" t="s">
@@ -15784,7 +15781,7 @@
         <v>12</v>
       </c>
       <c r="I135" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J135" s="66" t="s">
         <v>1921</v>
@@ -15796,7 +15793,7 @@
         <v>1943</v>
       </c>
       <c r="M135" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N135" s="19"/>
       <c r="O135" s="19" t="s">
@@ -15847,7 +15844,7 @@
         <v>12</v>
       </c>
       <c r="I136" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J136" s="66" t="s">
         <v>1921</v>
@@ -15910,7 +15907,7 @@
         <v>12</v>
       </c>
       <c r="I137" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J137" s="67" t="s">
         <v>1026</v>
@@ -15922,7 +15919,7 @@
         <v>1943</v>
       </c>
       <c r="M137" s="19" t="s">
-        <v>14</v>
+        <v>2033</v>
       </c>
       <c r="N137" s="19"/>
       <c r="O137" s="19" t="s">
@@ -15973,7 +15970,7 @@
         <v>12</v>
       </c>
       <c r="I138" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J138" s="67" t="s">
         <v>1026</v>
@@ -15985,7 +15982,7 @@
         <v>1943</v>
       </c>
       <c r="M138" s="19" t="s">
-        <v>554</v>
+        <v>2033</v>
       </c>
       <c r="N138" s="19"/>
       <c r="O138" s="19" t="s">
@@ -16036,7 +16033,7 @@
         <v>12</v>
       </c>
       <c r="I139" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J139" s="67" t="s">
         <v>1026</v>
@@ -16048,7 +16045,7 @@
         <v>1943</v>
       </c>
       <c r="M139" s="19" t="s">
-        <v>1944</v>
+        <v>9</v>
       </c>
       <c r="N139" s="19"/>
       <c r="O139" s="19" t="s">
@@ -16099,7 +16096,7 @@
         <v>12</v>
       </c>
       <c r="I140" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J140" s="67" t="s">
         <v>1026</v>
@@ -16111,7 +16108,7 @@
         <v>7</v>
       </c>
       <c r="M140" s="19" t="s">
-        <v>14</v>
+        <v>2033</v>
       </c>
       <c r="N140" s="19"/>
       <c r="O140" s="19" t="s">
@@ -16162,7 +16159,7 @@
         <v>12</v>
       </c>
       <c r="I141" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J141" s="68" t="s">
         <v>1932</v>
@@ -16174,7 +16171,7 @@
         <v>7</v>
       </c>
       <c r="M141" s="19" t="s">
-        <v>554</v>
+        <v>2033</v>
       </c>
       <c r="N141" s="19"/>
       <c r="O141" s="19" t="s">
@@ -16225,7 +16222,7 @@
         <v>12</v>
       </c>
       <c r="I142" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J142" s="68" t="s">
         <v>1932</v>
@@ -16237,7 +16234,7 @@
         <v>1943</v>
       </c>
       <c r="M142" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N142" s="19"/>
       <c r="O142" s="19" t="s">
@@ -16288,7 +16285,7 @@
         <v>12</v>
       </c>
       <c r="I143" s="97" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="J143" s="68" t="s">
         <v>1932</v>
@@ -16300,7 +16297,7 @@
         <v>7</v>
       </c>
       <c r="M143" s="19" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N143" s="19"/>
       <c r="O143" s="19" t="s">
@@ -16348,22 +16345,22 @@
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I144" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J144" s="69" t="s">
         <v>1933</v>
       </c>
       <c r="K144" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L144" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M144" s="19" t="s">
-        <v>1947</v>
+        <v>159</v>
       </c>
       <c r="N144" s="19"/>
       <c r="O144" s="19" t="s">
@@ -16407,20 +16404,20 @@
         <v>109</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I145" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J145" s="69" t="s">
         <v>1933</v>
       </c>
       <c r="K145" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L145" s="9" t="s">
         <v>65</v>
@@ -16474,22 +16471,22 @@
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I146" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J146" s="69" t="s">
         <v>1933</v>
       </c>
       <c r="K146" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L146" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M146" s="19" t="s">
-        <v>14</v>
+        <v>2032</v>
       </c>
       <c r="N146" s="19"/>
       <c r="O146" s="19" t="s">
@@ -16533,26 +16530,26 @@
         <v>43</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I147" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J147" s="16" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="K147" s="33" t="s">
         <v>150</v>
       </c>
       <c r="L147" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M147" s="19" t="s">
-        <v>14</v>
+        <v>2032</v>
       </c>
       <c r="N147" s="19"/>
       <c r="O147" s="19" t="s">
@@ -16596,26 +16593,26 @@
         <v>109</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I148" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J148" s="16" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="K148" s="33" t="s">
         <v>150</v>
       </c>
       <c r="L148" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M148" s="19" t="s">
-        <v>14</v>
+        <v>2032</v>
       </c>
       <c r="N148" s="19"/>
       <c r="O148" s="19" t="s">
@@ -16659,26 +16656,26 @@
         <v>90</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I149" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J149" s="16" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="K149" s="33" t="s">
         <v>150</v>
       </c>
       <c r="L149" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M149" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N149" s="19"/>
       <c r="O149" s="19" t="s">
@@ -16722,26 +16719,26 @@
         <v>54</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I150" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J150" s="70" t="s">
         <v>1123</v>
       </c>
       <c r="K150" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L150" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M150" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N150" s="19"/>
       <c r="O150" s="19" t="s">
@@ -16789,22 +16786,22 @@
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I151" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J151" s="70" t="s">
         <v>1123</v>
       </c>
       <c r="K151" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L151" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M151" s="19" t="s">
-        <v>14</v>
+        <v>2032</v>
       </c>
       <c r="N151" s="19"/>
       <c r="O151" s="19" t="s">
@@ -16848,26 +16845,26 @@
         <v>99</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I152" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J152" s="70" t="s">
         <v>1123</v>
       </c>
       <c r="K152" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L152" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M152" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N152" s="19"/>
       <c r="O152" s="19" t="s">
@@ -16915,22 +16912,22 @@
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I153" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J153" s="70" t="s">
         <v>1123</v>
       </c>
       <c r="K153" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L153" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M153" s="19" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="N153" s="19"/>
       <c r="O153" s="19" t="s">
@@ -16978,22 +16975,22 @@
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I154" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J154" s="71" t="s">
         <v>1145</v>
       </c>
       <c r="K154" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L154" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M154" s="19" t="s">
-        <v>14</v>
+        <v>554</v>
       </c>
       <c r="N154" s="19"/>
       <c r="O154" s="19" t="s">
@@ -17037,26 +17034,26 @@
         <v>92</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I155" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J155" s="71" t="s">
         <v>1145</v>
       </c>
       <c r="K155" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L155" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M155" s="19" t="s">
-        <v>14</v>
+        <v>554</v>
       </c>
       <c r="N155" s="19"/>
       <c r="O155" s="19" t="s">
@@ -17104,22 +17101,22 @@
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I156" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J156" s="71" t="s">
         <v>1145</v>
       </c>
       <c r="K156" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L156" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M156" s="19" t="s">
-        <v>14</v>
+        <v>554</v>
       </c>
       <c r="N156" s="19"/>
       <c r="O156" s="19" t="s">
@@ -17163,26 +17160,26 @@
         <v>92</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I157" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J157" s="71" t="s">
         <v>1145</v>
       </c>
       <c r="K157" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L157" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M157" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N157" s="19"/>
       <c r="O157" s="19" t="s">
@@ -17230,16 +17227,16 @@
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I158" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J158" s="71" t="s">
         <v>1145</v>
       </c>
       <c r="K158" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L158" s="9" t="s">
         <v>65</v>
@@ -17293,10 +17290,10 @@
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I159" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J159" s="72" t="s">
         <v>1180</v>
@@ -17305,10 +17302,10 @@
         <v>150</v>
       </c>
       <c r="L159" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M159" s="19" t="s">
-        <v>554</v>
+        <v>2033</v>
       </c>
       <c r="N159" s="19"/>
       <c r="O159" s="19" t="s">
@@ -17356,10 +17353,10 @@
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I160" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J160" s="73" t="s">
         <v>1937</v>
@@ -17368,10 +17365,10 @@
         <v>150</v>
       </c>
       <c r="L160" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M160" s="19" t="s">
-        <v>554</v>
+        <v>2033</v>
       </c>
       <c r="N160" s="19"/>
       <c r="O160" s="19" t="s">
@@ -17419,10 +17416,10 @@
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I161" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J161" s="72" t="s">
         <v>1180</v>
@@ -17431,10 +17428,10 @@
         <v>150</v>
       </c>
       <c r="L161" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M161" s="19" t="s">
-        <v>9</v>
+        <v>2033</v>
       </c>
       <c r="N161" s="19"/>
       <c r="O161" s="19" t="s">
@@ -17482,10 +17479,10 @@
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I162" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J162" s="73" t="s">
         <v>1937</v>
@@ -17494,10 +17491,10 @@
         <v>150</v>
       </c>
       <c r="L162" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M162" s="19" t="s">
-        <v>14</v>
+        <v>554</v>
       </c>
       <c r="N162" s="19"/>
       <c r="O162" s="19" t="s">
@@ -17545,10 +17542,10 @@
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I163" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J163" s="73" t="s">
         <v>1937</v>
@@ -17557,10 +17554,10 @@
         <v>150</v>
       </c>
       <c r="L163" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M163" s="19" t="s">
-        <v>9</v>
+        <v>554</v>
       </c>
       <c r="N163" s="19"/>
       <c r="O163" s="19" t="s">
@@ -17604,26 +17601,26 @@
         <v>109</v>
       </c>
       <c r="F164" s="19" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I164" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J164" s="16" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="K164" s="33" t="s">
         <v>150</v>
       </c>
       <c r="L164" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M164" s="19" t="s">
-        <v>9</v>
+        <v>554</v>
       </c>
       <c r="N164" s="19"/>
       <c r="O164" s="19" t="s">
@@ -17671,10 +17668,10 @@
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I165" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J165" s="72" t="s">
         <v>1180</v>
@@ -17683,7 +17680,7 @@
         <v>150</v>
       </c>
       <c r="L165" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M165" s="19" t="s">
         <v>554</v>
@@ -17734,22 +17731,22 @@
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I166" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J166" s="74" t="s">
         <v>1229</v>
       </c>
       <c r="K166" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L166" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M166" s="19" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="N166" s="19"/>
       <c r="O166" s="19" t="s">
@@ -17797,22 +17794,22 @@
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I167" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J167" s="74" t="s">
         <v>1229</v>
       </c>
       <c r="K167" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L167" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M167" s="19" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="N167" s="19"/>
       <c r="O167" s="19" t="s">
@@ -17860,22 +17857,22 @@
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I168" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J168" s="74" t="s">
         <v>1229</v>
       </c>
       <c r="K168" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L168" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M168" s="19" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="N168" s="19"/>
       <c r="O168" s="19" t="s">
@@ -17923,22 +17920,22 @@
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I169" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J169" s="74" t="s">
         <v>1229</v>
       </c>
       <c r="K169" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L169" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M169" s="19" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N169" s="19"/>
       <c r="O169" s="19" t="s">
@@ -17986,16 +17983,16 @@
       </c>
       <c r="G170" s="4"/>
       <c r="H170" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I170" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J170" s="75" t="s">
         <v>1267</v>
       </c>
       <c r="K170" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L170" s="9" t="s">
         <v>65</v>
@@ -18049,22 +18046,22 @@
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I171" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J171" s="75" t="s">
         <v>1267</v>
       </c>
       <c r="K171" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L171" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M171" s="19" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="N171" s="19"/>
       <c r="O171" s="19" t="s">
@@ -18112,22 +18109,22 @@
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I172" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J172" s="75" t="s">
         <v>1267</v>
       </c>
       <c r="K172" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L172" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M172" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N172" s="19"/>
       <c r="O172" s="19" t="s">
@@ -18175,22 +18172,22 @@
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I173" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J173" s="75" t="s">
         <v>1267</v>
       </c>
       <c r="K173" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L173" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M173" s="19" t="s">
-        <v>14</v>
+        <v>554</v>
       </c>
       <c r="N173" s="19"/>
       <c r="O173" s="19" t="s">
@@ -18238,22 +18235,22 @@
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I174" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J174" s="76" t="s">
         <v>1290</v>
       </c>
       <c r="K174" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L174" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M174" s="19" t="s">
-        <v>1944</v>
+        <v>9</v>
       </c>
       <c r="N174" s="19"/>
       <c r="O174" s="19" t="s">
@@ -18301,22 +18298,22 @@
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I175" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J175" s="76" t="s">
         <v>1290</v>
       </c>
       <c r="K175" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L175" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M175" s="19" t="s">
-        <v>1944</v>
+        <v>99</v>
       </c>
       <c r="N175" s="19"/>
       <c r="O175" s="19" t="s">
@@ -18364,16 +18361,16 @@
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I176" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J176" s="76" t="s">
         <v>1290</v>
       </c>
       <c r="K176" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L176" s="9" t="s">
         <v>65</v>
@@ -18427,22 +18424,22 @@
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I177" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J177" s="76" t="s">
         <v>1290</v>
       </c>
       <c r="K177" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L177" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M177" s="19" t="s">
-        <v>1944</v>
+        <v>2032</v>
       </c>
       <c r="N177" s="19"/>
       <c r="O177" s="19" t="s">
@@ -18490,22 +18487,22 @@
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I178" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J178" s="77" t="s">
         <v>1321</v>
       </c>
       <c r="K178" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L178" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M178" s="19" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="N178" s="19"/>
       <c r="O178" s="19" t="s">
@@ -18553,22 +18550,22 @@
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I179" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J179" s="77" t="s">
         <v>1321</v>
       </c>
       <c r="K179" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L179" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M179" s="19" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="N179" s="19"/>
       <c r="O179" s="19" t="s">
@@ -18612,26 +18609,26 @@
         <v>58</v>
       </c>
       <c r="F180" s="19" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I180" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J180" s="77" t="s">
         <v>1321</v>
       </c>
       <c r="K180" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L180" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M180" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N180" s="19"/>
       <c r="O180" s="19" t="s">
@@ -18679,22 +18676,22 @@
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I181" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J181" s="77" t="s">
         <v>1321</v>
       </c>
       <c r="K181" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L181" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M181" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N181" s="19"/>
       <c r="O181" s="19" t="s">
@@ -18738,17 +18735,17 @@
         <v>103</v>
       </c>
       <c r="F182" s="19" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I182" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J182" s="78" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="K182" s="18" t="s">
         <v>40</v>
@@ -18757,7 +18754,7 @@
         <v>7</v>
       </c>
       <c r="M182" s="19" t="s">
-        <v>14</v>
+        <v>2032</v>
       </c>
       <c r="N182" s="19"/>
       <c r="O182" s="19" t="s">
@@ -18805,22 +18802,22 @@
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I183" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J183" s="78" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="K183" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L183" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M183" s="19" t="s">
-        <v>14</v>
+        <v>2032</v>
       </c>
       <c r="N183" s="19"/>
       <c r="O183" s="19" t="s">
@@ -18864,26 +18861,26 @@
         <v>96</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I184" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J184" s="78" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="K184" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L184" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M184" s="19" t="s">
-        <v>14</v>
+        <v>554</v>
       </c>
       <c r="N184" s="19"/>
       <c r="O184" s="19" t="s">
@@ -18927,17 +18924,17 @@
         <v>154</v>
       </c>
       <c r="F185" s="19" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I185" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J185" s="78" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="K185" s="18" t="s">
         <v>40</v>
@@ -18946,7 +18943,7 @@
         <v>7</v>
       </c>
       <c r="M185" s="19" t="s">
-        <v>9</v>
+        <v>554</v>
       </c>
       <c r="N185" s="19"/>
       <c r="O185" s="19" t="s">
@@ -18990,17 +18987,17 @@
         <v>161</v>
       </c>
       <c r="F186" s="19" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I186" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J186" s="79" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="K186" s="18" t="s">
         <v>40</v>
@@ -19009,7 +19006,7 @@
         <v>7</v>
       </c>
       <c r="M186" s="19" t="s">
-        <v>9</v>
+        <v>554</v>
       </c>
       <c r="N186" s="19"/>
       <c r="O186" s="19" t="s">
@@ -19053,17 +19050,17 @@
         <v>88</v>
       </c>
       <c r="F187" s="19" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I187" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J187" s="79" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="K187" s="18" t="s">
         <v>40</v>
@@ -19072,7 +19069,7 @@
         <v>7</v>
       </c>
       <c r="M187" s="19" t="s">
-        <v>14</v>
+        <v>554</v>
       </c>
       <c r="N187" s="19"/>
       <c r="O187" s="19" t="s">
@@ -19120,16 +19117,16 @@
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I188" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J188" s="79" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="K188" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L188" s="9" t="s">
         <v>65</v>
@@ -19179,20 +19176,20 @@
         <v>88</v>
       </c>
       <c r="F189" s="19" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I189" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J189" s="79" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="K189" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L189" s="9" t="s">
         <v>65</v>
@@ -19242,20 +19239,20 @@
         <v>161</v>
       </c>
       <c r="F190" s="19" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I190" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J190" s="79" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="K190" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L190" s="9" t="s">
         <v>65</v>
@@ -19309,16 +19306,16 @@
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I191" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J191" s="80" t="s">
         <v>1428</v>
       </c>
       <c r="K191" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L191" s="9" t="s">
         <v>65</v>
@@ -19372,16 +19369,16 @@
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I192" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J192" s="80" t="s">
         <v>1428</v>
       </c>
       <c r="K192" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L192" s="9" t="s">
         <v>65</v>
@@ -19435,16 +19432,16 @@
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I193" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J193" s="80" t="s">
         <v>1428</v>
       </c>
       <c r="K193" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L193" s="9" t="s">
         <v>65</v>
@@ -19498,16 +19495,16 @@
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I194" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J194" s="81" t="s">
         <v>1435</v>
       </c>
       <c r="K194" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L194" s="9" t="s">
         <v>65</v>
@@ -19561,10 +19558,10 @@
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I195" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J195" s="81" t="s">
         <v>1435</v>
@@ -19620,14 +19617,14 @@
         <v>41</v>
       </c>
       <c r="F196" s="19" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I196" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J196" s="81" t="s">
         <v>1435</v>
@@ -19639,7 +19636,7 @@
         <v>7</v>
       </c>
       <c r="M196" s="19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N196" s="19"/>
       <c r="O196" s="19" t="s">
@@ -19687,22 +19684,22 @@
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I197" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J197" s="69" t="s">
         <v>1933</v>
       </c>
       <c r="K197" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L197" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M197" s="19" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="N197" s="19"/>
       <c r="O197" s="19" t="s">
@@ -19750,10 +19747,10 @@
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I198" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J198" s="82" t="s">
         <v>1464</v>
@@ -19809,14 +19806,14 @@
         <v>92</v>
       </c>
       <c r="F199" s="19" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I199" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J199" s="82" t="s">
         <v>1464</v>
@@ -19828,7 +19825,7 @@
         <v>1943</v>
       </c>
       <c r="M199" s="19" t="s">
-        <v>99</v>
+        <v>554</v>
       </c>
       <c r="N199" s="19"/>
       <c r="O199" s="19" t="s">
@@ -19876,10 +19873,10 @@
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I200" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J200" s="82" t="s">
         <v>1464</v>
@@ -19935,14 +19932,14 @@
         <v>92</v>
       </c>
       <c r="F201" s="19" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I201" s="98" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J201" s="82" t="s">
         <v>1464</v>
@@ -20002,7 +19999,7 @@
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I202" s="95" t="s">
         <v>1491</v>
@@ -20011,7 +20008,7 @@
         <v>1491</v>
       </c>
       <c r="K202" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L202" s="9" t="s">
         <v>65</v>
@@ -20065,7 +20062,7 @@
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I203" s="95" t="s">
         <v>1491</v>
@@ -20074,7 +20071,7 @@
         <v>1491</v>
       </c>
       <c r="K203" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L203" s="9" t="s">
         <v>65</v>
@@ -20128,7 +20125,7 @@
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I204" s="95" t="s">
         <v>1491</v>
@@ -20137,7 +20134,7 @@
         <v>1491</v>
       </c>
       <c r="K204" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L204" s="9" t="s">
         <v>65</v>
@@ -20191,7 +20188,7 @@
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I205" s="95" t="s">
         <v>1491</v>
@@ -20200,13 +20197,13 @@
         <v>1491</v>
       </c>
       <c r="K205" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L205" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M205" s="19" t="s">
-        <v>1944</v>
+        <v>159</v>
       </c>
       <c r="N205" s="19"/>
       <c r="O205" s="19" t="s">
@@ -20250,11 +20247,11 @@
         <v>33</v>
       </c>
       <c r="F206" s="19" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I206" s="95" t="s">
         <v>1491</v>
@@ -20263,13 +20260,13 @@
         <v>1491</v>
       </c>
       <c r="K206" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L206" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M206" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N206" s="19"/>
       <c r="O206" s="19" t="s">
@@ -20317,7 +20314,7 @@
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I207" s="95" t="s">
         <v>1491</v>
@@ -20326,13 +20323,13 @@
         <v>1537</v>
       </c>
       <c r="K207" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L207" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M207" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N207" s="19"/>
       <c r="O207" s="19" t="s">
@@ -20380,7 +20377,7 @@
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I208" s="95" t="s">
         <v>1491</v>
@@ -20389,13 +20386,13 @@
         <v>1537</v>
       </c>
       <c r="K208" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L208" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M208" s="19" t="s">
-        <v>1944</v>
+        <v>159</v>
       </c>
       <c r="N208" s="19"/>
       <c r="O208" s="19" t="s">
@@ -20443,7 +20440,7 @@
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I209" s="95" t="s">
         <v>1491</v>
@@ -20458,7 +20455,7 @@
         <v>1943</v>
       </c>
       <c r="M209" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N209" s="19"/>
       <c r="O209" s="19" t="s">
@@ -20502,11 +20499,11 @@
         <v>33</v>
       </c>
       <c r="F210" s="19" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I210" s="95" t="s">
         <v>1491</v>
@@ -20521,7 +20518,7 @@
         <v>7</v>
       </c>
       <c r="M210" s="19" t="s">
-        <v>554</v>
+        <v>2032</v>
       </c>
       <c r="N210" s="19"/>
       <c r="O210" s="19" t="s">
@@ -20565,17 +20562,17 @@
         <v>52</v>
       </c>
       <c r="F211" s="19" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I211" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J211" s="84" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="K211" s="23" t="s">
         <v>353</v>
@@ -20584,7 +20581,7 @@
         <v>7</v>
       </c>
       <c r="M211" s="19" t="s">
-        <v>554</v>
+        <v>2033</v>
       </c>
       <c r="N211" s="19"/>
       <c r="O211" s="19" t="s">
@@ -20628,17 +20625,17 @@
         <v>33</v>
       </c>
       <c r="F212" s="19" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="G212" s="4"/>
       <c r="H212" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I212" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J212" s="84" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="K212" s="23" t="s">
         <v>353</v>
@@ -20647,7 +20644,7 @@
         <v>7</v>
       </c>
       <c r="M212" s="19" t="s">
-        <v>9</v>
+        <v>2033</v>
       </c>
       <c r="N212" s="19"/>
       <c r="O212" s="19" t="s">
@@ -20695,13 +20692,13 @@
       </c>
       <c r="G213" s="4"/>
       <c r="H213" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I213" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J213" s="84" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="K213" s="23" t="s">
         <v>353</v>
@@ -20758,13 +20755,13 @@
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I214" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J214" s="84" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="K214" s="23" t="s">
         <v>353</v>
@@ -20821,7 +20818,7 @@
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I215" s="95" t="s">
         <v>1491</v>
@@ -20830,13 +20827,13 @@
         <v>1587</v>
       </c>
       <c r="K215" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L215" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M215" s="19" t="s">
-        <v>554</v>
+        <v>2033</v>
       </c>
       <c r="N215" s="19"/>
       <c r="O215" s="19" t="s">
@@ -20884,7 +20881,7 @@
       </c>
       <c r="G216" s="4"/>
       <c r="H216" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I216" s="95" t="s">
         <v>1491</v>
@@ -20893,13 +20890,13 @@
         <v>1587</v>
       </c>
       <c r="K216" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L216" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M216" s="19" t="s">
-        <v>1944</v>
+        <v>2033</v>
       </c>
       <c r="N216" s="19"/>
       <c r="O216" s="19" t="s">
@@ -20947,7 +20944,7 @@
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I217" s="95" t="s">
         <v>1491</v>
@@ -20962,7 +20959,7 @@
         <v>7</v>
       </c>
       <c r="M217" s="19" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N217" s="19"/>
       <c r="O217" s="19" t="s">
@@ -21006,11 +21003,11 @@
         <v>33</v>
       </c>
       <c r="F218" s="19" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I218" s="95" t="s">
         <v>1491</v>
@@ -21025,7 +21022,7 @@
         <v>7</v>
       </c>
       <c r="M218" s="19" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N218" s="19"/>
       <c r="O218" s="19" t="s">
@@ -21073,22 +21070,22 @@
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I219" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J219" s="70" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="K219" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L219" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M219" s="19" t="s">
-        <v>1944</v>
+        <v>159</v>
       </c>
       <c r="N219" s="19"/>
       <c r="O219" s="19" t="s">
@@ -21132,26 +21129,26 @@
         <v>33</v>
       </c>
       <c r="F220" s="19" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I220" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J220" s="70" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="K220" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L220" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M220" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N220" s="19"/>
       <c r="O220" s="19" t="s">
@@ -21199,22 +21196,22 @@
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I221" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J221" s="70" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="K221" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L221" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M221" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N221" s="19"/>
       <c r="O221" s="19" t="s">
@@ -21258,26 +21255,26 @@
         <v>33</v>
       </c>
       <c r="F222" s="19" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I222" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J222" s="70" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="K222" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L222" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M222" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N222" s="19"/>
       <c r="O222" s="19" t="s">
@@ -21321,26 +21318,26 @@
         <v>33</v>
       </c>
       <c r="F223" s="19" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I223" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J223" s="70" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="K223" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L223" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M223" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N223" s="19"/>
       <c r="O223" s="19" t="s">
@@ -21384,26 +21381,26 @@
         <v>90</v>
       </c>
       <c r="F224" s="19" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I224" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J224" s="70" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="K224" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L224" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M224" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N224" s="19"/>
       <c r="O224" s="19" t="s">
@@ -21447,17 +21444,17 @@
         <v>33</v>
       </c>
       <c r="F225" s="19" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I225" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J225" s="86" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="K225" s="11" t="s">
         <v>168</v>
@@ -21466,7 +21463,7 @@
         <v>7</v>
       </c>
       <c r="M225" s="19" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="N225" s="19"/>
       <c r="O225" s="19" t="s">
@@ -21510,17 +21507,17 @@
         <v>33</v>
       </c>
       <c r="F226" s="19" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="G226" s="4"/>
       <c r="H226" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I226" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J226" s="86" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="K226" s="11" t="s">
         <v>168</v>
@@ -21529,7 +21526,7 @@
         <v>7</v>
       </c>
       <c r="M226" s="19" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="N226" s="19"/>
       <c r="O226" s="19" t="s">
@@ -21573,17 +21570,17 @@
         <v>81</v>
       </c>
       <c r="F227" s="19" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I227" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J227" s="86" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="K227" s="11" t="s">
         <v>168</v>
@@ -21592,7 +21589,7 @@
         <v>7</v>
       </c>
       <c r="M227" s="19" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="N227" s="19"/>
       <c r="O227" s="19" t="s">
@@ -21636,17 +21633,17 @@
         <v>81</v>
       </c>
       <c r="F228" s="19" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I228" s="95" t="s">
         <v>1491</v>
       </c>
       <c r="J228" s="86" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="K228" s="11" t="s">
         <v>168</v>
@@ -21655,7 +21652,7 @@
         <v>7</v>
       </c>
       <c r="M228" s="19" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="N228" s="19"/>
       <c r="O228" s="19" t="s">
@@ -21699,11 +21696,11 @@
         <v>186</v>
       </c>
       <c r="F229" s="19" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I229" s="87" t="s">
         <v>1677</v>
@@ -21712,7 +21709,7 @@
         <v>1678</v>
       </c>
       <c r="K229" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L229" s="9" t="s">
         <v>65</v>
@@ -21766,7 +21763,7 @@
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I230" s="87" t="s">
         <v>1677</v>
@@ -21775,7 +21772,7 @@
         <v>1678</v>
       </c>
       <c r="K230" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L230" s="9" t="s">
         <v>65</v>
@@ -21825,11 +21822,11 @@
         <v>186</v>
       </c>
       <c r="F231" s="19" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I231" s="87" t="s">
         <v>1677</v>
@@ -21838,7 +21835,7 @@
         <v>1678</v>
       </c>
       <c r="K231" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L231" s="9" t="s">
         <v>65</v>
@@ -21892,7 +21889,7 @@
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I232" s="87" t="s">
         <v>1677</v>
@@ -21901,7 +21898,7 @@
         <v>1678</v>
       </c>
       <c r="K232" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L232" s="9" t="s">
         <v>65</v>
@@ -21951,20 +21948,20 @@
         <v>120</v>
       </c>
       <c r="F233" s="19" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="G233" s="4"/>
       <c r="H233" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I233" s="87" t="s">
         <v>1677</v>
       </c>
       <c r="J233" s="89" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="K233" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L233" s="9" t="s">
         <v>65</v>
@@ -22018,16 +22015,16 @@
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I234" s="87" t="s">
         <v>1677</v>
       </c>
       <c r="J234" s="89" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="K234" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L234" s="9" t="s">
         <v>65</v>
@@ -22081,22 +22078,22 @@
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I235" s="87" t="s">
         <v>1677</v>
       </c>
       <c r="J235" s="89" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="K235" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L235" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M235" s="19" t="s">
-        <v>554</v>
+        <v>238</v>
       </c>
       <c r="N235" s="19"/>
       <c r="O235" s="19" t="s">
@@ -22144,13 +22141,13 @@
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I236" s="87" t="s">
         <v>1677</v>
       </c>
       <c r="J236" s="89" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="K236" s="24" t="s">
         <v>1728</v>
@@ -22159,7 +22156,7 @@
         <v>7</v>
       </c>
       <c r="M236" s="19" t="s">
-        <v>1953</v>
+        <v>238</v>
       </c>
       <c r="N236" s="19"/>
       <c r="O236" s="19" t="s">
@@ -22203,17 +22200,17 @@
         <v>126</v>
       </c>
       <c r="F237" s="19" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I237" s="87" t="s">
         <v>1677</v>
       </c>
       <c r="J237" s="89" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="K237" s="24" t="s">
         <v>1728</v>
@@ -22266,17 +22263,17 @@
         <v>126</v>
       </c>
       <c r="F238" s="19" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I238" s="87" t="s">
         <v>1677</v>
       </c>
       <c r="J238" s="89" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="K238" s="24" t="s">
         <v>1728</v>
@@ -22285,7 +22282,7 @@
         <v>7</v>
       </c>
       <c r="M238" s="19" t="s">
-        <v>1953</v>
+        <v>238</v>
       </c>
       <c r="N238" s="19"/>
       <c r="O238" s="19" t="s">
@@ -22333,7 +22330,7 @@
       </c>
       <c r="G239" s="4"/>
       <c r="H239" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I239" s="87" t="s">
         <v>1677</v>
@@ -22392,11 +22389,11 @@
         <v>54</v>
       </c>
       <c r="F240" s="19" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I240" s="87" t="s">
         <v>1677</v>
@@ -22405,13 +22402,13 @@
         <v>1750</v>
       </c>
       <c r="K240" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L240" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M240" s="19" t="s">
-        <v>1953</v>
+        <v>554</v>
       </c>
       <c r="N240" s="19"/>
       <c r="O240" s="19" t="s">
@@ -22455,26 +22452,26 @@
         <v>54</v>
       </c>
       <c r="F241" s="19" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="G241" s="4"/>
       <c r="H241" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I241" s="87" t="s">
         <v>1677</v>
       </c>
       <c r="J241" s="91" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="K241" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L241" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M241" s="19" t="s">
-        <v>1953</v>
+        <v>238</v>
       </c>
       <c r="N241" s="19"/>
       <c r="O241" s="19" t="s">
@@ -22518,26 +22515,26 @@
         <v>94</v>
       </c>
       <c r="F242" s="19" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="G242" s="4"/>
       <c r="H242" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I242" s="87" t="s">
         <v>1677</v>
       </c>
       <c r="J242" s="91" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="K242" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L242" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M242" s="19" t="s">
-        <v>554</v>
+        <v>14</v>
       </c>
       <c r="N242" s="19"/>
       <c r="O242" s="19" t="s">
@@ -22581,26 +22578,26 @@
         <v>94</v>
       </c>
       <c r="F243" s="19" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I243" s="87" t="s">
         <v>1677</v>
       </c>
       <c r="J243" s="91" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="K243" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L243" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M243" s="19" t="s">
-        <v>1953</v>
+        <v>14</v>
       </c>
       <c r="N243" s="19"/>
       <c r="O243" s="19" t="s">
@@ -22644,11 +22641,11 @@
         <v>152</v>
       </c>
       <c r="F244" s="19" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I244" s="87" t="s">
         <v>1677</v>
@@ -22711,7 +22708,7 @@
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I245" s="87" t="s">
         <v>1677</v>
@@ -22774,7 +22771,7 @@
       </c>
       <c r="G246" s="4"/>
       <c r="H246" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I246" s="87" t="s">
         <v>1677</v>
@@ -22783,7 +22780,7 @@
         <v>1799</v>
       </c>
       <c r="K246" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L246" s="9" t="s">
         <v>65</v>
@@ -22837,7 +22834,7 @@
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I247" s="87" t="s">
         <v>1677</v>
@@ -22846,13 +22843,13 @@
         <v>1799</v>
       </c>
       <c r="K247" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L247" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M247" s="19" t="s">
-        <v>1944</v>
+        <v>14</v>
       </c>
       <c r="N247" s="19"/>
       <c r="O247" s="19" t="s">
@@ -22900,7 +22897,7 @@
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I248" s="87" t="s">
         <v>1677</v>
@@ -22909,7 +22906,7 @@
         <v>1799</v>
       </c>
       <c r="K248" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L248" s="9" t="s">
         <v>65</v>
@@ -22959,11 +22956,11 @@
         <v>36</v>
       </c>
       <c r="F249" s="19" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I249" s="87" t="s">
         <v>1677</v>
@@ -22972,13 +22969,13 @@
         <v>1799</v>
       </c>
       <c r="K249" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L249" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M249" s="19" t="s">
-        <v>1953</v>
+        <v>14</v>
       </c>
       <c r="N249" s="19"/>
       <c r="O249" s="19" t="s">
@@ -23026,7 +23023,7 @@
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I250" s="87" t="s">
         <v>1677</v>
@@ -23089,7 +23086,7 @@
       </c>
       <c r="G251" s="4"/>
       <c r="H251" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I251" s="87" t="s">
         <v>1677</v>
@@ -23152,7 +23149,7 @@
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I252" s="87" t="s">
         <v>1677</v>
@@ -23164,10 +23161,10 @@
         <v>150</v>
       </c>
       <c r="L252" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M252" s="19" t="s">
-        <v>554</v>
+        <v>2033</v>
       </c>
       <c r="N252" s="19"/>
       <c r="O252" s="19" t="s">
@@ -23211,11 +23208,11 @@
         <v>126</v>
       </c>
       <c r="F253" s="19" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I253" s="87" t="s">
         <v>1677</v>
@@ -23227,10 +23224,10 @@
         <v>150</v>
       </c>
       <c r="L253" s="34" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M253" s="19" t="s">
-        <v>554</v>
+        <v>2033</v>
       </c>
       <c r="N253" s="19"/>
       <c r="O253" s="19" t="s">
@@ -23274,11 +23271,11 @@
         <v>112</v>
       </c>
       <c r="F254" s="19" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I254" s="87" t="s">
         <v>1677</v>
@@ -23341,7 +23338,7 @@
       </c>
       <c r="G255" s="4"/>
       <c r="H255" s="30" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="I255" s="87" t="s">
         <v>1677</v>
